--- a/source.xlsx
+++ b/source.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -8361,7 +8361,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
+      <c r="A395" s="0" t="inlineStr">
         <is>
           <t>快手</t>
         </is>
@@ -8371,14 +8371,36 @@
           <t>快手精排模型实践</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
+      <c r="C395" s="0" t="inlineStr">
         <is>
           <t>精排&amp;CXR预估</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr">
+      <c r="D395" s="0" t="inlineStr">
         <is>
           <t>2023/2/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>阿里飞猪</t>
+        </is>
+      </c>
+      <c r="B396" s="6" t="inlineStr">
+        <is>
+          <t>阿里飞猪“猜你喜欢”推荐排序实践</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
         </is>
       </c>
     </row>
@@ -8783,6 +8805,7 @@
     <hyperlink ref="B393" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651746611&amp;idx=1&amp;sn=c9bf49b74c52ba3a091051772828fb54&amp;chksm=bd12a87e8a6521689690ea992fe69ab4b37cbb3f77942e2900314033fdda361d9993af6698fa&amp;mpshare=1&amp;scene=1&amp;srcid=0117WfBjqkaqVXB9LUCBJpti&amp;sharer_sharetime=1673957092409&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId392"/>
     <hyperlink ref="B394" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651746412&amp;idx=1&amp;sn=885e98dd829dabbe3858d6b2ea9f954f&amp;chksm=bd12a9218a652037b31b32188ff61258bdae61b3ab8bc5d326ac6f9d199cb1d83260701ff3ec&amp;mpshare=1&amp;scene=1&amp;srcid=0117bKvljgSQqp4W9Kz9mPdU&amp;sharer_sharetime=1673957061139&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId393"/>
     <hyperlink ref="B395" r:id="rId394"/>
+    <hyperlink ref="B396" r:id="rId395"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D396"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -8383,7 +8383,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
+      <c r="A396" s="0" t="inlineStr">
         <is>
           <t>阿里飞猪</t>
         </is>
@@ -8393,14 +8393,58 @@
           <t>阿里飞猪“猜你喜欢”推荐排序实践</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
+      <c r="C396" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D396" s="0" t="inlineStr">
         <is>
           <t>2020-04-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>贝壳</t>
+        </is>
+      </c>
+      <c r="B397" s="6" t="inlineStr">
+        <is>
+          <t>DeepFM在贝壳房源详情页推荐场景的实践</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2019/12/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>贝壳</t>
+        </is>
+      </c>
+      <c r="B398" s="6" t="inlineStr">
+        <is>
+          <t>wide&amp;deep 在贝壳推荐场景的实践</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>2019/12/18</t>
         </is>
       </c>
     </row>
@@ -8806,6 +8850,8 @@
     <hyperlink ref="B394" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651746412&amp;idx=1&amp;sn=885e98dd829dabbe3858d6b2ea9f954f&amp;chksm=bd12a9218a652037b31b32188ff61258bdae61b3ab8bc5d326ac6f9d199cb1d83260701ff3ec&amp;mpshare=1&amp;scene=1&amp;srcid=0117bKvljgSQqp4W9Kz9mPdU&amp;sharer_sharetime=1673957061139&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId393"/>
     <hyperlink ref="B395" r:id="rId394"/>
     <hyperlink ref="B396" r:id="rId395"/>
+    <hyperlink ref="B397" r:id="rId396"/>
+    <hyperlink ref="B398" r:id="rId397"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D398"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -8405,7 +8405,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
+      <c r="A397" s="0" t="inlineStr">
         <is>
           <t>贝壳</t>
         </is>
@@ -8415,19 +8415,19 @@
           <t>DeepFM在贝壳房源详情页推荐场景的实践</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr">
+      <c r="C397" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D397" s="0" t="inlineStr">
         <is>
           <t>2019/12/30</t>
         </is>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
+      <c r="A398" s="0" t="inlineStr">
         <is>
           <t>贝壳</t>
         </is>
@@ -8437,14 +8437,58 @@
           <t>wide&amp;deep 在贝壳推荐场景的实践</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
+      <c r="C398" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D398" s="0" t="inlineStr">
         <is>
           <t>2019/12/18</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B399" s="6" t="inlineStr">
+        <is>
+          <t>Transformer 在美团搜索排序中的实践</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2020/4/16</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B400" s="6" t="inlineStr">
+        <is>
+          <t>大众点评搜索基于知识图谱的深度学习排序实践</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>2019/1/17</t>
         </is>
       </c>
     </row>
@@ -8852,6 +8896,8 @@
     <hyperlink ref="B396" r:id="rId395"/>
     <hyperlink ref="B397" r:id="rId396"/>
     <hyperlink ref="B398" r:id="rId397"/>
+    <hyperlink ref="B399" r:id="rId398"/>
+    <hyperlink ref="B400" r:id="rId399"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -8449,7 +8449,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
+      <c r="A399" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -8459,19 +8459,19 @@
           <t>Transformer 在美团搜索排序中的实践</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr">
+      <c r="C399" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D399" t="inlineStr">
+      <c r="D399" s="0" t="inlineStr">
         <is>
           <t>2020/4/16</t>
         </is>
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
+      <c r="A400" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -8481,14 +8481,58 @@
           <t>大众点评搜索基于知识图谱的深度学习排序实践</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr">
+      <c r="C400" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr">
+      <c r="D400" s="0" t="inlineStr">
         <is>
           <t>2019/1/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B401" s="6" t="inlineStr">
+        <is>
+          <t>当你打开天猫的那一刻，推荐系统做了哪些工作？</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>2019/6/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B402" s="6" t="inlineStr">
+        <is>
+          <t>深度学习在360搜索广告 NLP 任务中的应用</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>2019/7/18</t>
         </is>
       </c>
     </row>
@@ -8898,6 +8942,8 @@
     <hyperlink ref="B398" r:id="rId397"/>
     <hyperlink ref="B399" r:id="rId398"/>
     <hyperlink ref="B400" r:id="rId399"/>
+    <hyperlink ref="B401" r:id="rId400"/>
+    <hyperlink ref="B402" r:id="rId401"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -8493,7 +8493,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
+      <c r="A401" s="0" t="inlineStr">
         <is>
           <t>阿里</t>
         </is>
@@ -8503,19 +8503,19 @@
           <t>当你打开天猫的那一刻，推荐系统做了哪些工作？</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
+      <c r="C401" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D401" s="0" t="inlineStr">
         <is>
           <t>2019/6/4</t>
         </is>
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr">
+      <c r="A402" s="0" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -8525,14 +8525,58 @@
           <t>深度学习在360搜索广告 NLP 任务中的应用</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr">
+      <c r="C402" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr">
+      <c r="D402" s="0" t="inlineStr">
         <is>
           <t>2019/7/18</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B403" s="6" t="inlineStr">
+        <is>
+          <t>交互式推荐在外卖场景的探索与应用</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B404" s="6" t="inlineStr">
+        <is>
+          <t>小红书广告智能创意能力构建过程详解</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
         </is>
       </c>
     </row>
@@ -8944,6 +8988,8 @@
     <hyperlink ref="B400" r:id="rId399"/>
     <hyperlink ref="B401" r:id="rId400"/>
     <hyperlink ref="B402" r:id="rId401"/>
+    <hyperlink ref="B403" r:id="rId402"/>
+    <hyperlink ref="B404" r:id="rId403"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D404"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -8537,7 +8537,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr">
+      <c r="A403" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -8547,19 +8547,19 @@
           <t>交互式推荐在外卖场景的探索与应用</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr">
+      <c r="C403" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D403" s="0" t="inlineStr">
         <is>
           <t>2023/02/16</t>
         </is>
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
+      <c r="A404" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -8569,14 +8569,36 @@
           <t>小红书广告智能创意能力构建过程详解</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr">
+      <c r="C404" s="0" t="inlineStr">
         <is>
           <t>广告</t>
         </is>
       </c>
-      <c r="D404" t="inlineStr">
+      <c r="D404" s="0" t="inlineStr">
         <is>
           <t>2023/02/16</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>腾讯音乐</t>
+        </is>
+      </c>
+      <c r="B405" s="6" t="inlineStr">
+        <is>
+          <t>粗排上不了COLD？我们提出了异构三塔粗排</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>粗排</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>2023/3/7</t>
         </is>
       </c>
     </row>
@@ -8990,6 +9012,7 @@
     <hyperlink ref="B402" r:id="rId401"/>
     <hyperlink ref="B403" r:id="rId402"/>
     <hyperlink ref="B404" r:id="rId403"/>
+    <hyperlink ref="B405" r:id="rId404"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -8581,7 +8581,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr">
+      <c r="A405" s="0" t="inlineStr">
         <is>
           <t>腾讯音乐</t>
         </is>
@@ -8591,14 +8591,322 @@
           <t>粗排上不了COLD？我们提出了异构三塔粗排</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr">
+      <c r="C405" s="0" t="inlineStr">
         <is>
           <t>粗排</t>
         </is>
       </c>
-      <c r="D405" t="inlineStr">
+      <c r="D405" s="0" t="inlineStr">
         <is>
           <t>2023/3/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>阿里淘系</t>
+        </is>
+      </c>
+      <c r="B406" s="6" t="inlineStr">
+        <is>
+          <t>直播回顾 | 阿里淘系技术：算法黑科技</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2021/11/29</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>阿里淘系</t>
+        </is>
+      </c>
+      <c r="B407" s="6" t="inlineStr">
+        <is>
+          <t>直播回顾 | 大淘宝技术“推荐算法”PART 1</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2021/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>阿里淘系</t>
+        </is>
+      </c>
+      <c r="B408" s="6" t="inlineStr">
+        <is>
+          <t>直播回顾 | 大淘宝技术“推荐算法”PART 2</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2021/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>阿里淘系</t>
+        </is>
+      </c>
+      <c r="B409" s="6" t="inlineStr">
+        <is>
+          <t>直播回顾 | 大淘宝技术“推荐算法”PART 3</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2021/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>阿里淘系</t>
+        </is>
+      </c>
+      <c r="B410" s="6" t="inlineStr">
+        <is>
+          <t>直播回顾 | 大淘宝技术“搜索算法”专场①：淘宝搜索召回、个性化搜索排序</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022/1/14</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>阿里淘系</t>
+        </is>
+      </c>
+      <c r="B411" s="6" t="inlineStr">
+        <is>
+          <t>直播回顾 | 大淘宝技术“搜索算法”专场②：电商搜索相关性、电商知识图谱</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022/1/14</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B412" s="6" t="inlineStr">
+        <is>
+          <t>代码开源！阿里妈妈展示广告Match底层技术架构最新进展</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023/3/14</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B413" s="6" t="inlineStr">
+        <is>
+          <t>贝叶斯分层模型应用之直播场景打分校准</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>精排</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023/3/14</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B414" s="6" t="inlineStr">
+        <is>
+          <t>小红书高时效推荐系统背后的技术升级</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023/3/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B415" s="6" t="inlineStr">
+        <is>
+          <t>多场景多任务学习在美团到店餐饮推荐的实践</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023/3/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>阿里飞猪</t>
+        </is>
+      </c>
+      <c r="B416" s="6" t="inlineStr">
+        <is>
+          <t>飞猪旅行场景下的实时用户理解服务</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023/4/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B417" s="6" t="inlineStr">
+        <is>
+          <t>搜推系统召回阶段的前沿进展</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023/4/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>阿里淘系</t>
+        </is>
+      </c>
+      <c r="B418" s="6" t="inlineStr">
+        <is>
+          <t>每日好店——淘宝店铺推荐系统实践</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023/4/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>阿里淘系</t>
+        </is>
+      </c>
+      <c r="B419" s="6" t="inlineStr">
+        <is>
+          <t>淘宝个性化推荐中自适应与无监督的多场景模型建模实践</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023/4/10</t>
         </is>
       </c>
     </row>
@@ -9013,6 +9321,20 @@
     <hyperlink ref="B403" r:id="rId402"/>
     <hyperlink ref="B404" r:id="rId403"/>
     <hyperlink ref="B405" r:id="rId404"/>
+    <hyperlink ref="B406" r:id="rId405"/>
+    <hyperlink ref="B407" r:id="rId406"/>
+    <hyperlink ref="B408" r:id="rId407"/>
+    <hyperlink ref="B409" r:id="rId408"/>
+    <hyperlink ref="B410" r:id="rId409"/>
+    <hyperlink ref="B411" r:id="rId410"/>
+    <hyperlink ref="B412" r:id="rId411"/>
+    <hyperlink ref="B413" r:id="rId412"/>
+    <hyperlink ref="B414" r:id="rId413"/>
+    <hyperlink ref="B415" r:id="rId414"/>
+    <hyperlink ref="B416" r:id="rId415"/>
+    <hyperlink ref="B417" r:id="rId416"/>
+    <hyperlink ref="B418" r:id="rId417"/>
+    <hyperlink ref="B419" r:id="rId418"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:D423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -8869,7 +8869,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
+      <c r="A420" s="0" t="inlineStr">
         <is>
           <t>阿里淘系</t>
         </is>
@@ -8879,19 +8879,19 @@
           <t>淘宝内容化推荐场景下对多场景全域表征的思考与应用</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr">
+      <c r="C420" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D420" s="0" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
+      <c r="A421" s="0" t="inlineStr">
         <is>
           <t>阿里淘系</t>
         </is>
@@ -8901,12 +8901,56 @@
           <t>每日好店——店品排序探索模型升级</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr">
+      <c r="C421" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D421" s="0" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>阿里飞猪</t>
+        </is>
+      </c>
+      <c r="B422" s="12" t="inlineStr">
+        <is>
+          <t>因果推断技术在飞猪保险模块推荐以及可解释性应用</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="B423" s="12" t="inlineStr">
+        <is>
+          <t>微博推荐实时大模型的技术演进</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
@@ -9335,6 +9379,8 @@
     <hyperlink ref="B419" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651746412&amp;idx=1&amp;sn=885e98dd829dabbe3858d6b2ea9f954f&amp;chksm=bd12a9218a652037b31b32188ff61258bdae61b3ab8bc5d326ac6f9d199cb1d83260701ff3ec&amp;mpshare=1&amp;scene=1&amp;srcid=0117bKvljgSQqp4W9Kz9mPdU&amp;sharer_sharetime=1673957061139&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId418"/>
     <hyperlink ref="B420" r:id="rId419"/>
     <hyperlink ref="B421" r:id="rId420"/>
+    <hyperlink ref="B422" r:id="rId421"/>
+    <hyperlink ref="B423" r:id="rId422"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D423"/>
+  <dimension ref="A1:D424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -8913,7 +8913,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr">
+      <c r="A422" s="0" t="inlineStr">
         <is>
           <t>阿里飞猪</t>
         </is>
@@ -8923,19 +8923,19 @@
           <t>因果推断技术在飞猪保险模块推荐以及可解释性应用</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
+      <c r="C422" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D422" s="0" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr">
+      <c r="A423" s="0" t="inlineStr">
         <is>
           <t>微博</t>
         </is>
@@ -8945,14 +8945,36 @@
           <t>微博推荐实时大模型的技术演进</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
+      <c r="C423" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D423" s="0" t="inlineStr">
         <is>
           <t>2023-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B424" s="12" t="inlineStr">
+        <is>
+          <t>AdaSparse: 自适应稀疏网络的多场景CTR预估建模</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>精排</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
         </is>
       </c>
     </row>
@@ -9381,6 +9403,7 @@
     <hyperlink ref="B421" r:id="rId420"/>
     <hyperlink ref="B422" r:id="rId421"/>
     <hyperlink ref="B423" r:id="rId422"/>
+    <hyperlink ref="B424" r:id="rId423"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D427"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -8957,7 +8957,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr">
+      <c r="A424" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -8967,14 +8967,80 @@
           <t>AdaSparse: 自适应稀疏网络的多场景CTR预估建模</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr">
+      <c r="C424" s="0" t="inlineStr">
         <is>
           <t>精排</t>
         </is>
       </c>
-      <c r="D424" t="inlineStr">
+      <c r="D424" s="0" t="inlineStr">
         <is>
           <t>2023-05-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B425" s="12" t="inlineStr">
+        <is>
+          <t>Calibration4CVR：2018年关于“神经元级别共享的多任务CVR”的初探</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>2023-03-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>阿里健康</t>
+        </is>
+      </c>
+      <c r="B426" s="12" t="inlineStr">
+        <is>
+          <t>阿里可解释性推荐算法应用</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B427" s="12" t="inlineStr">
+        <is>
+          <t>多任务学习最新进展：基于神经元级共享的 CTR、CVR 多任务联合预估方法</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9404,6 +9470,9 @@
     <hyperlink ref="B422" r:id="rId421"/>
     <hyperlink ref="B423" r:id="rId422"/>
     <hyperlink ref="B424" r:id="rId423"/>
+    <hyperlink ref="B425" r:id="rId424"/>
+    <hyperlink ref="B426" r:id="rId425"/>
+    <hyperlink ref="B427" r:id="rId426"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D427"/>
+  <dimension ref="A1:D428"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -8979,7 +8979,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr">
+      <c r="A425" s="0" t="inlineStr">
         <is>
           <t>Shopee</t>
         </is>
@@ -8989,19 +8989,19 @@
           <t>Calibration4CVR：2018年关于“神经元级别共享的多任务CVR”的初探</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
+      <c r="C425" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D425" s="0" t="inlineStr">
         <is>
           <t>2023-03-05</t>
         </is>
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
+      <c r="A426" s="0" t="inlineStr">
         <is>
           <t>阿里健康</t>
         </is>
@@ -9011,19 +9011,19 @@
           <t>阿里可解释性推荐算法应用</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
+      <c r="C426" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D426" s="0" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
+      <c r="A427" s="0" t="inlineStr">
         <is>
           <t>Shopee</t>
         </is>
@@ -9033,14 +9033,36 @@
           <t>多任务学习最新进展：基于神经元级共享的 CTR、CVR 多任务联合预估方法</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D427" t="inlineStr">
+      <c r="C427" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D427" s="0" t="inlineStr">
         <is>
           <t>2023-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B428" s="12" t="inlineStr">
+        <is>
+          <t>阿里解耦域适应无偏召回模型详解</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>2023-06-04</t>
         </is>
       </c>
     </row>
@@ -9473,6 +9495,7 @@
     <hyperlink ref="B425" r:id="rId424"/>
     <hyperlink ref="B426" r:id="rId425"/>
     <hyperlink ref="B427" r:id="rId426"/>
+    <hyperlink ref="B428" r:id="rId427"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D428"/>
+  <dimension ref="A1:D429"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9045,7 +9045,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
+      <c r="A428" s="0" t="inlineStr">
         <is>
           <t>阿里</t>
         </is>
@@ -9055,14 +9055,36 @@
           <t>阿里解耦域适应无偏召回模型详解</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr">
+      <c r="C428" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D428" t="inlineStr">
+      <c r="D428" s="0" t="inlineStr">
         <is>
           <t>2023-06-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>阿里淘系</t>
+        </is>
+      </c>
+      <c r="B429" s="12" t="inlineStr">
+        <is>
+          <t>Generator-Evaluator重排模型在淘宝流式场景的实践</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>重排</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
         </is>
       </c>
     </row>
@@ -9496,6 +9518,7 @@
     <hyperlink ref="B426" r:id="rId425"/>
     <hyperlink ref="B427" r:id="rId426"/>
     <hyperlink ref="B428" r:id="rId427"/>
+    <hyperlink ref="B429" r:id="rId428"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9067,7 +9067,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr">
+      <c r="A429" s="0" t="inlineStr">
         <is>
           <t>阿里淘系</t>
         </is>
@@ -9077,14 +9077,36 @@
           <t>Generator-Evaluator重排模型在淘宝流式场景的实践</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr">
+      <c r="C429" s="0" t="inlineStr">
         <is>
           <t>重排</t>
         </is>
       </c>
-      <c r="D429" t="inlineStr">
+      <c r="D429" s="0" t="inlineStr">
         <is>
           <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B430" s="12" t="inlineStr">
+        <is>
+          <t>排序和准度联合优化：一种基于混合生成/判别式建模的方案</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
         </is>
       </c>
     </row>
@@ -9519,6 +9541,7 @@
     <hyperlink ref="B427" r:id="rId426"/>
     <hyperlink ref="B428" r:id="rId427"/>
     <hyperlink ref="B429" r:id="rId428"/>
+    <hyperlink ref="B430" r:id="rId429"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D430"/>
+  <dimension ref="A1:D431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9089,7 +9089,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
+      <c r="A430" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -9099,14 +9099,36 @@
           <t>排序和准度联合优化：一种基于混合生成/判别式建模的方案</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr">
+      <c r="C430" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr">
+      <c r="D430" s="0" t="inlineStr">
         <is>
           <t>2023-06-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>小米电商</t>
+        </is>
+      </c>
+      <c r="B431" s="12" t="inlineStr">
+        <is>
+          <t>多任务学习梯度冲突在电商场景的改进</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>多任务学习</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>2023-06-24</t>
         </is>
       </c>
     </row>
@@ -9542,6 +9564,7 @@
     <hyperlink ref="B428" r:id="rId427"/>
     <hyperlink ref="B429" r:id="rId428"/>
     <hyperlink ref="B430" r:id="rId429"/>
+    <hyperlink ref="B431" r:id="rId430"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D431"/>
+  <dimension ref="A1:D432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9111,7 +9111,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
+      <c r="A431" s="0" t="inlineStr">
         <is>
           <t>小米电商</t>
         </is>
@@ -9121,14 +9121,36 @@
           <t>多任务学习梯度冲突在电商场景的改进</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr">
+      <c r="C431" s="0" t="inlineStr">
         <is>
           <t>多任务学习</t>
         </is>
       </c>
-      <c r="D431" t="inlineStr">
+      <c r="D431" s="0" t="inlineStr">
         <is>
           <t>2023-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B432" s="12" t="inlineStr">
+        <is>
+          <t>转化率预估新思路：基于历史数据复用的大促转化率精准预估</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
         </is>
       </c>
     </row>
@@ -9565,6 +9587,7 @@
     <hyperlink ref="B429" r:id="rId428"/>
     <hyperlink ref="B430" r:id="rId429"/>
     <hyperlink ref="B431" r:id="rId430"/>
+    <hyperlink ref="B432" r:id="rId431"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D432"/>
+  <dimension ref="A1:D433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9133,7 +9133,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
+      <c r="A432" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -9143,12 +9143,34 @@
           <t>转化率预估新思路：基于历史数据复用的大促转化率精准预估</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr">
+      <c r="C432" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D432" s="0" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>腾讯</t>
+        </is>
+      </c>
+      <c r="B433" s="12" t="inlineStr">
+        <is>
+          <t>对话双塔——腾讯视频中的粗排相关性模型</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>粗排相关性</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
@@ -9588,6 +9610,7 @@
     <hyperlink ref="B430" r:id="rId429"/>
     <hyperlink ref="B431" r:id="rId430"/>
     <hyperlink ref="B432" r:id="rId431"/>
+    <hyperlink ref="B433" r:id="rId432"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D433"/>
+  <dimension ref="A1:D435"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9155,7 +9155,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
+      <c r="A433" s="0" t="inlineStr">
         <is>
           <t>腾讯</t>
         </is>
@@ -9165,14 +9165,58 @@
           <t>对话双塔——腾讯视频中的粗排相关性模型</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr">
+      <c r="C433" s="0" t="inlineStr">
         <is>
           <t>粗排相关性</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr">
+      <c r="D433" s="0" t="inlineStr">
         <is>
           <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B434" s="12" t="inlineStr">
+        <is>
+          <t>美团外卖智能陪伴型导购的探索与实践</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Query推荐</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="B435" s="12" t="inlineStr">
+        <is>
+          <t>京东搜索EE链路演进</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>搜索生态</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
         </is>
       </c>
     </row>
@@ -9611,6 +9655,8 @@
     <hyperlink ref="B431" r:id="rId430"/>
     <hyperlink ref="B432" r:id="rId431"/>
     <hyperlink ref="B433" r:id="rId432"/>
+    <hyperlink ref="B434" r:id="rId433"/>
+    <hyperlink ref="B435" r:id="rId434"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9177,7 +9177,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
+      <c r="A434" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -9187,19 +9187,19 @@
           <t>美团外卖智能陪伴型导购的探索与实践</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr">
+      <c r="C434" s="0" t="inlineStr">
         <is>
           <t>Query推荐</t>
         </is>
       </c>
-      <c r="D434" t="inlineStr">
+      <c r="D434" s="0" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
+      <c r="A435" s="0" t="inlineStr">
         <is>
           <t>京东</t>
         </is>
@@ -9209,14 +9209,36 @@
           <t>京东搜索EE链路演进</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="0" t="inlineStr">
         <is>
           <t>搜索生态</t>
         </is>
       </c>
-      <c r="D435" t="inlineStr">
+      <c r="D435" s="0" t="inlineStr">
         <is>
           <t>2023-07-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B436" s="12" t="inlineStr">
+        <is>
+          <t>美团外卖推荐关于用户新颖体验优化的技术探索</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
         </is>
       </c>
     </row>
@@ -9657,6 +9679,7 @@
     <hyperlink ref="B433" r:id="rId432"/>
     <hyperlink ref="B434" r:id="rId433"/>
     <hyperlink ref="B435" r:id="rId434"/>
+    <hyperlink ref="B436" r:id="rId435"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D436"/>
+  <dimension ref="A1:D437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9221,7 +9221,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
+      <c r="A436" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -9231,14 +9231,36 @@
           <t>美团外卖推荐关于用户新颖体验优化的技术探索</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr">
+      <c r="C436" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D436" s="0" t="inlineStr">
         <is>
           <t>2023-07-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B437" s="12" t="inlineStr">
+        <is>
+          <t>百度凤巢大模型与搜索广告满意度设计与实践</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
         </is>
       </c>
     </row>
@@ -9680,6 +9702,7 @@
     <hyperlink ref="B434" r:id="rId433"/>
     <hyperlink ref="B435" r:id="rId434"/>
     <hyperlink ref="B436" r:id="rId435"/>
+    <hyperlink ref="B437" r:id="rId436"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D437"/>
+  <dimension ref="A1:D438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9243,7 +9243,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
+      <c r="A437" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -9253,14 +9253,36 @@
           <t>百度凤巢大模型与搜索广告满意度设计与实践</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
+      <c r="C437" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D437" t="inlineStr">
+      <c r="D437" s="0" t="inlineStr">
         <is>
           <t>2023-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B438" s="12" t="inlineStr">
+        <is>
+          <t>[0826推荐系统峰会]百度推荐排序技术的思考[提取码:r5kv]</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
         </is>
       </c>
     </row>
@@ -9703,6 +9725,7 @@
     <hyperlink ref="B435" r:id="rId434"/>
     <hyperlink ref="B436" r:id="rId435"/>
     <hyperlink ref="B437" r:id="rId436"/>
+    <hyperlink ref="B438" r:id="rId437"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D438"/>
+  <dimension ref="A1:D439"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9265,7 +9265,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
+      <c r="A438" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -9275,12 +9275,34 @@
           <t>[0826推荐系统峰会]百度推荐排序技术的思考[提取码:r5kv]</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr">
+      <c r="C438" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D438" s="0" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>新浪</t>
+        </is>
+      </c>
+      <c r="B439" s="12" t="inlineStr">
+        <is>
+          <t>[0826推荐系统峰会]推荐系统大模型启发的MemoNet[提取码:ckpa]</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>CTR预估</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
@@ -9726,6 +9748,7 @@
     <hyperlink ref="B436" r:id="rId435"/>
     <hyperlink ref="B437" r:id="rId436"/>
     <hyperlink ref="B438" r:id="rId437"/>
+    <hyperlink ref="B439" r:id="rId438"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D439"/>
+  <dimension ref="A1:D440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9287,7 +9287,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
+      <c r="A439" s="0" t="inlineStr">
         <is>
           <t>新浪</t>
         </is>
@@ -9297,12 +9297,34 @@
           <t>[0826推荐系统峰会]推荐系统大模型启发的MemoNet[提取码:ckpa]</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
+      <c r="C439" s="0" t="inlineStr">
         <is>
           <t>CTR预估</t>
         </is>
       </c>
-      <c r="D439" t="inlineStr">
+      <c r="D439" s="0" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>网易</t>
+        </is>
+      </c>
+      <c r="B440" s="12" t="inlineStr">
+        <is>
+          <t>[0826推荐系统峰会]网易云音乐推荐的多模态冷启技术[提取码:x72d]</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
@@ -9749,6 +9771,7 @@
     <hyperlink ref="B437" r:id="rId436"/>
     <hyperlink ref="B438" r:id="rId437"/>
     <hyperlink ref="B439" r:id="rId438"/>
+    <hyperlink ref="B440" r:id="rId439"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D440"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9309,7 +9309,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
+      <c r="A440" s="0" t="inlineStr">
         <is>
           <t>网易</t>
         </is>
@@ -9319,12 +9319,34 @@
           <t>[0826推荐系统峰会]网易云音乐推荐的多模态冷启技术[提取码:x72d]</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
+      <c r="C440" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D440" t="inlineStr">
+      <c r="D440" s="0" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B441" s="12" t="inlineStr">
+        <is>
+          <t>[0826推荐系统峰会]快手内容冷启动模型实践[提取码:cjbc]</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
@@ -9772,6 +9794,7 @@
     <hyperlink ref="B438" r:id="rId437"/>
     <hyperlink ref="B439" r:id="rId438"/>
     <hyperlink ref="B440" r:id="rId439"/>
+    <hyperlink ref="B441" r:id="rId440"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D441"/>
+  <dimension ref="A1:D442"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9331,7 +9331,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
+      <c r="A441" s="0" t="inlineStr">
         <is>
           <t>快手</t>
         </is>
@@ -9341,12 +9341,34 @@
           <t>[0826推荐系统峰会]快手内容冷启动模型实践[提取码:cjbc]</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr">
+      <c r="C441" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D441" t="inlineStr">
+      <c r="D441" s="0" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B442" s="12" t="inlineStr">
+        <is>
+          <t>百度视频推荐跨域多目标预估与融合的实践和思考[提取码:cva3]</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>多目标</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
@@ -9795,6 +9817,7 @@
     <hyperlink ref="B439" r:id="rId438"/>
     <hyperlink ref="B440" r:id="rId439"/>
     <hyperlink ref="B441" r:id="rId440"/>
+    <hyperlink ref="B442" r:id="rId441"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D442"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9353,7 +9353,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
+      <c r="A442" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -9363,12 +9363,34 @@
           <t>百度视频推荐跨域多目标预估与融合的实践和思考[提取码:cva3]</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr">
+      <c r="C442" s="0" t="inlineStr">
         <is>
           <t>多目标</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr">
+      <c r="D442" s="0" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>虎牙</t>
+        </is>
+      </c>
+      <c r="B443" s="12" t="inlineStr">
+        <is>
+          <t>面向直播场景的虎牙排序算法实践[提取码:yhb8]</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
@@ -9818,6 +9840,7 @@
     <hyperlink ref="B440" r:id="rId439"/>
     <hyperlink ref="B441" r:id="rId440"/>
     <hyperlink ref="B442" r:id="rId441"/>
+    <hyperlink ref="B443" r:id="rId442"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9375,7 +9375,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
+      <c r="A443" s="0" t="inlineStr">
         <is>
           <t>虎牙</t>
         </is>
@@ -9385,12 +9385,34 @@
           <t>面向直播场景的虎牙排序算法实践[提取码:yhb8]</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr">
+      <c r="C443" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D443" t="inlineStr">
+      <c r="D443" s="0" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>58同城</t>
+        </is>
+      </c>
+      <c r="B444" s="12" t="inlineStr">
+        <is>
+          <t>深度学习在互联网房产推荐场景的算法实践[提取码:wcz7]</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
@@ -9841,6 +9863,7 @@
     <hyperlink ref="B441" r:id="rId440"/>
     <hyperlink ref="B442" r:id="rId441"/>
     <hyperlink ref="B443" r:id="rId442"/>
+    <hyperlink ref="B444" r:id="rId443"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:D446"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9397,7 +9397,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
+      <c r="A444" s="0" t="inlineStr">
         <is>
           <t>58同城</t>
         </is>
@@ -9407,12 +9407,56 @@
           <t>深度学习在互联网房产推荐场景的算法实践[提取码:wcz7]</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
+      <c r="C444" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr">
+      <c r="D444" s="0" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="B445" s="12" t="inlineStr">
+        <is>
+          <t>图机器学习在京东视频召回中的应用[提取码:gfkx]</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B446" s="12" t="inlineStr">
+        <is>
+          <t>图模型在百度推荐系统的实践与思考[提取码:huaz]</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
@@ -9864,6 +9908,8 @@
     <hyperlink ref="B442" r:id="rId441"/>
     <hyperlink ref="B443" r:id="rId442"/>
     <hyperlink ref="B444" r:id="rId443"/>
+    <hyperlink ref="B445" r:id="rId444"/>
+    <hyperlink ref="B446" r:id="rId445"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D446"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9419,7 +9419,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
+      <c r="A445" s="0" t="inlineStr">
         <is>
           <t>京东</t>
         </is>
@@ -9429,19 +9429,19 @@
           <t>图机器学习在京东视频召回中的应用[提取码:gfkx]</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr">
+      <c r="C445" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D445" t="inlineStr">
+      <c r="D445" s="0" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
+      <c r="A446" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -9451,14 +9451,102 @@
           <t>图模型在百度推荐系统的实践与思考[提取码:huaz]</t>
         </is>
       </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr">
+      <c r="C446" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D446" s="0" t="inlineStr">
         <is>
           <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B447" s="12" t="inlineStr">
+        <is>
+          <t>百度新资源冷启动实践[提取码:bji6]</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>蚂蚁</t>
+        </is>
+      </c>
+      <c r="B448" s="12" t="inlineStr">
+        <is>
+          <t>图算法在蚂蚁集团营销推荐场景的应用[提取码:xvvi]</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B449" s="12" t="inlineStr">
+        <is>
+          <t>语义模型在小红书社区搜索的应用[提取码:xfkv]</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>蚂蚁</t>
+        </is>
+      </c>
+      <c r="B450" s="12" t="inlineStr">
+        <is>
+          <t>支付宝搜索的Query理解与语义召回技术[提取码:p6gc]</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>2023-06-17</t>
         </is>
       </c>
     </row>
@@ -9910,6 +9998,10 @@
     <hyperlink ref="B444" r:id="rId443"/>
     <hyperlink ref="B445" r:id="rId444"/>
     <hyperlink ref="B446" r:id="rId445"/>
+    <hyperlink ref="B447" r:id="rId446"/>
+    <hyperlink ref="B448" r:id="rId447"/>
+    <hyperlink ref="B449" r:id="rId448"/>
+    <hyperlink ref="B450" r:id="rId449"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9463,7 +9463,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
+      <c r="A447" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -9473,19 +9473,19 @@
           <t>百度新资源冷启动实践[提取码:bji6]</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C447" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D447" t="inlineStr">
+      <c r="D447" s="0" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
+      <c r="A448" s="0" t="inlineStr">
         <is>
           <t>蚂蚁</t>
         </is>
@@ -9495,19 +9495,19 @@
           <t>图算法在蚂蚁集团营销推荐场景的应用[提取码:xvvi]</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr">
+      <c r="C448" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D448" s="0" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
+      <c r="A449" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -9517,19 +9517,19 @@
           <t>语义模型在小红书社区搜索的应用[提取码:xfkv]</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C449" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D449" t="inlineStr">
+      <c r="D449" s="0" t="inlineStr">
         <is>
           <t>2023-06-17</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
+      <c r="A450" s="0" t="inlineStr">
         <is>
           <t>蚂蚁</t>
         </is>
@@ -9539,14 +9539,80 @@
           <t>支付宝搜索的Query理解与语义召回技术[提取码:p6gc]</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C450" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D450" t="inlineStr">
+      <c r="D450" s="0" t="inlineStr">
         <is>
           <t>2023-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B451" s="12" t="inlineStr">
+        <is>
+          <t>大规模异构图召回在美团到店推荐广告的应用</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B452" s="12" t="inlineStr">
+        <is>
+          <t>美团外卖搜索基于Elasticsearch的优化实践</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B453" s="12" t="inlineStr">
+        <is>
+          <t>图技术在美团外卖下的场景化应用及探索</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
         </is>
       </c>
     </row>
@@ -10002,6 +10068,9 @@
     <hyperlink ref="B448" r:id="rId447"/>
     <hyperlink ref="B449" r:id="rId448"/>
     <hyperlink ref="B450" r:id="rId449"/>
+    <hyperlink ref="B451" r:id="rId450"/>
+    <hyperlink ref="B452" r:id="rId451"/>
+    <hyperlink ref="B453" r:id="rId452"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D453"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9551,7 +9551,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr">
+      <c r="A451" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -9561,19 +9561,19 @@
           <t>大规模异构图召回在美团到店推荐广告的应用</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr">
+      <c r="C451" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D451" t="inlineStr">
+      <c r="D451" s="0" t="inlineStr">
         <is>
           <t>2022-11-24</t>
         </is>
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="inlineStr">
+      <c r="A452" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -9583,19 +9583,19 @@
           <t>美团外卖搜索基于Elasticsearch的优化实践</t>
         </is>
       </c>
-      <c r="C452" t="inlineStr">
+      <c r="C452" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D452" t="inlineStr">
+      <c r="D452" s="0" t="inlineStr">
         <is>
           <t>2022-11-17</t>
         </is>
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
+      <c r="A453" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -9605,14 +9605,388 @@
           <t>图技术在美团外卖下的场景化应用及探索</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D453" t="inlineStr">
+      <c r="D453" s="0" t="inlineStr">
         <is>
           <t>2022-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B454" s="12" t="inlineStr">
+        <is>
+          <t>融合复杂目标且支持实时调控的重排模型</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B455" s="12" t="inlineStr">
+        <is>
+          <t>BOMGraph：基于统一图神经网络的电商多场景召回方法</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B456" s="12" t="inlineStr">
+        <is>
+          <t>HC^2：基于混合对比学习的多场景广告预估建模</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B457" s="12" t="inlineStr">
+        <is>
+          <t>基于特征自适应的多场景预估建模</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>多场景排序</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B458" s="12" t="inlineStr">
+        <is>
+          <t>阿里妈妈展示广告召回之多场景建模算法</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B459" s="12" t="inlineStr">
+        <is>
+          <t>CMDM：基于异构序列融合的多兴趣深度召回模型在内容平台的探索和实践</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>2021-12-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+      <c r="B460" s="12" t="inlineStr">
+        <is>
+          <t>爱奇艺效果广告双出价优化历程</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+      <c r="B461" s="12" t="inlineStr">
+        <is>
+          <t>如何提升链路目标一致性？爱奇艺短视频推荐之粗排模型优化历程</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>粗排</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+      <c r="B462" s="12" t="inlineStr">
+        <is>
+          <t>爱奇艺短视频推荐技术中多兴趣召回技术的演变</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+      <c r="B463" s="12" t="inlineStr">
+        <is>
+          <t>爱奇艺搜索排序算法实践</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>2021-07-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+      <c r="B464" s="12" t="inlineStr">
+        <is>
+          <t>多目标排序在爱奇艺短视频推荐中的应用</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>得物</t>
+        </is>
+      </c>
+      <c r="B465" s="12" t="inlineStr">
+        <is>
+          <t>得物多场景统一推荐技术演进</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>得物</t>
+        </is>
+      </c>
+      <c r="B466" s="12" t="inlineStr">
+        <is>
+          <t>得物App相关推荐价格体验优化</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>得物</t>
+        </is>
+      </c>
+      <c r="B467" s="12" t="inlineStr">
+        <is>
+          <t>得物社区推荐精排模型演进</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>得物</t>
+        </is>
+      </c>
+      <c r="B468" s="12" t="inlineStr">
+        <is>
+          <t>得物分类TAB商品流多目标排序模型的演进</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>得物</t>
+        </is>
+      </c>
+      <c r="B469" s="12" t="inlineStr">
+        <is>
+          <t>得物多兴趣召回模型实践</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>得物</t>
+        </is>
+      </c>
+      <c r="B470" s="12" t="inlineStr">
+        <is>
+          <t>得物社区推荐多目标排序初探</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
         </is>
       </c>
     </row>
@@ -10071,6 +10445,23 @@
     <hyperlink ref="B451" r:id="rId450"/>
     <hyperlink ref="B452" r:id="rId451"/>
     <hyperlink ref="B453" r:id="rId452"/>
+    <hyperlink ref="B454" r:id="rId453"/>
+    <hyperlink ref="B455" r:id="rId454"/>
+    <hyperlink ref="B456" r:id="rId455"/>
+    <hyperlink ref="B457" r:id="rId456"/>
+    <hyperlink ref="B458" r:id="rId457"/>
+    <hyperlink ref="B459" r:id="rId458"/>
+    <hyperlink ref="B460" r:id="rId459"/>
+    <hyperlink ref="B461" r:id="rId460"/>
+    <hyperlink ref="B462" r:id="rId461"/>
+    <hyperlink ref="B463" r:id="rId462"/>
+    <hyperlink ref="B464" r:id="rId463"/>
+    <hyperlink ref="B465" r:id="rId464"/>
+    <hyperlink ref="B466" r:id="rId465"/>
+    <hyperlink ref="B467" r:id="rId466"/>
+    <hyperlink ref="B468" r:id="rId467"/>
+    <hyperlink ref="B469" r:id="rId468"/>
+    <hyperlink ref="B470" r:id="rId469"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D470"/>
+  <dimension ref="A1:D471"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9617,7 +9617,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr">
+      <c r="A454" s="0" t="inlineStr">
         <is>
           <t>阿里</t>
         </is>
@@ -9627,19 +9627,19 @@
           <t>融合复杂目标且支持实时调控的重排模型</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D454" t="inlineStr">
+      <c r="D454" s="0" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
+      <c r="A455" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -9649,19 +9649,19 @@
           <t>BOMGraph：基于统一图神经网络的电商多场景召回方法</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D455" t="inlineStr">
+      <c r="D455" s="0" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
+      <c r="A456" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -9671,19 +9671,19 @@
           <t>HC^2：基于混合对比学习的多场景广告预估建模</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="0" t="inlineStr">
         <is>
           <t>广告</t>
         </is>
       </c>
-      <c r="D456" t="inlineStr">
+      <c r="D456" s="0" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
+      <c r="A457" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -9693,19 +9693,19 @@
           <t>基于特征自适应的多场景预估建模</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="0" t="inlineStr">
         <is>
           <t>多场景排序</t>
         </is>
       </c>
-      <c r="D457" t="inlineStr">
+      <c r="D457" s="0" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
+      <c r="A458" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -9715,19 +9715,19 @@
           <t>阿里妈妈展示广告召回之多场景建模算法</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D458" t="inlineStr">
+      <c r="D458" s="0" t="inlineStr">
         <is>
           <t>2022-12-07</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
+      <c r="A459" s="0" t="inlineStr">
         <is>
           <t>阿里</t>
         </is>
@@ -9737,19 +9737,19 @@
           <t>CMDM：基于异构序列融合的多兴趣深度召回模型在内容平台的探索和实践</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D459" t="inlineStr">
+      <c r="D459" s="0" t="inlineStr">
         <is>
           <t>2021-12-07</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
+      <c r="A460" s="0" t="inlineStr">
         <is>
           <t>爱奇艺</t>
         </is>
@@ -9759,19 +9759,19 @@
           <t>爱奇艺效果广告双出价优化历程</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr">
+      <c r="C460" s="0" t="inlineStr">
         <is>
           <t>广告</t>
         </is>
       </c>
-      <c r="D460" t="inlineStr">
+      <c r="D460" s="0" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr">
+      <c r="A461" s="0" t="inlineStr">
         <is>
           <t>爱奇艺</t>
         </is>
@@ -9781,19 +9781,19 @@
           <t>如何提升链路目标一致性？爱奇艺短视频推荐之粗排模型优化历程</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr">
+      <c r="C461" s="0" t="inlineStr">
         <is>
           <t>粗排</t>
         </is>
       </c>
-      <c r="D461" t="inlineStr">
+      <c r="D461" s="0" t="inlineStr">
         <is>
           <t>2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
+      <c r="A462" s="0" t="inlineStr">
         <is>
           <t>爱奇艺</t>
         </is>
@@ -9803,19 +9803,19 @@
           <t>爱奇艺短视频推荐技术中多兴趣召回技术的演变</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr">
+      <c r="C462" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D462" t="inlineStr">
+      <c r="D462" s="0" t="inlineStr">
         <is>
           <t>2021-04-23</t>
         </is>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
+      <c r="A463" s="0" t="inlineStr">
         <is>
           <t>爱奇艺</t>
         </is>
@@ -9825,19 +9825,19 @@
           <t>爱奇艺搜索排序算法实践</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
+      <c r="C463" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D463" t="inlineStr">
+      <c r="D463" s="0" t="inlineStr">
         <is>
           <t>2021-07-30</t>
         </is>
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
+      <c r="A464" s="0" t="inlineStr">
         <is>
           <t>爱奇艺</t>
         </is>
@@ -9847,19 +9847,19 @@
           <t>多目标排序在爱奇艺短视频推荐中的应用</t>
         </is>
       </c>
-      <c r="C464" t="inlineStr">
+      <c r="C464" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D464" t="inlineStr">
+      <c r="D464" s="0" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr">
+      <c r="A465" s="0" t="inlineStr">
         <is>
           <t>得物</t>
         </is>
@@ -9869,19 +9869,19 @@
           <t>得物多场景统一推荐技术演进</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr">
+      <c r="C465" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D465" s="0" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr">
+      <c r="A466" s="0" t="inlineStr">
         <is>
           <t>得物</t>
         </is>
@@ -9891,19 +9891,19 @@
           <t>得物App相关推荐价格体验优化</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D466" t="inlineStr">
+      <c r="C466" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D466" s="0" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
+      <c r="A467" s="0" t="inlineStr">
         <is>
           <t>得物</t>
         </is>
@@ -9913,19 +9913,19 @@
           <t>得物社区推荐精排模型演进</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D467" t="inlineStr">
+      <c r="C467" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D467" s="0" t="inlineStr">
         <is>
           <t>2023-01-11</t>
         </is>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
+      <c r="A468" s="0" t="inlineStr">
         <is>
           <t>得物</t>
         </is>
@@ -9935,19 +9935,19 @@
           <t>得物分类TAB商品流多目标排序模型的演进</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D468" t="inlineStr">
+      <c r="C468" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D468" s="0" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
+      <c r="A469" s="0" t="inlineStr">
         <is>
           <t>得物</t>
         </is>
@@ -9957,19 +9957,19 @@
           <t>得物多兴趣召回模型实践</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr">
+      <c r="C469" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D469" s="0" t="inlineStr">
         <is>
           <t>2022-05-18</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
+      <c r="A470" s="0" t="inlineStr">
         <is>
           <t>得物</t>
         </is>
@@ -9979,14 +9979,36 @@
           <t>得物社区推荐多目标排序初探</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr">
+      <c r="C470" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D470" s="0" t="inlineStr">
         <is>
           <t>2021-12-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>腾讯</t>
+        </is>
+      </c>
+      <c r="B471" s="12" t="inlineStr">
+        <is>
+          <t>AI大模型「改造」QQ浏览器搜索</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
         </is>
       </c>
     </row>
@@ -10462,6 +10484,7 @@
     <hyperlink ref="B468" r:id="rId467"/>
     <hyperlink ref="B469" r:id="rId468"/>
     <hyperlink ref="B470" r:id="rId469"/>
+    <hyperlink ref="B471" r:id="rId470"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D471"/>
+  <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -9991,7 +9991,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
+      <c r="A471" s="0" t="inlineStr">
         <is>
           <t>腾讯</t>
         </is>
@@ -10001,14 +10001,36 @@
           <t>AI大模型「改造」QQ浏览器搜索</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
+      <c r="C471" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D471" t="inlineStr">
+      <c r="D471" s="0" t="inlineStr">
         <is>
           <t>2023-11-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>得物</t>
+        </is>
+      </c>
+      <c r="B472" s="12" t="inlineStr">
+        <is>
+          <t>粗排优化探讨｜得物技术</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>粗排</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
         </is>
       </c>
     </row>
@@ -10485,6 +10507,7 @@
     <hyperlink ref="B469" r:id="rId468"/>
     <hyperlink ref="B470" r:id="rId469"/>
     <hyperlink ref="B471" r:id="rId470"/>
+    <hyperlink ref="B472" r:id="rId471"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D472"/>
+  <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10013,7 +10013,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
+      <c r="A472" s="0" t="inlineStr">
         <is>
           <t>得物</t>
         </is>
@@ -10023,14 +10023,36 @@
           <t>粗排优化探讨｜得物技术</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr">
+      <c r="C472" s="0" t="inlineStr">
         <is>
           <t>粗排</t>
         </is>
       </c>
-      <c r="D472" t="inlineStr">
+      <c r="D472" s="0" t="inlineStr">
         <is>
           <t>2023-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>OPPO</t>
+        </is>
+      </c>
+      <c r="B473" s="12" t="inlineStr">
+        <is>
+          <t>OPPO 广告召回算法实践与探索</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
         </is>
       </c>
     </row>
@@ -10508,6 +10530,7 @@
     <hyperlink ref="B470" r:id="rId469"/>
     <hyperlink ref="B471" r:id="rId470"/>
     <hyperlink ref="B472" r:id="rId471"/>
+    <hyperlink ref="B473" r:id="rId472"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D473"/>
+  <dimension ref="A1:D478"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10035,7 +10035,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
+      <c r="A473" s="0" t="inlineStr">
         <is>
           <t>OPPO</t>
         </is>
@@ -10045,14 +10045,124 @@
           <t>OPPO 广告召回算法实践与探索</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
+      <c r="C473" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D473" t="inlineStr">
+      <c r="D473" s="0" t="inlineStr">
         <is>
           <t>2023-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B474" s="12" t="inlineStr">
+        <is>
+          <t>360信息流推荐Mind召回</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B475" s="12" t="inlineStr">
+        <is>
+          <t>百度搜索Push个性化</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B476" s="12" t="inlineStr">
+        <is>
+          <t>小红书推荐用户及内容冷启动实践</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B477" s="12" t="inlineStr">
+        <is>
+          <t>百度feed图模型演进</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B478" s="12" t="inlineStr">
+        <is>
+          <t>百度推荐排序技术的思考与实践</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
@@ -10531,6 +10641,11 @@
     <hyperlink ref="B471" r:id="rId470"/>
     <hyperlink ref="B472" r:id="rId471"/>
     <hyperlink ref="B473" r:id="rId472"/>
+    <hyperlink ref="B474" r:id="rId473"/>
+    <hyperlink ref="B475" r:id="rId474"/>
+    <hyperlink ref="B476" r:id="rId475"/>
+    <hyperlink ref="B477" r:id="rId476"/>
+    <hyperlink ref="B478" r:id="rId477"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D478"/>
+  <dimension ref="A1:D485"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10057,7 +10057,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
+      <c r="A474" s="0" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -10067,19 +10067,19 @@
           <t>360信息流推荐Mind召回</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D474" t="inlineStr">
+      <c r="D474" s="0" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
+      <c r="A475" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -10089,19 +10089,19 @@
           <t>百度搜索Push个性化</t>
         </is>
       </c>
-      <c r="C475" t="inlineStr">
+      <c r="C475" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D475" t="inlineStr">
+      <c r="D475" s="0" t="inlineStr">
         <is>
           <t>2024-01-17</t>
         </is>
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
+      <c r="A476" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -10111,19 +10111,19 @@
           <t>小红书推荐用户及内容冷启动实践</t>
         </is>
       </c>
-      <c r="C476" t="inlineStr">
+      <c r="C476" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D476" t="inlineStr">
+      <c r="D476" s="0" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
+      <c r="A477" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -10133,19 +10133,19 @@
           <t>百度feed图模型演进</t>
         </is>
       </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
+      <c r="C477" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D477" s="0" t="inlineStr">
         <is>
           <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
+      <c r="A478" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -10155,14 +10155,168 @@
           <t>百度推荐排序技术的思考与实践</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr">
+      <c r="C478" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D478" s="0" t="inlineStr">
         <is>
           <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B479" s="12" t="inlineStr">
+        <is>
+          <t>美团交易视频推荐探索与实践</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B480" s="12" t="inlineStr">
+        <is>
+          <t>内容搜索算法优化的探索与实践</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B481" s="12" t="inlineStr">
+        <is>
+          <t>百度视频推荐跨域多目标预估与融合的实践和思考</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>网易</t>
+        </is>
+      </c>
+      <c r="B482" s="12" t="inlineStr">
+        <is>
+          <t>网易云音乐推荐系统的冷启动技术</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="B483" s="12" t="inlineStr">
+        <is>
+          <t>多任务和多场景在华为推荐系统中的应用</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B484" s="12" t="inlineStr">
+        <is>
+          <t>小红书推荐系统创新性探索</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B485" s="12" t="inlineStr">
+        <is>
+          <t>快手内容冷启动推荐模型实践</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
         </is>
       </c>
     </row>
@@ -10646,6 +10800,13 @@
     <hyperlink ref="B476" r:id="rId475"/>
     <hyperlink ref="B477" r:id="rId476"/>
     <hyperlink ref="B478" r:id="rId477"/>
+    <hyperlink ref="B479" r:id="rId478"/>
+    <hyperlink ref="B480" r:id="rId479"/>
+    <hyperlink ref="B481" r:id="rId480"/>
+    <hyperlink ref="B482" r:id="rId481"/>
+    <hyperlink ref="B483" r:id="rId482"/>
+    <hyperlink ref="B484" r:id="rId483"/>
+    <hyperlink ref="B485" r:id="rId484"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D485"/>
+  <dimension ref="A1:D487"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10167,7 +10167,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
+      <c r="A479" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -10177,19 +10177,19 @@
           <t>美团交易视频推荐探索与实践</t>
         </is>
       </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
+      <c r="C479" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D479" s="0" t="inlineStr">
         <is>
           <t>2023-12-23</t>
         </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
+      <c r="A480" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -10199,19 +10199,19 @@
           <t>内容搜索算法优化的探索与实践</t>
         </is>
       </c>
-      <c r="C480" t="inlineStr">
+      <c r="C480" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D480" t="inlineStr">
+      <c r="D480" s="0" t="inlineStr">
         <is>
           <t>2023-12-23</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
+      <c r="A481" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -10221,19 +10221,19 @@
           <t>百度视频推荐跨域多目标预估与融合的实践和思考</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D481" t="inlineStr">
+      <c r="C481" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D481" s="0" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
+      <c r="A482" s="0" t="inlineStr">
         <is>
           <t>网易</t>
         </is>
@@ -10243,19 +10243,19 @@
           <t>网易云音乐推荐系统的冷启动技术</t>
         </is>
       </c>
-      <c r="C482" t="inlineStr">
+      <c r="C482" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D482" t="inlineStr">
+      <c r="D482" s="0" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr">
+      <c r="A483" s="0" t="inlineStr">
         <is>
           <t>华为</t>
         </is>
@@ -10265,19 +10265,19 @@
           <t>多任务和多场景在华为推荐系统中的应用</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr">
+      <c r="C483" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D483" s="0" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr">
+      <c r="A484" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -10287,19 +10287,19 @@
           <t>小红书推荐系统创新性探索</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
+      <c r="C484" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D484" t="inlineStr">
+      <c r="D484" s="0" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
+      <c r="A485" s="0" t="inlineStr">
         <is>
           <t>快手</t>
         </is>
@@ -10309,14 +10309,58 @@
           <t>快手内容冷启动推荐模型实践</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr">
+      <c r="C485" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D485" t="inlineStr">
+      <c r="D485" s="0" t="inlineStr">
         <is>
           <t>2023-10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B486" s="12" t="inlineStr">
+        <is>
+          <t>大众点评内容搜索算法优化的探索与实践</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B487" s="12" t="inlineStr">
+        <is>
+          <t>百亿大规模图在广告场景的应用</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>图</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
         </is>
       </c>
     </row>
@@ -10807,6 +10851,8 @@
     <hyperlink ref="B483" r:id="rId482"/>
     <hyperlink ref="B484" r:id="rId483"/>
     <hyperlink ref="B485" r:id="rId484"/>
+    <hyperlink ref="B486" r:id="rId485"/>
+    <hyperlink ref="B487" r:id="rId486"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D487"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10321,7 +10321,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
+      <c r="A486" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -10331,19 +10331,19 @@
           <t>大众点评内容搜索算法优化的探索与实践</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr">
+      <c r="C486" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D486" t="inlineStr">
+      <c r="D486" s="0" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
+      <c r="A487" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -10353,14 +10353,36 @@
           <t>百亿大规模图在广告场景的应用</t>
         </is>
       </c>
-      <c r="C487" t="inlineStr">
+      <c r="C487" s="0" t="inlineStr">
         <is>
           <t>图</t>
         </is>
       </c>
-      <c r="D487" t="inlineStr">
+      <c r="D487" s="0" t="inlineStr">
         <is>
           <t>2024-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B488" s="12" t="inlineStr">
+        <is>
+          <t>小红书高时效推荐系统实践：从系统提效到内容冷启动</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
         </is>
       </c>
     </row>
@@ -10853,6 +10875,7 @@
     <hyperlink ref="B485" r:id="rId484"/>
     <hyperlink ref="B486" r:id="rId485"/>
     <hyperlink ref="B487" r:id="rId486"/>
+    <hyperlink ref="B488" r:id="rId487"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D488"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10365,7 +10365,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
+      <c r="A488" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -10375,14 +10375,58 @@
           <t>小红书高时效推荐系统实践：从系统提效到内容冷启动</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr">
+      <c r="C488" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D488" t="inlineStr">
+      <c r="D488" s="0" t="inlineStr">
         <is>
           <t>2024-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B489" s="12" t="inlineStr">
+        <is>
+          <t>多域图大模型在百度推荐系统的实践与思考</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>图推荐</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B490" s="12" t="inlineStr">
+        <is>
+          <t>百度推荐资源冷启动实践</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
@@ -10876,6 +10920,8 @@
     <hyperlink ref="B486" r:id="rId485"/>
     <hyperlink ref="B487" r:id="rId486"/>
     <hyperlink ref="B488" r:id="rId487"/>
+    <hyperlink ref="B489" r:id="rId488"/>
+    <hyperlink ref="B490" r:id="rId489"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D490"/>
+  <dimension ref="A1:D511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10387,7 +10387,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr">
+      <c r="A489" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -10397,19 +10397,19 @@
           <t>多域图大模型在百度推荐系统的实践与思考</t>
         </is>
       </c>
-      <c r="C489" t="inlineStr">
+      <c r="C489" s="0" t="inlineStr">
         <is>
           <t>图推荐</t>
         </is>
       </c>
-      <c r="D489" t="inlineStr">
+      <c r="D489" s="0" t="inlineStr">
         <is>
           <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
+      <c r="A490" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -10419,14 +10419,476 @@
           <t>百度推荐资源冷启动实践</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D490" t="inlineStr">
+      <c r="D490" s="0" t="inlineStr">
         <is>
           <t>2024-05-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B491" s="12" t="inlineStr">
+        <is>
+          <t>推荐系统融合排序的多目标寻优技术</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+      <c r="B492" s="12" t="inlineStr">
+        <is>
+          <t>淘宝全域空间下的自适应连续迁移学习</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B493" s="12" t="inlineStr">
+        <is>
+          <t>信息流广告预估技术在美团外卖的实践</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>B站</t>
+        </is>
+      </c>
+      <c r="B494" s="12" t="inlineStr">
+        <is>
+          <t>B站搜索建库架构优化实践</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+      <c r="B495" s="12" t="inlineStr">
+        <is>
+          <t>触发式推荐场景的用户动态即时兴趣预估</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>网易</t>
+        </is>
+      </c>
+      <c r="B496" s="12" t="inlineStr">
+        <is>
+          <t>多场景多任务统一建模在网易云音乐的算法实践</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B497" s="12" t="inlineStr">
+        <is>
+          <t>展示广告预估技术最新突破：基于原生图文信息的多模态预估模型</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B498" s="12" t="inlineStr">
+        <is>
+          <t>小红书搜索广告召回实践</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+      <c r="B499" s="12" t="inlineStr">
+        <is>
+          <t>认知推荐：基于LLM的首页推荐新范式</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B500" s="12" t="inlineStr">
+        <is>
+          <t>小红书去中心化内容分发技术</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>腾讯广告</t>
+        </is>
+      </c>
+      <c r="B501" s="12" t="inlineStr">
+        <is>
+          <t>腾讯广告推荐算法优化实践</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+      <c r="B502" s="12" t="inlineStr">
+        <is>
+          <t>淘宝“小时达”算法技术革新：精准匹配供需，重塑即时消费体验</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B503" s="12" t="inlineStr">
+        <is>
+          <t>搜索广告召回技术在美团的实践</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>腾讯音乐</t>
+        </is>
+      </c>
+      <c r="B504" s="12" t="inlineStr">
+        <is>
+          <t>音频表征大模型在QQ音乐歌曲冷启的应用与探索</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>冷启动</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B505" s="12" t="inlineStr">
+        <is>
+          <t>展示广告预估模型优势特征应用实践</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B506" s="12" t="inlineStr">
+        <is>
+          <t>展示广告多模态召回模型：混合模态专家模型</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+      <c r="B507" s="12" t="inlineStr">
+        <is>
+          <t>稀疏大模型在爱奇艺广告排序场景中的实践</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>BIGO</t>
+        </is>
+      </c>
+      <c r="B508" s="12" t="inlineStr">
+        <is>
+          <t>BIGO | Graph Embedding在直播推荐召回的应用</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>BIGO</t>
+        </is>
+      </c>
+      <c r="B509" s="12" t="inlineStr">
+        <is>
+          <t>BIGO | 内容流多目标排序优化</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>BIGO</t>
+        </is>
+      </c>
+      <c r="B510" s="12" t="inlineStr">
+        <is>
+          <t>BIGO|万亿模型参数的训练</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>BIGO</t>
+        </is>
+      </c>
+      <c r="B511" s="12" t="inlineStr">
+        <is>
+          <t>BIGO|万亿模型参数的在线服务</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
         </is>
       </c>
     </row>
@@ -10922,6 +11384,27 @@
     <hyperlink ref="B488" r:id="rId487"/>
     <hyperlink ref="B489" r:id="rId488"/>
     <hyperlink ref="B490" r:id="rId489"/>
+    <hyperlink ref="B491" r:id="rId490"/>
+    <hyperlink ref="B492" r:id="rId491"/>
+    <hyperlink ref="B493" r:id="rId492"/>
+    <hyperlink ref="B494" r:id="rId493"/>
+    <hyperlink ref="B495" r:id="rId494"/>
+    <hyperlink ref="B496" r:id="rId495"/>
+    <hyperlink ref="B497" r:id="rId496"/>
+    <hyperlink ref="B498" r:id="rId497"/>
+    <hyperlink ref="B499" r:id="rId498"/>
+    <hyperlink ref="B500" r:id="rId499"/>
+    <hyperlink ref="B501" r:id="rId500"/>
+    <hyperlink ref="B502" r:id="rId501"/>
+    <hyperlink ref="B503" r:id="rId502"/>
+    <hyperlink ref="B504" r:id="rId503"/>
+    <hyperlink ref="B505" r:id="rId504"/>
+    <hyperlink ref="B506" r:id="rId505"/>
+    <hyperlink ref="B507" r:id="rId506"/>
+    <hyperlink ref="B508" r:id="rId507"/>
+    <hyperlink ref="B509" r:id="rId508"/>
+    <hyperlink ref="B510" r:id="rId509"/>
+    <hyperlink ref="B511" r:id="rId510"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D511"/>
+  <dimension ref="A1:D512"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10431,7 +10431,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr">
+      <c r="A491" s="0" t="inlineStr">
         <is>
           <t>快手</t>
         </is>
@@ -10441,19 +10441,19 @@
           <t>推荐系统融合排序的多目标寻优技术</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D491" t="inlineStr">
+      <c r="D491" s="0" t="inlineStr">
         <is>
           <t>2024-08-17</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
+      <c r="A492" s="0" t="inlineStr">
         <is>
           <t>淘宝</t>
         </is>
@@ -10463,19 +10463,19 @@
           <t>淘宝全域空间下的自适应连续迁移学习</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr">
+      <c r="C492" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D492" s="0" t="inlineStr">
         <is>
           <t>2024-08-15</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr">
+      <c r="A493" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -10485,19 +10485,19 @@
           <t>信息流广告预估技术在美团外卖的实践</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D493" t="inlineStr">
+      <c r="D493" s="0" t="inlineStr">
         <is>
           <t>2024-08-15</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr">
+      <c r="A494" s="0" t="inlineStr">
         <is>
           <t>B站</t>
         </is>
@@ -10507,19 +10507,19 @@
           <t>B站搜索建库架构优化实践</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D494" t="inlineStr">
+      <c r="D494" s="0" t="inlineStr">
         <is>
           <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="inlineStr">
+      <c r="A495" s="0" t="inlineStr">
         <is>
           <t>淘宝</t>
         </is>
@@ -10529,19 +10529,19 @@
           <t>触发式推荐场景的用户动态即时兴趣预估</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
+      <c r="C495" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D495" s="0" t="inlineStr">
         <is>
           <t>2024-08-08</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr">
+      <c r="A496" s="0" t="inlineStr">
         <is>
           <t>网易</t>
         </is>
@@ -10551,19 +10551,19 @@
           <t>多场景多任务统一建模在网易云音乐的算法实践</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D496" t="inlineStr">
+      <c r="D496" s="0" t="inlineStr">
         <is>
           <t>2024-08-07</t>
         </is>
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="inlineStr">
+      <c r="A497" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -10573,19 +10573,19 @@
           <t>展示广告预估技术最新突破：基于原生图文信息的多模态预估模型</t>
         </is>
       </c>
-      <c r="C497" t="inlineStr">
+      <c r="C497" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D497" t="inlineStr">
+      <c r="D497" s="0" t="inlineStr">
         <is>
           <t>2024-08-02</t>
         </is>
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr">
+      <c r="A498" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -10595,19 +10595,19 @@
           <t>小红书搜索广告召回实践</t>
         </is>
       </c>
-      <c r="C498" t="inlineStr">
+      <c r="C498" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D498" t="inlineStr">
+      <c r="D498" s="0" t="inlineStr">
         <is>
           <t>2024-08-01</t>
         </is>
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr">
+      <c r="A499" s="0" t="inlineStr">
         <is>
           <t>淘宝</t>
         </is>
@@ -10617,19 +10617,19 @@
           <t>认知推荐：基于LLM的首页推荐新范式</t>
         </is>
       </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
+      <c r="C499" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D499" s="0" t="inlineStr">
         <is>
           <t>2024-08-01</t>
         </is>
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr">
+      <c r="A500" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -10639,19 +10639,19 @@
           <t>小红书去中心化内容分发技术</t>
         </is>
       </c>
-      <c r="C500" t="inlineStr">
+      <c r="C500" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D500" t="inlineStr">
+      <c r="D500" s="0" t="inlineStr">
         <is>
           <t>2024-07-31</t>
         </is>
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr">
+      <c r="A501" s="0" t="inlineStr">
         <is>
           <t>腾讯广告</t>
         </is>
@@ -10661,19 +10661,19 @@
           <t>腾讯广告推荐算法优化实践</t>
         </is>
       </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
+      <c r="C501" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D501" s="0" t="inlineStr">
         <is>
           <t>2024-07-17</t>
         </is>
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr">
+      <c r="A502" s="0" t="inlineStr">
         <is>
           <t>淘宝</t>
         </is>
@@ -10683,19 +10683,19 @@
           <t>淘宝“小时达”算法技术革新：精准匹配供需，重塑即时消费体验</t>
         </is>
       </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
+      <c r="C502" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D502" s="0" t="inlineStr">
         <is>
           <t>2024-07-11</t>
         </is>
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr">
+      <c r="A503" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -10705,19 +10705,19 @@
           <t>搜索广告召回技术在美团的实践</t>
         </is>
       </c>
-      <c r="C503" t="inlineStr">
+      <c r="C503" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D503" t="inlineStr">
+      <c r="D503" s="0" t="inlineStr">
         <is>
           <t>2024-07-04</t>
         </is>
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr">
+      <c r="A504" s="0" t="inlineStr">
         <is>
           <t>腾讯音乐</t>
         </is>
@@ -10727,19 +10727,19 @@
           <t>音频表征大模型在QQ音乐歌曲冷启的应用与探索</t>
         </is>
       </c>
-      <c r="C504" t="inlineStr">
+      <c r="C504" s="0" t="inlineStr">
         <is>
           <t>冷启动</t>
         </is>
       </c>
-      <c r="D504" t="inlineStr">
+      <c r="D504" s="0" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr">
+      <c r="A505" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -10749,19 +10749,19 @@
           <t>展示广告预估模型优势特征应用实践</t>
         </is>
       </c>
-      <c r="C505" t="inlineStr">
+      <c r="C505" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D505" t="inlineStr">
+      <c r="D505" s="0" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr">
+      <c r="A506" s="0" t="inlineStr">
         <is>
           <t>阿里妈妈</t>
         </is>
@@ -10771,19 +10771,19 @@
           <t>展示广告多模态召回模型：混合模态专家模型</t>
         </is>
       </c>
-      <c r="C506" t="inlineStr">
+      <c r="C506" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D506" t="inlineStr">
+      <c r="D506" s="0" t="inlineStr">
         <is>
           <t>2024-05-29</t>
         </is>
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr">
+      <c r="A507" s="0" t="inlineStr">
         <is>
           <t>爱奇艺</t>
         </is>
@@ -10793,19 +10793,19 @@
           <t>稀疏大模型在爱奇艺广告排序场景中的实践</t>
         </is>
       </c>
-      <c r="C507" t="inlineStr">
+      <c r="C507" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D507" t="inlineStr">
+      <c r="D507" s="0" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr">
+      <c r="A508" s="0" t="inlineStr">
         <is>
           <t>BIGO</t>
         </is>
@@ -10815,19 +10815,19 @@
           <t>BIGO | Graph Embedding在直播推荐召回的应用</t>
         </is>
       </c>
-      <c r="C508" t="inlineStr">
+      <c r="C508" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D508" t="inlineStr">
+      <c r="D508" s="0" t="inlineStr">
         <is>
           <t>2020-07-23</t>
         </is>
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr">
+      <c r="A509" s="0" t="inlineStr">
         <is>
           <t>BIGO</t>
         </is>
@@ -10837,19 +10837,19 @@
           <t>BIGO | 内容流多目标排序优化</t>
         </is>
       </c>
-      <c r="C509" t="inlineStr">
+      <c r="C509" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D509" t="inlineStr">
+      <c r="D509" s="0" t="inlineStr">
         <is>
           <t>2020-08-03</t>
         </is>
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr">
+      <c r="A510" s="0" t="inlineStr">
         <is>
           <t>BIGO</t>
         </is>
@@ -10859,19 +10859,19 @@
           <t>BIGO|万亿模型参数的训练</t>
         </is>
       </c>
-      <c r="C510" t="inlineStr">
+      <c r="C510" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D510" t="inlineStr">
+      <c r="D510" s="0" t="inlineStr">
         <is>
           <t>2020-09-07</t>
         </is>
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
+      <c r="A511" s="0" t="inlineStr">
         <is>
           <t>BIGO</t>
         </is>
@@ -10881,14 +10881,36 @@
           <t>BIGO|万亿模型参数的在线服务</t>
         </is>
       </c>
-      <c r="C511" t="inlineStr">
+      <c r="C511" s="0" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="D511" t="inlineStr">
+      <c r="D511" s="0" t="inlineStr">
         <is>
           <t>2020-09-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="B512" s="12" t="inlineStr">
+        <is>
+          <t>京东搜索重排：基于互信息的用户偏好导向模型</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>重排</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
         </is>
       </c>
     </row>
@@ -11405,6 +11427,7 @@
     <hyperlink ref="B509" r:id="rId508"/>
     <hyperlink ref="B510" r:id="rId509"/>
     <hyperlink ref="B511" r:id="rId510"/>
+    <hyperlink ref="B512" r:id="rId511"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -487,12 +487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D512"/>
+  <dimension ref="A1:D528"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10893,7 +10893,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr">
+      <c r="A512" s="0" t="inlineStr">
         <is>
           <t>京东</t>
         </is>
@@ -10903,531 +10903,899 @@
           <t>京东搜索重排：基于互信息的用户偏好导向模型</t>
         </is>
       </c>
-      <c r="C512" t="inlineStr">
+      <c r="C512" s="0" t="inlineStr">
         <is>
           <t>重排</t>
         </is>
       </c>
-      <c r="D512" t="inlineStr">
+      <c r="D512" s="0" t="inlineStr">
         <is>
           <t>2024-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B513" s="12" t="inlineStr">
+        <is>
+          <t>小红书去中心化内容分发技术</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+      <c r="B514" s="12" t="inlineStr">
+        <is>
+          <t>LAST——重排在线学习范式的全新可能</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>重排</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>腾讯广告</t>
+        </is>
+      </c>
+      <c r="B515" s="12" t="inlineStr">
+        <is>
+          <t>腾讯广告基于长序列建模的落地实践</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>腾讯广告</t>
+        </is>
+      </c>
+      <c r="B516" s="12" t="inlineStr">
+        <is>
+          <t>腾讯广告基于混元大模型的生成式召回落地实践</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+      <c r="B517" s="12" t="inlineStr">
+        <is>
+          <t>MNR—淘宝高效多场景近线召回框架</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>召回</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+      <c r="B518" s="12" t="inlineStr">
+        <is>
+          <t>多样性重排算法在淘宝首页信息流的创新应用</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>重排</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+      <c r="B519" s="12" t="inlineStr">
+        <is>
+          <t>在线深度学习：爱奇艺效果广告分钟级模型优化</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B520" s="12" t="inlineStr">
+        <is>
+          <t>全域用户建模在美团首页推荐的探索与实践</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B521" s="12" t="inlineStr">
+        <is>
+          <t>小红书搜索：生成式检索的探索与实践</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+      <c r="B522" s="12" t="inlineStr">
+        <is>
+          <t>AI技术在爱奇艺视频搜索中的应用</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B523" s="12" t="inlineStr">
+        <is>
+          <t>多模态对齐在小红书推荐的研究及应用</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>网易云</t>
+        </is>
+      </c>
+      <c r="B524" s="12" t="inlineStr">
+        <is>
+          <t>多模态推荐在网易云音乐社区的创新实践</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="B525" s="12" t="inlineStr">
+        <is>
+          <t>京东健康基于大模型的生成式推荐在电商标品推荐的应用</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+      <c r="B526" s="12" t="inlineStr">
+        <is>
+          <t>爱奇艺广告智能算力探索与实践</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>腾讯广告</t>
+        </is>
+      </c>
+      <c r="B527" s="12" t="inlineStr">
+        <is>
+          <t>推荐模型中的辅助排序损失</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>腾讯广告</t>
+        </is>
+      </c>
+      <c r="B528" s="12" t="inlineStr">
+        <is>
+          <t>跨领域迁移学习在广告用户价值预估场景应用探索</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <hyperlinks>
-    <hyperlink ref="B2" display="https://mp.weixin.qq.com/s/KX2gmEUme4Iy1PCR9PTrYg" r:id="rId1"/>
-    <hyperlink ref="B3" display="https://mp.weixin.qq.com/s/DCiNgI1LL-uN4JmgQ5VSjQ" r:id="rId2"/>
-    <hyperlink ref="B4" display="https://www.bilibili.com/video/BV1Km4y167ho" r:id="rId3"/>
-    <hyperlink ref="B5" display="https://mp.weixin.qq.com/s/CFmp_FTHbf5l2ohUokTGgw" r:id="rId4"/>
-    <hyperlink ref="B6" display="https://mp.weixin.qq.com/s/v-GN1ors-bWutfsIJcZYbQ" r:id="rId5"/>
-    <hyperlink ref="B7" display="https://mp.weixin.qq.com/s/1a2bl983bGKM713xI_3v_A" r:id="rId6"/>
-    <hyperlink ref="B8" display="https://mp.weixin.qq.com/s/IoPZ-fUL0h1PVOA8uDXPJg" r:id="rId7"/>
-    <hyperlink ref="B9" display="https://mp.weixin.qq.com/s/-klZWT30J41xPQfOqlWiNA" r:id="rId8"/>
-    <hyperlink ref="B10" display="https://zhuanlan.zhihu.com/p/611877625" r:id="rId9"/>
-    <hyperlink ref="B11" display="https://mp.weixin.qq.com/s/SwR1-mAtqjwsnJVy3UiMnA" r:id="rId10"/>
-    <hyperlink ref="B12" display="https://mp.weixin.qq.com/s/EabcwCtSPEmFOjRATVVORQ" r:id="rId11"/>
-    <hyperlink ref="B13" display="https://mp.weixin.qq.com/s/SsgVqei9sL5y7N1GUXOJLg" r:id="rId12"/>
-    <hyperlink ref="B14" display="https://mp.weixin.qq.com/s/or9DT2HlVPnUFBsqAEv6Uw" r:id="rId13"/>
-    <hyperlink ref="B15" display="https://mp.weixin.qq.com/s/Rmgh-ynoWU4uerh_4jL4YA" r:id="rId14"/>
-    <hyperlink ref="B16" display="https://mp.weixin.qq.com/s/oRxn2PQdh3_giCPkrJpQaQ" r:id="rId15"/>
-    <hyperlink ref="B17" display="https://mp.weixin.qq.com/s/AyMmfixX8rXUgGIf94uBkw" r:id="rId16"/>
-    <hyperlink ref="B18" display="https://mp.weixin.qq.com/s/rF9wC2qecPHDcn8fy6KIuA" r:id="rId17"/>
-    <hyperlink ref="B19" display="https://mp.weixin.qq.com/s/_lEeyyxhGHg5ZOtrpf2epQ" r:id="rId18"/>
-    <hyperlink ref="B20" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247621853&amp;idx=1&amp;sn=61378cddef3e7b9579b00f92d4e3c609&amp;chksm=fbd6aeb1cca127a76b85c8af5ba05d2b9f482252d176be3c6b42a8081bd4589f96c6178e066f&amp;scene=27 - wechat_redirect" r:id="rId19"/>
-    <hyperlink ref="B21" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247487662&amp;idx=1&amp;sn=f3f28448bc605c8022cc84c3093f6562&amp;chksm=ea2e6788dd59ee9e1111e3352363aa86bb8abdaa92f8167df62c201783bee38647912691ebe9&amp;mpshare=1&amp;scene=1&amp;srcid=0117adz8z5uuqKd4JsFiqBky&amp;sharer_sharetime=1673958834277&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId20"/>
-    <hyperlink ref="B22" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650490509&amp;idx=1&amp;sn=0881c47b13cf7d97a1f91e7b5830c58d&amp;chksm=83978e95b4e007830bcd4bae627b02b275baf60b453035a711e43f4ff604c5389ed089ef2c45&amp;scene=27 - wechat_redirect" r:id="rId21"/>
-    <hyperlink ref="B23" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247487588&amp;idx=1&amp;sn=099b6105ef6f4e06df3ec6ace9cea168&amp;chksm=ea2e6742dd59ee54d426895b8c2c335e7bed3027da1302da81eea829e26bb1600c7d149f29f6&amp;mpshare=1&amp;scene=1&amp;srcid=0117wGK8qD3vbVGyqHjrC0m2&amp;sharer_sharetime=1673958824881&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId22"/>
-    <hyperlink ref="B24" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247618221&amp;idx=1&amp;sn=bbbb4acd59fa304fd9941138d03a5b03&amp;chksm=fbd6bcc1cca135d72d19924659d0ba226d516409c975610d077e64705d351b2c0b82ee46da4f&amp;scene=27 - wechat_redirect" r:id="rId23"/>
-    <hyperlink ref="B25" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247617404&amp;idx=1&amp;sn=a21ed8b66d98c7f2c32605a8ed5b6e7c&amp;chksm=fbd6b910cca13006bf965630fcacedaf4ef4342b5b85f2a2728b83ff2e671fc2422c6d9a8583&amp;scene=27 - wechat_redirect" r:id="rId24"/>
-    <hyperlink ref="B26" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg4OTc2MzczNg==&amp;mid=2247486087&amp;idx=1&amp;sn=fa6b75242336d49fb780ab63c63ce4e5&amp;chksm=cfe7a870f89021667d5056c587fdd9aafa025de8443fe9496f5321ff729b93536545324235b9&amp;mpshare=1&amp;scene=1&amp;srcid=0117WqeEpkGzXEGbrlQ2qUP5&amp;sharer_sharetime=1673957656684&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId25"/>
-    <hyperlink ref="B27" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247614845&amp;idx=1&amp;sn=0e8c26b62cd8e2ffe5c54e6e3ee28a5d&amp;chksm=fbd6b311cca13a07f68d47ac22d2ebc0f2fad1e082809bd0ccc8f68a5bc6f298e2bc16fa0ec1&amp;scene=27 - wechat_redirect" r:id="rId26"/>
-    <hyperlink ref="B28" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg3Njc0NTgwMg==&amp;mid=2247492039&amp;idx=1&amp;sn=1395b05f9f13d2ec5f094098335f0fb2&amp;chksm=cf2f24e2f858adf401be214e3c00a17e71b4580afa3bb7c2e479fbdd196abaced8836c4bfc04&amp;mpshare=1&amp;scene=1&amp;srcid=01173Yirag3aRdwVVXpLoC6m&amp;sharer_sharetime=1673957819680&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId27"/>
-    <hyperlink ref="B29" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649774611&amp;idx=1&amp;sn=50784f8f205424ac315c214eecde370d&amp;chksm=beccc96889bb407e2fd0af67766bebc8e01a6619ac8356dba71efeb165c450b97c7a5561d5ef&amp;scene=27 - wechat_redirect" r:id="rId28"/>
-    <hyperlink ref="B30" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247487245&amp;idx=1&amp;sn=e60203a06dfbbd736ba5085554a8e86a&amp;chksm=ea2e782bdd59f13d0cf199247081e406ef3352c2e211fe24be3aa851d996f37d412bb232f6ea&amp;mpshare=1&amp;scene=1&amp;srcid=0117PDLkxZZZqZuhvqAb5zCN&amp;sharer_sharetime=1673958990974&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId29"/>
-    <hyperlink ref="B31" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247609347&amp;idx=1&amp;sn=277d03dd9bbd978c2d6fa564e6ea3583&amp;chksm=fbd69e6fcca117797939d7386d642cd99eca8bbe9d25b02e3fcf5245eb871faf4fcf9bffc5bc&amp;scene=27 - wechat_redirect" r:id="rId30"/>
-    <hyperlink ref="B32" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg4OTc2MzczNg==&amp;mid=2247485593&amp;idx=1&amp;sn=80a57bc832565f38dfea8ce396975c3b&amp;chksm=cfe7aa6ef890237880872ebe8ff471a9642104d84a6a3463ba4ea81a304f15fde179c437e741&amp;mpshare=1&amp;scene=1&amp;srcid=0117HHDQtSslzh1IBwT4tYom&amp;sharer_sharetime=1673957674492&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId31"/>
-    <hyperlink ref="B33" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247607759&amp;idx=2&amp;sn=793f2f26ca50fdcdd5e1805c540a8844&amp;chksm=fbd697a3cca11eb5b0967e15bd56f2adfb8691d96e78a6b5115dd7bf96c30078ddaa9ed6eee4&amp;scene=27 - wechat_redirect" r:id="rId32"/>
-    <hyperlink ref="B34" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247607015&amp;idx=1&amp;sn=640758c804a49c7fee278066b85203df&amp;chksm=fbd6908bcca1199d272fe7ca3e6c7cde7dcdb43f33fbfc319fca414f76f5f3dc97ca443cb178&amp;scene=27 - wechat_redirect" r:id="rId33"/>
-    <hyperlink ref="B35" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247605093&amp;idx=1&amp;sn=32663a66325e7d0f5d8e4164ead40cc4&amp;chksm=fbd6e909cca1601feba78e308e77e54d4860e7a08b5407c02cab0be27ec555f83647d2933209&amp;scene=27 - wechat_redirect" r:id="rId34"/>
-    <hyperlink ref="B36" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247603217&amp;idx=1&amp;sn=a170a798db5c190fef89b28a4c157aa1&amp;chksm=fbd6e67dcca16f6b0e825f6818c40b67e38827aba0686d1a8221eda050b81196c45bf62ab643&amp;scene=27 - wechat_redirect" r:id="rId35"/>
-    <hyperlink ref="B37" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg4OTc2MzczNg==&amp;mid=2247485120&amp;idx=1&amp;sn=d34d4cca4ad1ec00b1772d9ca4f7da5e&amp;chksm=cfe7a437f8902d21404e7e184f8da18d6ed8b3056af83574060dbfedac20677b490b04c796fc&amp;mpshare=1&amp;scene=1&amp;srcid=0117Of6uG80CLb3wppixoYYu&amp;sharer_sharetime=1673957705690&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId36"/>
-    <hyperlink ref="B38" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247599652&amp;idx=1&amp;sn=7e548fdf373404f9e28a68ed60ed5fdf&amp;chksm=fbd6f448cca17d5eb554161219b8c926861540ebf6a6c405e0d9397f7a857109adfef6712b38&amp;scene=27 - wechat_redirect" r:id="rId37"/>
-    <hyperlink ref="B39" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247598912&amp;idx=1&amp;sn=f9b89d6ab0e471ad3d0a5274c521fd76&amp;chksm=fbd6f12ccca1783a70ecc2434b5614bad885fe8a4070a7b028432034c472a36763c0624d4abb&amp;scene=27 - wechat_redirect" r:id="rId38"/>
-    <hyperlink ref="B40" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247597380&amp;idx=1&amp;sn=4db0d3fe68ca96bdf1f5304e3bf27efe&amp;chksm=fbd6cf28cca1463eda0a8c82b5d5bac1c52980c18c4b3503ae7ba1f785b28a486d4e1569a730&amp;scene=27 - wechat_redirect" r:id="rId39"/>
-    <hyperlink ref="B41" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247597321&amp;idx=1&amp;sn=250130a92dc6fa4fcded1633faa5c908&amp;chksm=fbd6cf65cca1467362fe21eaef511502e03412b93fbef8256174d3ce5f90360ed7c112c1ea0a&amp;scene=27 - wechat_redirect" r:id="rId40"/>
-    <hyperlink ref="B42" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247595912&amp;idx=1&amp;sn=d6d805fca059e98542d139238a64de65&amp;chksm=fbd6c5e4cca14cf266926db0859a3f06611e4ec36c359ccc6f1ad3a1689b6d77edcb3eb5a553&amp;scene=27 - wechat_redirect" r:id="rId41"/>
-    <hyperlink ref="B43" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247595831&amp;idx=1&amp;sn=6527aef4ce07e8ce2867af62d27338cb&amp;chksm=fbd6c55bcca14c4d83907a730d8ab95cef14a86ae7d3e834c41aaea74bedb38cd73cdfc7f35e&amp;scene=27 - wechat_redirect" r:id="rId42"/>
-    <hyperlink ref="B44" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247594776&amp;idx=1&amp;sn=494824ef9ea3be55df7fe98211c3964e&amp;chksm=fbd6c174cca148623cfada0a0539a0d33b173d01bbf36fef508f4f9c2a1618bc856785651ac3&amp;scene=27 - wechat_redirect" r:id="rId43"/>
-    <hyperlink ref="B45" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247593010&amp;idx=1&amp;sn=f9384194319269e7a79ba8e577830ce4&amp;chksm=fbd6de5ecca1574819e4184b92b5167e1317cc226ba1673f57f22cf544bd30b6cc55a97f6bce&amp;scene=27 - wechat_redirect" r:id="rId44"/>
-    <hyperlink ref="B46" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650472691&amp;idx=1&amp;sn=0de2198074b629ad7c9605a7a3d7d683&amp;chksm=8397c8ebb4e041fde5b09d0496f18224248a922b5559f5722c914c856fda59d3f9283834f292&amp;scene=27 - wechat_redirect" r:id="rId45"/>
-    <hyperlink ref="B47" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247592677&amp;idx=2&amp;sn=3cae00c17a89b7f34b65bd835a553491&amp;chksm=fbd6d889cca1519fba25525dbff8f189be084c6a0bd4a30489aa5facde7038bcd663617ce393&amp;scene=27 - wechat_redirect" r:id="rId46"/>
-    <hyperlink ref="B48" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247591189&amp;idx=1&amp;sn=b6d191ff2cf27e4c9bfef945683bfb4a&amp;chksm=fbd6d779cca15e6f195c83f5c873a5ecb364478c75282dd6bde34986a089e0b443ec659724fd&amp;scene=27 - wechat_redirect" r:id="rId47"/>
-    <hyperlink ref="B49" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486879&amp;idx=1&amp;sn=6ed863ec4ebb4a43fd5303dc31283e96&amp;chksm=ea2e7ab9dd59f3af6c20ff794907160342ea844097f787a8b6761872cbe2a047a43272b542bb&amp;mpshare=1&amp;scene=1&amp;srcid=0117V5aFvFP5Ddjfi2srfCOV&amp;sharer_sharetime=1673959633475&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId48"/>
-    <hyperlink ref="B50" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651770506&amp;idx=2&amp;sn=53df7e69852b53b8e9a78704250a3f59&amp;chksm=bd1217c78a659ed1fe25caf2f387dd5adf7543c0d18aa9404a68dedc4393d3f75bdbc08d0097&amp;mpshare=1&amp;scene=1&amp;srcid=0117rkw4ucCVdx40VXlSeHoB&amp;sharer_sharetime=1673956974542&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId49"/>
-    <hyperlink ref="B51" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649772002&amp;idx=1&amp;sn=7ab50931711fa4cebae08db9b132ade5&amp;chksm=beccdc9989bb558f3223ecfec306aacfa4c17cdd49dab60bc6bd70be72b61d79d319c4e7b025&amp;scene=27 - wechat_redirect" r:id="rId50"/>
-    <hyperlink ref="B52" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247586109&amp;idx=1&amp;sn=0ee0886b4f9249baf93439835d5d0268&amp;chksm=fbd62351cca1aa47003a2abcd486f152e3eb2a70de6313764c24518b8ff41e0e1a654aef8bd3&amp;scene=27 - wechat_redirect" r:id="rId51"/>
-    <hyperlink ref="B53" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651769715&amp;idx=2&amp;sn=2d6c3eb9d9646374b5f789fcf4282794&amp;chksm=bd12123e8a659b2841fd12d873d3f7087f300b3bf8b6cbd9136728fc1231655eb573cf97f4e0&amp;mpshare=1&amp;scene=1&amp;srcid=0117Xd442BpulsuEWGrZhqzJ&amp;sharer_sharetime=1673957035636&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId52"/>
-    <hyperlink ref="B54" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247584814&amp;idx=1&amp;sn=0905e790e129fc69071ee35b033580f0&amp;chksm=fbd63e42cca1b7544faa0cb1e8bced4ba70991deb29679987616565a0e7e66e31ca926b65538&amp;scene=27 - wechat_redirect" r:id="rId53"/>
-    <hyperlink ref="B55" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486528&amp;idx=1&amp;sn=af5d722949e17ef6388582cb79d8db39&amp;chksm=ea2e7b66dd59f27040aeffc48f0dea150e5bc52a4e3d1b3cba7f1c9cf4ad4588d7e0c5e1a0de&amp;mpshare=1&amp;scene=1&amp;srcid=0117qiTM67fWa7TSJSplzmZm&amp;sharer_sharetime=1673959054283&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId54"/>
-    <hyperlink ref="B56" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247502484&amp;idx=1&amp;sn=72e86c400261dceb2526e4de6759e73f&amp;chksm=a691b97991e6306fea07ccc0fe69fc2c21e41d6dcf5696b0558d38a06773799073a78e227bfd&amp;scene=27 - wechat_redirect" r:id="rId55"/>
-    <hyperlink ref="B57" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247583653&amp;idx=1&amp;sn=5dc8cfa18b3a48103ba104470df2be45&amp;chksm=fbd635c9cca1bcdf262951910a8b0808d395a5a00f34e47c38adcf6e8eac1c8c1a61780ba514&amp;scene=27 - wechat_redirect" r:id="rId56"/>
-    <hyperlink ref="B58" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247583047&amp;idx=1&amp;sn=e1d82adf00fc6259a3750228d6979b4c&amp;chksm=fbd6372bcca1be3dc6577ef0b2b3d671f12ab72ef7347202df175e19132433d4aefdeb97505f&amp;scene=27 - wechat_redirect" r:id="rId57"/>
-    <hyperlink ref="B59" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651769148&amp;idx=2&amp;sn=f046a03fe1a02abf525c065963ae4038&amp;chksm=bd1210718a65996725b53e639b2b6c3b51eb28f9ac53152a1c695746cf1c15d202535ee5f71f&amp;mpshare=1&amp;scene=1&amp;srcid=0117F7qqsflxxpqhdQ1SngCz&amp;sharer_sharetime=1673957044472&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId58"/>
-    <hyperlink ref="B60" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486449&amp;idx=1&amp;sn=489c7b0383800ddcc36a9a72af81f3c3&amp;chksm=ea2e7cd7dd59f5c15d2ed2adcd1db35f89d92c8390ed956f0b298a658def93410a4c6668f715&amp;mpshare=1&amp;scene=1&amp;srcid=0117rJEidptu50XAatgGRbHk&amp;sharer_sharetime=1673958981682&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId59"/>
-    <hyperlink ref="B61" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247502213&amp;idx=1&amp;sn=fc146301867e6dcfc1c76eb4ead978d0&amp;chksm=a691ba6891e6337e86096af1a44fc35fbbf5ec1c3af779b4bf84d00dc5738ceb80acfadd3df4&amp;scene=27 - wechat_redirect" r:id="rId60"/>
-    <hyperlink ref="B62" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247577711&amp;idx=1&amp;sn=d4dc3ecc9fc9c63aa0a7746237156800&amp;chksm=fbd60203cca18b153440f5ea638f0f409fa953c06ce8bcf1b23878664617dc206947ca7e4fa8&amp;scene=27 - wechat_redirect" r:id="rId61"/>
-    <hyperlink ref="B63" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247577501&amp;idx=1&amp;sn=0abd962b316235700f4050fcc8968a3b&amp;chksm=fbd61df1cca194e7df8a414a8055df18e3592e0b59a1f941afb05005221e8e168f99a8d18b62&amp;scene=27 - wechat_redirect" r:id="rId62"/>
-    <hyperlink ref="B64" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650464730&amp;idx=1&amp;sn=c5aa5396fc7c7a2eabb7990c6ce0d178&amp;chksm=839629c2b4e1a0d491b314e5d6437ca87083de35cfa3791cf00a3fbd559641159cd0d350d057&amp;scene=27 - wechat_redirect" r:id="rId63"/>
-    <hyperlink ref="B65" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650464165&amp;idx=1&amp;sn=76193b6fc997e3d1d842c6ebe2dbf317&amp;chksm=839617bdb4e19eabccf0bd4bc71d89e97cb17def86abb812a562b4019d379525e33ff7339152&amp;scene=27 - wechat_redirect" r:id="rId64"/>
-    <hyperlink ref="B66" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247576281&amp;idx=2&amp;sn=097528a2c3a4ba819eab3cd122df990b&amp;chksm=fbd618b5cca191a394aec5846ce48720d95e3e6ea153c0770452a0eec447309383b3bf99e453&amp;scene=27 - wechat_redirect" r:id="rId65"/>
-    <hyperlink ref="B67" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247575814&amp;idx=1&amp;sn=c20d71bcf94a88a3e791885edb1af421&amp;chksm=fbd61b6acca1927c038e60999db375f0192b322e72bf094e764a295f36ec217d8651d4a41a2c&amp;scene=27 - wechat_redirect" r:id="rId66"/>
-    <hyperlink ref="B68" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486273&amp;idx=1&amp;sn=b0866d0b104de68bb5866b879df5baf5&amp;chksm=ea2e7c67dd59f57161d5651396274ac15cd9af031995650a7e349710e983ed1a20d4f2a74fbd&amp;mpshare=1&amp;scene=1&amp;srcid=0117G8EkbjLIyTRHBJSunt4X&amp;sharer_sharetime=1673959041521&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId67"/>
-    <hyperlink ref="B69" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg4OTc2MzczNg==&amp;mid=2247484208&amp;idx=1&amp;sn=b250b40543a4f8c2c28827587dd62d02&amp;chksm=cfe7a1c7f89028d118599648db1037bddaa7f0eefed08abb3e8fc10699c1421441c3517166bc&amp;mpshare=1&amp;scene=1&amp;srcid=0117OKUhDuwgjxulTmbfCefn&amp;sharer_sharetime=1673957661497&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId68"/>
-    <hyperlink ref="B70" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650462657&amp;idx=1&amp;sn=5e7ba268bb213b97e373c09ef8063234&amp;chksm=839611d9b4e198cf0735bee5a88e32efbfdbaab402b6f5a74be1986304608f73bb87ecd72c23&amp;scene=27 - wechat_redirect" r:id="rId69"/>
-    <hyperlink ref="B71" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650462450&amp;idx=1&amp;sn=48c33f93cae32d6bf5ea6d8dfd0cb12b&amp;chksm=839610eab4e199fcf614def6a660424a04196208d4acaf10ea653ca2920018f21226eb87cc42&amp;scene=27 - wechat_redirect" r:id="rId70"/>
-    <hyperlink ref="B72" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247501313&amp;idx=1&amp;sn=8f41c67db2b9fd8d016863c4bef7174f&amp;chksm=a691b5ec91e63cfaaf84c2872a0a33f8736d5077711b5f10fdca7e2f5578b6a61d915a985f0a&amp;scene=27 - wechat_redirect" r:id="rId71"/>
-    <hyperlink ref="B73" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247574417&amp;idx=1&amp;sn=87ba745e7e1180fc6f85349428a890e9&amp;chksm=fbd611fdcca198eba7ba7f339556911ae27b4058e0ae27581f793280ac0fc34fbc4e49e4a23f&amp;scene=27 - wechat_redirect" r:id="rId72"/>
-    <hyperlink ref="B74" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247574304&amp;idx=1&amp;sn=142635ea47eb0bf24b4feaab967f6d04&amp;chksm=fbd6114ccca1985aecefcc46ade6d4d878bc6109205c2b4f8d5802ef9a484aee4a2c12fffed7&amp;scene=27 - wechat_redirect" r:id="rId73"/>
-    <hyperlink ref="B75" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247572115&amp;idx=1&amp;sn=e77ece68da5e843e620599cd9bc35ad9&amp;chksm=fbd668ffcca1e1e90ee71c122a5c379051ef0ed6e9cb1460ffd8692c5066803524c6c4472480&amp;scene=27 - wechat_redirect" r:id="rId74"/>
-    <hyperlink ref="B76" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247571544&amp;idx=2&amp;sn=c298c717bb79092cb8ea7adf718cf64b&amp;chksm=fbd66a34cca1e3222d5ab2f54185cea9732528721b3f0ad3df83dc15e14a30b1d6c6f64fafa2&amp;scene=27 - wechat_redirect" r:id="rId75"/>
-    <hyperlink ref="B77" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247570937&amp;idx=1&amp;sn=aa619fe9ca5ce9b655368d11bed4f42a&amp;chksm=fbd66795cca1ee830ab6c13d90dcd0a465f4c0f1e871c207db97f588b228f8f9ad7feec48d96&amp;scene=27 - wechat_redirect" r:id="rId76"/>
-    <hyperlink ref="B78" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247570552&amp;idx=2&amp;sn=6f5c88fc386de39080c8ab16ec415a28&amp;chksm=fbd66614cca1ef02422ec1a182101aabfed8939a077d3825c9cc2efc2664364592ba949e59e3&amp;scene=27 - wechat_redirect" r:id="rId77"/>
-    <hyperlink ref="B79" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486194&amp;idx=1&amp;sn=48db3322795a4931f30c760017aaf9bc&amp;chksm=ea2e7dd4dd59f4c2e568ddb5bd3a17fdf9c42701995b42d33252c0182341a1a909cf66be862d&amp;mpshare=1&amp;scene=1&amp;srcid=0117Q0TI5TIkAQKoTGlkapeK&amp;sharer_sharetime=1673958944207&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId78"/>
-    <hyperlink ref="B80" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247569807&amp;idx=2&amp;sn=8d133978b9c78529d6c83c756c4a242d&amp;chksm=fbd663e3cca1eaf58e2fe5d7c88430ada4ffac92e7a96082906c03666d3fdc28548c59c1078f&amp;scene=27 - wechat_redirect" r:id="rId79"/>
-    <hyperlink ref="B81" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247569443&amp;idx=1&amp;sn=c683867e850188217bcdce54b9243feb&amp;chksm=fbd6624fcca1eb59366b793686f378217d677a394378e65bc5b24963d10fff77461618203f74&amp;scene=27 - wechat_redirect" r:id="rId80"/>
-    <hyperlink ref="B82" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247569405&amp;idx=2&amp;sn=fb25b857a2355631e7236ad538b7db1a&amp;chksm=fbd67d91cca1f48793667b8211a67d91087a206fddfe15cb3a81fca07a74db96dd206452cca7&amp;scene=27 - wechat_redirect" r:id="rId81"/>
-    <hyperlink ref="B83" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247485997&amp;idx=1&amp;sn=382ec987f91b1e9da9c9b99b4c26c927&amp;chksm=ea2e7d0bdd59f41d9da9b6df7c4973eaab7a9d594cfd5250ca3128a9aaf7dee4a540485a616c&amp;mpshare=1&amp;scene=1&amp;srcid=0117LxLqRhvnFtyKC08DdoKa&amp;sharer_sharetime=1673958844890&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId82"/>
-    <hyperlink ref="B84" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650458750&amp;idx=1&amp;sn=263bc286f3bf0711380b4c15d746ecdc&amp;chksm=83960266b4e18b702e68a2e6fc1537d412aae05c8679b2f93fd6cd8d9c2e15647af2decf2625&amp;scene=27 - wechat_redirect" r:id="rId83"/>
-    <hyperlink ref="B85" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247569004&amp;idx=1&amp;sn=819194c1427369349458d65a4d372f4b&amp;chksm=fbd67c00cca1f5165aa04c2a247b70ab435f3d38f95f3b737ee0613ef13da7d465e6cc3f72a4&amp;scene=27 - wechat_redirect" r:id="rId84"/>
-    <hyperlink ref="B86" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247485981&amp;idx=1&amp;sn=ca9f4b56e4225c26e1e477ad47e5ce71&amp;chksm=ea2e7d3bdd59f42dfa7ed40277d8db305544f59fccdae53b81be9f6010a0ee94bc102e6172d5&amp;mpshare=1&amp;scene=1&amp;srcid=0117vy6KkfZbqSewnRXKH9LX&amp;sharer_sharetime=1673958897941&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId85"/>
-    <hyperlink ref="B87" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650457465&amp;idx=1&amp;sn=0fab7290a4e7dc9e951da5c2fc6404f9&amp;chksm=83960d61b4e18477d070f49f47f4dd27d6feae11e2b940439a5833d9c1d78fc629fb1f4811f1&amp;scene=27 - wechat_redirect" r:id="rId86"/>
-    <hyperlink ref="B88" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567877&amp;idx=1&amp;sn=1c8d1f781bd72fdf063f05694f8ff001&amp;chksm=fbd67869cca1f17ff2d6a98f51c5b61792db7aeac74a8f1503155851e4f59e5dc69f0342f47f&amp;scene=27 - wechat_redirect" r:id="rId87"/>
-    <hyperlink ref="B89" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567823&amp;idx=2&amp;sn=97cccbf605536b1b02b56485e6b6d3f2&amp;chksm=fbd67ba3cca1f2b5fbae4f27941220e719144f7cb7fc1399c63d95c42d43ece6dbd649a6fcc1&amp;scene=27 - wechat_redirect" r:id="rId88"/>
-    <hyperlink ref="B90" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567741&amp;idx=1&amp;sn=6406f8181482a6be57eb0a752173fa1a&amp;chksm=fbd67b11cca1f2076580fb3e08d635033bdb03fa7fd195f6b6e07d231d3c7b52b03f3fe02996&amp;scene=27 - wechat_redirect" r:id="rId89"/>
-    <hyperlink ref="B91" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247485890&amp;idx=1&amp;sn=16486343e1cebcf9b77352826c5c307e&amp;chksm=ea2e7ee4dd59f7f2559e53c5f174e1541f1b940257e8af9027416ebd38ea4e643c583d1a6a5e&amp;mpshare=1&amp;scene=1&amp;srcid=01175jUTYWcRHTuTLYsLKiuB&amp;sharer_sharetime=1673958857324&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId90"/>
-    <hyperlink ref="B92" display="https://mp.weixin.qq.com/s/fN9s5Ml4GjGK2xLOeAUN4w" r:id="rId91"/>
-    <hyperlink ref="B93" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650457145&amp;idx=1&amp;sn=569530d4129f0ba122b79ddd66e6e742&amp;chksm=83960c21b4e18537aa1edaead0ecf40f1e74aec662f1bc69d8a166b55085862d16211aa661a6&amp;scene=27 - wechat_redirect" r:id="rId92"/>
-    <hyperlink ref="B94" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567452&amp;idx=1&amp;sn=4da4f736bb462d213f5c275181201f29&amp;chksm=fbd67a30cca1f326d7e08bf37270fd446cd82d693b1054611a8f2e76bfdee328863eada422d4&amp;scene=27 - wechat_redirect" r:id="rId93"/>
-    <hyperlink ref="B95" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567308&amp;idx=1&amp;sn=bf4cb94e1cf1ce58e01e5a9a1d9fabd1&amp;chksm=fbd675a0cca1fcb643835a48add91625fda1f9dd22f6fde80e23310355ec144e93cb4f642e8c&amp;scene=27 - wechat_redirect" r:id="rId94"/>
-    <hyperlink ref="B96" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg2NzU4MDM0MQ==&amp;mid=2247484777&amp;idx=1&amp;sn=8e258fae7c3c04d483dca1a74b5b6d46&amp;chksm=ceb825b3f9cfaca56b9879bd8b621dd99ec89d5322a5cc17da49c76a629bce9c24c75a486155&amp;mpshare=1&amp;scene=1&amp;srcid=0117cYykpg2l8QoQuZOe3Tvk&amp;sharer_sharetime=1673959147851&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId95"/>
-    <hyperlink ref="B97" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650455296&amp;idx=1&amp;sn=06621faf40213e4e56a3211a88a6e234&amp;chksm=83967518b4e1fc0e38716b43f07fb863fa12b2f1ac1e8b2afb2ef0d062f091b3e375dde8f0f3&amp;scene=27 - wechat_redirect" r:id="rId96"/>
-    <hyperlink ref="B98" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566960&amp;idx=1&amp;sn=e8cc6cc5f3a1f7de5eac0dee97debb6b&amp;chksm=fbd6741ccca1fd0ad16036ace153dc09b06649e9235bc89f2eda09f87c1aeee9e713f073b6c0&amp;scene=27 - wechat_redirect" r:id="rId97"/>
-    <hyperlink ref="B99" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566913&amp;idx=1&amp;sn=2d203186459c22eb14d54745cecdd83e&amp;chksm=fbd6742dcca1fd3ba5b947fa2914bef7b218e957c94b458a12824c0fd0802cb616051bbcad80&amp;scene=27 - wechat_redirect" r:id="rId98"/>
-    <hyperlink ref="B100" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649769274&amp;idx=1&amp;sn=a46fc1574ecbf5cfddd1f40af9cb1b4f&amp;chksm=beccd64189bb5f57f80799fd2ea51c7669942254a2223dea55fe7d2bfa5762410a784dec8e2f&amp;scene=27 - wechat_redirect" r:id="rId99"/>
-    <hyperlink ref="B101" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566783&amp;idx=1&amp;sn=7f693e5b57988166ec07017f32ff2b97&amp;chksm=fbd677d3cca1fec550f381173c195aef54aab536ce429cb823d9c62c7ca2a66cde9eb09c30ca&amp;scene=27 - wechat_redirect" r:id="rId100"/>
-    <hyperlink ref="B102" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566714&amp;idx=1&amp;sn=fcccd4847149cb3496d10e2d4975c30a&amp;chksm=fbd67716cca1fe00735a96213bcd8d208d15654acb63ce8fd1e0dc0c383d8352c89ced76327f&amp;scene=27 - wechat_redirect" r:id="rId101"/>
-    <hyperlink ref="B103" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651766855&amp;idx=2&amp;sn=3f501731584e8cdf6fa7d22fafc9d469&amp;chksm=bd12190a8a65901cfbad1590c49044afdf81c4df281e23dab813c51acddbace87bf93a78202d&amp;mpshare=1&amp;scene=1&amp;srcid=0117wolSN0KkwClWlrLhbYd9&amp;sharer_sharetime=1673957140359&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId102"/>
-    <hyperlink ref="B104" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650454966&amp;idx=1&amp;sn=a5721d265ed07138fdad3c8e1d06b727&amp;chksm=839673aeb4e1fab8164ef508bfeddc4f4cfc2c76d8163cf209c871df94a0c3fb0b1fd7f9c9b6&amp;scene=27 - wechat_redirect" r:id="rId103"/>
-    <hyperlink ref="B105" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566529&amp;idx=1&amp;sn=aaedccdf162508b78b35b99b5262e47e&amp;chksm=fbd676adcca1ffbbd669a3190c4b96561686716a2c03f813cbf71c5af8313e20eab654116c9c&amp;scene=27 - wechat_redirect" r:id="rId104"/>
-    <hyperlink ref="B106" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247485614&amp;idx=1&amp;sn=07571004c063b7563fa83f0b38e4f9b0&amp;chksm=ea2e7f88dd59f69e24c15d4cfee263f4dab871a8a5bc6a8ca798d76265497e418ff2c393229c&amp;mpshare=1&amp;scene=1&amp;srcid=0117kMMwZFauG8GEMkGxRgkM&amp;sharer_sharetime=1673958791203&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId105"/>
-    <hyperlink ref="B107" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566515&amp;idx=2&amp;sn=45d7744b256ca6a4f3871126e6c343a9&amp;chksm=fbd676dfcca1ffc9008e4af615655bc243a502bef76ec9aa73cfa961f005a5ceddbf85135020&amp;scene=27 - wechat_redirect" r:id="rId106"/>
-    <hyperlink ref="B108" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566074&amp;idx=1&amp;sn=8c6b37aa60324b26561a5d3fae6ae9b7&amp;chksm=fbd67096cca1f98057c70929be491b04a58704d04ddf4896e77947b5927c62aea546610e1e73&amp;scene=27 - wechat_redirect" r:id="rId107"/>
-    <hyperlink ref="B109" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650453241&amp;idx=1&amp;sn=d30e011ac9e416aab54eb76378b43f39&amp;chksm=83967ce1b4e1f5f79ce2067171d9c6336269edb47c88992ba765376438534ba13a6b83da287f&amp;scene=27 - wechat_redirect" r:id="rId108"/>
-    <hyperlink ref="B110" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565994&amp;idx=1&amp;sn=6d57d32a8d2d81d6540a5e0219d14528&amp;chksm=fbd670c6cca1f9d034eb1a94314e838a09e843c65143995e0d133bc612596ba3817f73f99507&amp;scene=27 - wechat_redirect" r:id="rId109"/>
-    <hyperlink ref="B111" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565976&amp;idx=1&amp;sn=a651d09cdd08268b1424c854790e3a59&amp;chksm=fbd670f4cca1f9e25c39dea866a2b3c4ffeb954ad078e46404656f464f45eb4081307b8476cd&amp;scene=27 - wechat_redirect" r:id="rId110"/>
-    <hyperlink ref="B112" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565886&amp;idx=1&amp;sn=fbce6bf0053fc396ec28ef96b70b4549&amp;chksm=fbd67052cca1f944934c670f15d55771cd9287962d642fb0ce39208d5bd769c35bd7692ab481&amp;scene=27 - wechat_redirect" r:id="rId111"/>
-    <hyperlink ref="B113" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650452759&amp;idx=1&amp;sn=9405ae3c91460fb6ad0e85389de5414c&amp;chksm=83967b0fb4e1f219afa071fd46547c54a189ff468dcf9fd33ea6b6f9ae8fefcd2df7cf1007aa&amp;scene=27 - wechat_redirect" r:id="rId112"/>
-    <hyperlink ref="B114" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565718&amp;idx=1&amp;sn=5d5e7b94caa839ccf85e0b119de3ba64&amp;chksm=fbd673facca1faecf357c3478bb5d0859c0e3a9f25110e8a1ba17a561b24ec8094ab07640988&amp;scene=27 - wechat_redirect" r:id="rId113"/>
-    <hyperlink ref="B115" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565711&amp;idx=2&amp;sn=7f04ddc36909ebe7301775eda5fd577e&amp;chksm=fbd673e3cca1faf50348726147937c20283f2b8c65f5f033852feeb2e9f7e4ed7c8d06c2190c&amp;scene=27 - wechat_redirect" r:id="rId114"/>
-    <hyperlink ref="B116" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649768292&amp;idx=1&amp;sn=354dfe8a3186fd265dbe434738ef5599&amp;chksm=beccd21f89bb5b093f7a7ee15b4ea54e0035b445f9835d5cd8835c8d4dd460a2303bdc2eb61a&amp;scene=27 - wechat_redirect" r:id="rId115"/>
-    <hyperlink ref="B117" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565613&amp;idx=2&amp;sn=f71fdb23b678e962f4cb9e4373d0f3c9&amp;chksm=fbd67341cca1fa57fc35cbd6f260f27f9b058fe2d815aee5e0249b0f4e9c97e4e7a035460105&amp;scene=27 - wechat_redirect" r:id="rId116"/>
-    <hyperlink ref="B118" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzMDE5MDgwMQ==&amp;mid=2247486658&amp;idx=1&amp;sn=0ee241fe1d39ca49fa027df3157c2011&amp;chksm=c27f487cf508c16a391b504cb12557a1e3b7b59e63c668f41b2956cddabd417d35d27a51b596&amp;mpshare=1&amp;scene=1&amp;srcid=01178Hqxu4n7E06o8irFWJnX&amp;sharer_sharetime=1673956927457&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId117"/>
-    <hyperlink ref="B119" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651766615&amp;idx=2&amp;sn=89b1399f902ce8b01d2e5dc45c11ec43&amp;chksm=bd12661a8a65ef0c8ac325db5450c1ce7e62dfeb87120569aca449afdbcc24a1e0a112eadbe6&amp;mpshare=1&amp;scene=1&amp;srcid=0117flm3zao0X73AS87VEsRA&amp;sharer_sharetime=1673957162379&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId118"/>
-    <hyperlink ref="B120" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247499655&amp;idx=1&amp;sn=0af7ce51790e7de995b989250af545ac&amp;chksm=a6918c6a91e6057ca610820f4207531dd77de9541a534ab6df033691b21023d2c6a5d3736e70&amp;scene=27 - wechat_redirect" r:id="rId119"/>
-    <hyperlink ref="B121" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg2NzU4MDM0MQ==&amp;mid=2247484702&amp;idx=1&amp;sn=33891737a46268a28d6676ca1e2e8212&amp;chksm=ceb825c4f9cfacd2b0cb6ff6106940043d708260b561285cc7459a17bd65d3d16e3ddce95707&amp;mpshare=1&amp;scene=1&amp;srcid=0117GxgZME41q4MyG15aaS66&amp;sharer_sharetime=1673959171765&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId120"/>
-    <hyperlink ref="B122" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247564687&amp;idx=1&amp;sn=2825449485d6fae3ae2005c822ce8dc1&amp;chksm=fbd64fe3cca1c6f5277e84d19e723e2ff4e165ced14d94d53bf93ce73878943ec9d7c0f005d3&amp;scene=27 - wechat_redirect" r:id="rId121"/>
-    <hyperlink ref="B123" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562574&amp;idx=1&amp;sn=2c5c787485131673da963e4a1ca8610a&amp;chksm=fbd64722cca1ce34155e3c4507bea25b4debca0c0cbcb88871bcc3f6637efa4c7452d24ec092&amp;scene=27 - wechat_redirect" r:id="rId122"/>
-    <hyperlink ref="B124" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562529&amp;idx=1&amp;sn=6bae7191d8f711d68c1520f4e8a28c7a&amp;chksm=fbd6474dcca1ce5b112eb645ff15d173c7054d2343b16e4d3674201c4481314fa9297b90b0b7&amp;scene=27 - wechat_redirect" r:id="rId123"/>
-    <hyperlink ref="B125" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562443&amp;idx=1&amp;sn=e648c2b1fcd04c94fe39c74176b5d5d5&amp;chksm=fbd646a7cca1cfb135acbd3ee5e460e846dd7851c24f5b8ed2b30556d967f5ad2ae54862f6b7&amp;scene=27 - wechat_redirect" r:id="rId124"/>
-    <hyperlink ref="B126" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562403&amp;idx=1&amp;sn=b639f10eabbc85c33cb47773f6e7f927&amp;chksm=fbd646cfcca1cfd94d90c73d665d9a056bf90e40b8c9857d5f5476f6ae8f1eb41fff5302508f&amp;scene=27 - wechat_redirect" r:id="rId125"/>
-    <hyperlink ref="B127" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562398&amp;idx=1&amp;sn=a4a75e80defd853797980fc99a09b6b3&amp;chksm=fbd646f2cca1cfe4fab6870c681e40db76cd1b0bebdd55f93034ed812ac1ac1f38908a2a6d59&amp;scene=27 - wechat_redirect" r:id="rId126"/>
-    <hyperlink ref="B128" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562297&amp;idx=1&amp;sn=38d236570827c2d8422dbfe1fbc93819&amp;chksm=fbd64655cca1cf43815128dc9a8b7adf5efe1d6779fa7feb60ad9f1414767cf57623cbbd41f1&amp;scene=27 - wechat_redirect" r:id="rId127"/>
-    <hyperlink ref="B129" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650451312&amp;idx=1&amp;sn=a9bf674c661cb9f4ea5b9a1a86b874ac&amp;chksm=83966568b4e1ec7eb52f139edd3ede3df3fb6b23f4a4951be6b66db1390264b58e4a5ee43329&amp;scene=27 - wechat_redirect" r:id="rId128"/>
-    <hyperlink ref="B130" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562067&amp;idx=2&amp;sn=9a47510cfb928f3d0001428f3a1f7555&amp;chksm=fbd6413fcca1c829d11e66edf61b8cfa7b0b735ac3425fb3f67cfdfb041f9dbc5d247f06391b&amp;scene=27 - wechat_redirect" r:id="rId129"/>
-    <hyperlink ref="B131" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247561697&amp;idx=2&amp;sn=9db06881ce75388999f96276289f2bf2&amp;chksm=fbd6438dcca1ca9b4c7c1f40224c735499a6bacc952640d4a1f3cb1233d3a5e2b53c2ec983aa&amp;scene=27 - wechat_redirect" r:id="rId130"/>
-    <hyperlink ref="B132" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247561513&amp;idx=1&amp;sn=5b818890be25a6b346041bcd45f9b5c7&amp;chksm=fbd64345cca1ca5395f1cd95f1cc0d0f9b4bcbd330f26e2fea657424bde76bd74b57bf989720&amp;scene=27 - wechat_redirect" r:id="rId131"/>
-    <hyperlink ref="B133" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247561463&amp;idx=1&amp;sn=264c42e7c9207cd57e0f13937985a869&amp;chksm=fbd6429bcca1cb8d461a43081195f95972c08d8055680d0b7fed174734abf042162f673d0913&amp;scene=27 - wechat_redirect" r:id="rId132"/>
-    <hyperlink ref="B134" display="https://www.bilibili.com/video/BV1QS4y1j7yK" r:id="rId133"/>
-    <hyperlink ref="B135" display="https://www.bilibili.com/video/BV1GY411h7MH" r:id="rId134"/>
-    <hyperlink ref="B136" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650450365&amp;idx=2&amp;sn=cac748e80be91c0ef674b0f5cffd8892&amp;chksm=839661a5b4e1e8b39164b66b6d3c34f673353b623f8e77d8588488696992dad60f205192d56a&amp;scene=27 - wechat_redirect" r:id="rId135"/>
-    <hyperlink ref="B137" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650450321&amp;idx=2&amp;sn=f80e1432c9d601cdead700c4a2f4c9c6&amp;chksm=83966189b4e1e89fff4e286b3543aaa4caa1a897bcd65f49754d6a35735e04299cac329102a2&amp;scene=27 - wechat_redirect" r:id="rId136"/>
-    <hyperlink ref="B138" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650447143&amp;idx=1&amp;sn=28572b3214b41042573190f918fec5e2&amp;chksm=8396553fb4e1dc299959b25ebba018de65a0ad01f764cff9be3691be7a28efe20bc494af76a0&amp;scene=27 - wechat_redirect" r:id="rId137"/>
-    <hyperlink ref="B139" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247560198&amp;idx=1&amp;sn=d6245b5ad0e0a45828d8a5a3d42565b3&amp;chksm=fbd65e6acca1d77c4219211313cf049d7c3b3f1380137f4a4057180e3453ac286cc90489f3a2&amp;scene=27 - wechat_redirect" r:id="rId138"/>
-    <hyperlink ref="B140" display="https://zhuanlan.zhihu.com/p/448175622?utm_medium=social&amp;utm_oi=32492828491776&amp;utm_psn=1598782592987373568&amp;utm_source=wechat_session" r:id="rId139"/>
-    <hyperlink ref="B141" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650445597&amp;idx=1&amp;sn=3cf659eb6888d315eef88a40ca01b35e&amp;chksm=83965f05b4e1d613ae13a009563d6ddd5cefe111249309968461b388dba2b9fceb6c059014f9&amp;scene=27 - wechat_redirect" r:id="rId140"/>
-    <hyperlink ref="B142" display="https://www.bilibili.com/video/BV1QP4y1n7vD" r:id="rId141"/>
-    <hyperlink ref="B143" display="https://www.bilibili.com/video/BV1CL411j7sP" r:id="rId142"/>
-    <hyperlink ref="B144" display="https://www.bilibili.com/video/BV1Bg411w7ib" r:id="rId143"/>
-    <hyperlink ref="B145" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247559222&amp;idx=1&amp;sn=9bd74ce22471f24c67ede5664e3d52ca&amp;chksm=fbd65a5acca1d34c479c885f71f9c936be3dcacdf07a6b93804497ce2a80e6e1dbbd6c2ccb01&amp;scene=27 - wechat_redirect" r:id="rId144"/>
-    <hyperlink ref="B146" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650445349&amp;idx=1&amp;sn=bb8ad24cef7f34bd46fe35d0cb370958&amp;chksm=83965e3db4e1d72ba530d9f06acaa2d0432338935e9585e530958dba2d42f20971047b0b0c78&amp;scene=27 - wechat_redirect" r:id="rId145"/>
-    <hyperlink ref="B147" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650445139&amp;idx=1&amp;sn=c43febc0a43bf5b4165d06cceffd873c&amp;chksm=83965d4bb4e1d45d50fd46a3776bf9ebfe78477c45a872aba220ff37aa331fda2fe07874c803&amp;scene=27 - wechat_redirect" r:id="rId146"/>
-    <hyperlink ref="B148" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247558984&amp;idx=1&amp;sn=b43d63234470d398222d969bd832ceb4&amp;chksm=fbd65524cca1dc3237395c3d5971388533d363d8d8ea0ac15ab7ae1fe1f976e04b35abe4a17a&amp;scene=27 - wechat_redirect" r:id="rId147"/>
-    <hyperlink ref="B149" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247558876&amp;idx=2&amp;sn=9661f9e62d675dc9c6c1e1755166f475&amp;chksm=fbd654b0cca1dda662a444099587fb756253ff670453f1093fbdab68caffd9ce31c3864a86c6&amp;scene=27 - wechat_redirect" r:id="rId148"/>
-    <hyperlink ref="B150" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650443071&amp;idx=1&amp;sn=b61d6b1fdcf0c61bccb3988dd2516616&amp;chksm=83964527b4e1cc31a67ced58e4a1559d8214f5a560258aaac51223c393ec829d3d2ede1faadb&amp;scene=27 - wechat_redirect" r:id="rId149"/>
-    <hyperlink ref="B151" display="https://www.bilibili.com/video/BV16M4y1P71Y" r:id="rId150"/>
-    <hyperlink ref="B152" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg2NzU4MDM0MQ==&amp;mid=2247484410&amp;idx=1&amp;sn=6eb90265ecadfd8a6239142e82d2791e&amp;chksm=ceb82320f9cfaa3605c0808a6cc59e1272e4bd66966707bfea69c443bf6f94e7f084d0fb68d0&amp;mpshare=1&amp;scene=1&amp;srcid=0117gma2C2J5yABFspK8xOMO&amp;sharer_sharetime=1673959158573&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId151"/>
-    <hyperlink ref="B153" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247557961&amp;idx=2&amp;sn=cfaf7721b9c7892654fb6d22fc3dcb9a&amp;chksm=fbd65125cca1d83361018b1cb258acf75919d79989f306bb031eb61a86aa60e38423ce26b7a3&amp;scene=27 - wechat_redirect" r:id="rId152"/>
-    <hyperlink ref="B154" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650442614&amp;idx=1&amp;sn=9f70b34865023eb21948da0e1048caa8&amp;chksm=8396436eb4e1ca7838bee45c86575fd55a5ab4890d00ab39c8a79f9d7152a19ed7c173139ebe&amp;scene=27 - wechat_redirect" r:id="rId153"/>
-    <hyperlink ref="B155" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651765674&amp;idx=1&amp;sn=55f3a13f9b2ecc1b0c28a76e76b35727&amp;chksm=bd1262e78a65ebf12783a6b593cef4f8fe0a5b1f41eac019ce707ff01cc9c307e6febcefc634&amp;mpshare=1&amp;scene=1&amp;srcid=0117VHqucNGNj19mtFAk5cYg&amp;sharer_sharetime=1673957152451&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId154"/>
-    <hyperlink ref="B156" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247557338&amp;idx=2&amp;sn=ab7ae767a2504d9cde93552d35d402fd&amp;chksm=fbd652b6cca1dba0bac36a18cd430d38d30d76f1f9112bde9fc42e8c723eb4a3a71c50fdcafa&amp;scene=27 - wechat_redirect" r:id="rId155"/>
-    <hyperlink ref="B157" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247556442&amp;idx=1&amp;sn=61144058d5ac801109ca343d4480295d&amp;chksm=fbd7af36cca02620de8ad397ef047fc8f1dfc896c6a44c935e79f19eccea6194e471f6252283&amp;scene=27 - wechat_redirect" r:id="rId156"/>
-    <hyperlink ref="B158" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247555956&amp;idx=1&amp;sn=9495f84c782e741e7609b5e0ba8b9833&amp;chksm=fbd7a918cca0200eb0d1aba6a17889b91b0235df7edc6e5b4c611aabc464357d445f2c6ee132&amp;scene=27 - wechat_redirect" r:id="rId157"/>
-    <hyperlink ref="B159" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247555887&amp;idx=1&amp;sn=72e77940abd250906cf42e03c8027c18&amp;chksm=fbd7a943cca020551709b8e89bfc1c5c494fae68beb2d87d14cbea17f83455524443539469f6&amp;scene=27 - wechat_redirect" r:id="rId158"/>
-    <hyperlink ref="B160" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247555532&amp;idx=1&amp;sn=df29d507d23d2431687d85b3ac865763&amp;chksm=fbd7aba0cca022b615356a849cc9b60c32e0461d8d50328f5024408e0a4acda5ecb688600234&amp;scene=27 - wechat_redirect" r:id="rId159"/>
-    <hyperlink ref="B161" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247554796&amp;idx=1&amp;sn=e96ad50dfbf4e2b54cfff9ee3ee122b7&amp;chksm=fbd7a480cca02d96c66772353c5e4b54fc80d2577775337a53b6d916e753c2cf08af9d858be3&amp;scene=27 - wechat_redirect" r:id="rId160"/>
-    <hyperlink ref="B162" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649765103&amp;idx=1&amp;sn=7da591618dfacca5314f77634861bd1e&amp;chksm=becca79489bb2e82f1d4bb047b759a75c98257980e09514ebf83f72177a5aafec7945e340f8c&amp;scene=27 - wechat_redirect" r:id="rId161"/>
-    <hyperlink ref="B163" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247496575&amp;idx=1&amp;sn=ea69970e5ce1e56683c0dfb5491e4c63&amp;chksm=a691809291e60984f7e09ea5912be01f732fad486f8c1439152d6744b745c0989c8a5a38c713&amp;scene=27 - wechat_redirect" r:id="rId162"/>
-    <hyperlink ref="B164" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247554470&amp;idx=1&amp;sn=2ff40b9e09a4424c850059053a065178&amp;chksm=fbd7a7cacca02edca60d87ea1be7ec4ec489d1688a67e4451e8c8cb42f8d4da0027cbc4abe8e&amp;scene=27 - wechat_redirect" r:id="rId163"/>
-    <hyperlink ref="B165" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651765021&amp;idx=1&amp;sn=3ac05ac64f650bcedd4f75d5aa715771&amp;chksm=bd1260508a65e9462f356aab0fc0df37e4860628f3f404db9099b8195991bfd9a4542c35dd80&amp;mpshare=1&amp;scene=1&amp;srcid=0117FB6mPZqwGWEVytjcUxEH&amp;sharer_sharetime=1673957236741&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId164"/>
-    <hyperlink ref="B166" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247554157&amp;idx=1&amp;sn=cec38d80b7d75845c6af5bca7bf9087b&amp;chksm=fbd7a601cca02f17ff5c1c5baee827ca106761579fdacc03e082e8034978a4860bf7d4c63dc3&amp;scene=27 - wechat_redirect" r:id="rId165"/>
-    <hyperlink ref="B167" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247553674&amp;idx=1&amp;sn=93fd72425a2e1fc8a1aaaa48075a7f09&amp;chksm=fbd7a0e6cca029f099db1ee7f6d44e0bc32ad91f21d661573be58e8e2d323aa822c37fa0219d&amp;scene=27 - wechat_redirect" r:id="rId166"/>
-    <hyperlink ref="B168" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247551834&amp;idx=2&amp;sn=98052911088d340991cec0c6c804f389&amp;chksm=fbd7b936cca03020aaae4b4c5820e678017589affa19dedfe4fea56059c10c6922380ea65a6c&amp;scene=27 - wechat_redirect" r:id="rId167"/>
-    <hyperlink ref="B169" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247550322&amp;idx=2&amp;sn=5f46d888ca18541b9b3d9929cdbb369f&amp;chksm=fbd7b71ecca03e089c2a6c7996fef0b640af5f8ea79c000418847847e69276d07035bc483370&amp;scene=27 - wechat_redirect" r:id="rId168"/>
-    <hyperlink ref="B170" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247549101&amp;idx=2&amp;sn=08fab37f73d47f7215e0a5f8fd1ad24c&amp;chksm=fbd7b2c1cca03bd716dcd437fabd34bdf9fb802dbef59e18039dede88511ff113864352b1172&amp;scene=27 - wechat_redirect" r:id="rId169"/>
-    <hyperlink ref="B171" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650433549&amp;idx=1&amp;sn=7e352d215146a445ea47a566a4aa8411&amp;chksm=8396a015b4e12903e30ea108bb8fd4c963d4b0af6bd691a869ec77220211427084a60ce57cf1&amp;scene=27 - wechat_redirect" r:id="rId170"/>
-    <hyperlink ref="B172" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547626&amp;idx=2&amp;sn=3954ffc136544fd683b1629c9df8a978&amp;chksm=fbd78886cca0019084a7b35ed0fa21e5f753a22d172c4b63dbe756d2b5581242fdf8c7280fe8&amp;scene=27 - wechat_redirect" r:id="rId171"/>
-    <hyperlink ref="B173" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547435&amp;idx=1&amp;sn=d629f799eb85ac8e90c6962cd424d7ee&amp;chksm=fbd78847cca00151fdd192d1152aaae4cc7ec1b7a1a67487f4e5619070475020b8fc0fb83de1&amp;scene=27 - wechat_redirect" r:id="rId172"/>
-    <hyperlink ref="B174" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650433132&amp;idx=1&amp;sn=d3d9df3adbb8533eaa2f60f80dd8fc2f&amp;chksm=8396ae74b4e12762ac17b45a41e0e4b98d2cb3493eb6e44b0e338d3b594f685efa43bff5a4ce&amp;scene=27 - wechat_redirect" r:id="rId173"/>
-    <hyperlink ref="B175" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547345&amp;idx=1&amp;sn=343a931f247a2ebc0e53b40298b0bb17&amp;chksm=fbd78bbdcca002abce76f5c4bf6aca9d44e45bf9e16ee219ac33620521b9e2c81186c1933ad8&amp;scene=27 - wechat_redirect" r:id="rId174"/>
-    <hyperlink ref="B176" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547245&amp;idx=1&amp;sn=e5d4731f4b0b665057786318c6fac68c&amp;chksm=fbd78b01cca00217b66667d41cdbee41ebce14a58d8c9f99ce48838ffd4713560e78919e6ede&amp;scene=27 - wechat_redirect" r:id="rId175"/>
-    <hyperlink ref="B177" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650433059&amp;idx=1&amp;sn=7282fc6987a94b5d32d88ffc513dcc15&amp;chksm=8396ae3bb4e1272d3cc9a73ce8b2cd7aa6914c80958e57b13bcdba379fdbe755ac7d304547f3&amp;scene=27 - wechat_redirect" r:id="rId176"/>
-    <hyperlink ref="B178" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547145&amp;idx=1&amp;sn=de1b92402bf93a5777ab0e7faac3dd57&amp;chksm=fbd78b65cca0027348e33d8be4c044b190a25129cbd12cad5dedef08f90c87e42796a1fd14f5&amp;scene=27 - wechat_redirect" r:id="rId177"/>
-    <hyperlink ref="B179" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547084&amp;idx=1&amp;sn=7bcfbba74623c84bcc850bd042c279b6&amp;chksm=fbd78aa0cca003b6726344ce152f7ddcb1fae15932c262c042b43783260b1b7b69ce15524cdc&amp;scene=27 - wechat_redirect" r:id="rId178"/>
-    <hyperlink ref="B180" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247546914&amp;idx=1&amp;sn=b553a4d0cb60b9220b967970f9b54b13&amp;chksm=fbd78a4ecca00358b84bd7d41eda415ea50169fe7b23bb27009bc526ccabe7dd9cdbf1707411&amp;scene=27 - wechat_redirect" r:id="rId179"/>
-    <hyperlink ref="B181" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247495242&amp;idx=1&amp;sn=c739912e3f2116eb000255ae368b3c07&amp;chksm=a6919da791e614b17afc52b99157ac735a66990946b42ca9ae437f96c112f8cd08d4cbfca128&amp;scene=27 - wechat_redirect" r:id="rId180"/>
-    <hyperlink ref="B182" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650432692&amp;idx=1&amp;sn=db725557ba260b82ca2601d578687916&amp;chksm=8396acacb4e125baa2f9fb61e7b30015e9bfaf7cc327734ce6193e0e6378dcc9637486eb6935&amp;scene=27 - wechat_redirect" r:id="rId181"/>
-    <hyperlink ref="B183" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247546474&amp;idx=2&amp;sn=ada65eaa15c7beef9c2f70f586d8dfbf&amp;chksm=fbd78406cca00d10b2532ffe6c937ef216cfa96c90efaf91901233d8dbd1be11aa396a5bfafd&amp;scene=27 - wechat_redirect" r:id="rId182"/>
-    <hyperlink ref="B184" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247546358&amp;idx=2&amp;sn=b8b5605be6321a2e3291733aafc45053&amp;chksm=fbd7879acca00e8c8f1891dbc01322991153e72a45a7b468a2c5a160acb1300ecc44843be1cf&amp;scene=27 - wechat_redirect" r:id="rId183"/>
-    <hyperlink ref="B185" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247545833&amp;idx=1&amp;sn=9feb4b0a4b6ab469a434df7696efaadd&amp;chksm=fbd78185cca00893a23e1a61d49c0d5e86e291450a1d8444c171fbd0a07d9365ae358d021175&amp;scene=27 - wechat_redirect" r:id="rId184"/>
-    <hyperlink ref="B186" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247545777&amp;idx=2&amp;sn=bf9ee1e9d70148449f0643532fca9db6&amp;chksm=fbd781ddcca008cbbec49ba2d0a31fd36f7390828ac5e9ebce831a2a787d29f18cdd38c93732&amp;scene=27 - wechat_redirect" r:id="rId185"/>
-    <hyperlink ref="B187" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247545585&amp;idx=1&amp;sn=d45b4e3909c2f1677d9900d8f07718a1&amp;chksm=fbd7809dcca0098b70f8213ac4c86badf8921cc680a462d98fd52ee3a84f5d2ffb23187a49ec&amp;scene=27 - wechat_redirect" r:id="rId186"/>
-    <hyperlink ref="B188" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247545317&amp;idx=2&amp;sn=acbd7df8a7554d92cb086febf4f3c0bd&amp;chksm=fbd78389cca00a9f3fd3d3bbca7b61447c82566a5185db052cbac8241adc1164bc81685e2701&amp;scene=27 - wechat_redirect" r:id="rId187"/>
-    <hyperlink ref="B189" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247544207&amp;idx=2&amp;sn=4adac4d8c43122374905f236634e2b0e&amp;chksm=fbd79fe3cca016f5f2896aa33cebd1442569f73aa8c807d4c0a0ac8753898e42fa736552bf1d&amp;scene=27 - wechat_redirect" r:id="rId188"/>
-    <hyperlink ref="B190" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543721&amp;idx=2&amp;sn=c4a4a98515f9f33be4b505977acb4499&amp;chksm=fbd799c5cca010d3f62d23492016a42221f2cad319507541e6ce52a6d4c41bd19608ab267979&amp;scene=27 - wechat_redirect" r:id="rId189"/>
-    <hyperlink ref="B191" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543682&amp;idx=1&amp;sn=49bb76a0dd3eb1263a1e5e204c95857e&amp;chksm=fbd799eecca010f8fd2ec7376d7b304f6bf88c7dee9cd7305c9c9bcf7fdc3e6bc3ad22184207&amp;scene=27 - wechat_redirect" r:id="rId190"/>
-    <hyperlink ref="B192" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543460&amp;idx=2&amp;sn=833b99ad67ff1914b94453aaa1e752c8&amp;chksm=fbd798c8cca011de8743b244e2a39159e26691a963d6a046280b6dbdd6bd7e6f38ae4df53e33&amp;scene=27 - wechat_redirect" r:id="rId191"/>
-    <hyperlink ref="B193" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543441&amp;idx=2&amp;sn=2d283f1e03d1731d8a06a8f7b2115872&amp;chksm=fbd798fdcca011eb3135738e25b4aef91b2a7305641c2ae505268a01e665014c1a77fe30583a&amp;scene=27 - wechat_redirect" r:id="rId192"/>
-    <hyperlink ref="B194" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543407&amp;idx=2&amp;sn=5ef8d7ada9e6060d0f88c303602b3db5&amp;chksm=fbd79803cca01115ac9ea59e34afb653d3d9f1f7fd2857f77d6252cd0cd62aa1f47d7434a93e&amp;scene=27 - wechat_redirect" r:id="rId193"/>
-    <hyperlink ref="B195" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650431219&amp;idx=1&amp;sn=0b66e25d6693363d34cafbb6abc72fa8&amp;chksm=839696ebb4e11ffd2dc45c654d5e6b254625719b6a4e01ce4186218c3f147dd3dd5398590680&amp;scene=27 - wechat_redirect" r:id="rId194"/>
-    <hyperlink ref="B196" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247542308&amp;idx=1&amp;sn=822ad9c80b39f9fd281573f2deb610ac&amp;chksm=fbd79448cca01d5e9697b7a943cb550483685ddfe10222abf4612aa29007481d35b11a461b85&amp;scene=27 - wechat_redirect" r:id="rId195"/>
-    <hyperlink ref="B197" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247542213&amp;idx=2&amp;sn=d0708ac37e8805c8ff385600bc3888e1&amp;chksm=fbd797a9cca01ebfccee12ef66cf7b9dc19753e960dbf1de254520c050e7131740b382f34ac8&amp;scene=27 - wechat_redirect" r:id="rId196"/>
-    <hyperlink ref="B198" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247542183&amp;idx=1&amp;sn=4f844163c99f7ee554554b4be1e31512&amp;chksm=fbd797cbcca01edde5bd80a9ab67ff22a250ab98d473694105a83b9ae242f8867fcbf11a4d38&amp;scene=27 - wechat_redirect" r:id="rId197"/>
-    <hyperlink ref="B199" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650430647&amp;idx=1&amp;sn=de550537683d9444813a16703d60780e&amp;chksm=839694afb4e11db952c355a6b1f6f9bad00e713de7a5f9bbe847a5dbc0cddd4cabc3c604ca47&amp;scene=27 - wechat_redirect" r:id="rId198"/>
-    <hyperlink ref="B200" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541942&amp;idx=1&amp;sn=60eeeb4a69f817d2cff29750f8b7fbdb&amp;chksm=fbd796dacca01fcc8ff53c481fb219368b24b48b4e44c068f588b9d1921742ef973663cf23c6&amp;scene=27 - wechat_redirect" r:id="rId199"/>
-    <hyperlink ref="B201" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650430600&amp;idx=1&amp;sn=313876949aa19b5d38e4f9363abf7b27&amp;chksm=83969490b4e11d86ca19aea8c1e9034577051dac13f5ce04a3e241b3732dbc75d65f35cc1be2&amp;scene=27 - wechat_redirect" r:id="rId200"/>
-    <hyperlink ref="B202" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247494303&amp;idx=1&amp;sn=b1d8d66bd590e66158b5ce745f2dc6ea&amp;chksm=a691997291e610645cd6962a33c83945ddbc42a1630ac48bbef53bad9f22239a6db81a20a7cd&amp;scene=27 - wechat_redirect" r:id="rId201"/>
-    <hyperlink ref="B203" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541722&amp;idx=2&amp;sn=828032935a3f384d75fbc54a1396cf12&amp;chksm=fbd791b6cca018a021c5e53221b684aba588f03176e3b9cc2b839b6820f8c8766b79a074e4fc&amp;scene=27 - wechat_redirect" r:id="rId202"/>
-    <hyperlink ref="B204" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541692&amp;idx=1&amp;sn=478e62d4865aa51a84f1d89ef0d862c0&amp;chksm=fbd791d0cca018c6e5445ee84e6bccfc698d72d68e23e8b989ce3ff428c722ce019254ad6281&amp;scene=27 - wechat_redirect" r:id="rId203"/>
-    <hyperlink ref="B205" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541265&amp;idx=1&amp;sn=5446849bfdf0f0ce571e5eac412dd04b&amp;chksm=fbd7907dcca0196bb199142242773bf89fb3393c6a9e594a8ecead15ef20b86d2456faa05280&amp;scene=27 - wechat_redirect" r:id="rId204"/>
-    <hyperlink ref="B206" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541235&amp;idx=2&amp;sn=eeb61de139b90caa87add3aacf39ed29&amp;chksm=fbd7939fcca01a89391bc124f54ccf8e58baca2b597b54b39ba3c9dbd3c5b9bdac6e5fb6809f&amp;scene=27 - wechat_redirect" r:id="rId205"/>
-    <hyperlink ref="B207" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541036&amp;idx=1&amp;sn=136c52347a6e6fde29d9f7604df4d0e8&amp;chksm=fbd79340cca01a5618af600e66f2dd392cdd0fe8615cacf3d20ec55e0167a7108dfd6c0859f1&amp;scene=27 - wechat_redirect" r:id="rId206"/>
-    <hyperlink ref="B208" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650428919&amp;idx=1&amp;sn=2a687d967536d65d31f026243b74479a&amp;chksm=83969defb4e114f9ecf975a4b55836e0be86748cd76cc1cf3e3e2db6344478925c4c454ace32&amp;scene=27 - wechat_redirect" r:id="rId207"/>
-    <hyperlink ref="B209" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650428918&amp;idx=1&amp;sn=3d1b828d0bc685a357a13a607cad365c&amp;chksm=83969deeb4e114f81484cb3c0216c0a6cdf55ae2d6dc824963fd7ee2cb2b09978a906aabda1c&amp;scene=27 - wechat_redirect" r:id="rId208"/>
-    <hyperlink ref="B210" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247540489&amp;idx=1&amp;sn=56258f5ebcff70e17e6d026aba8fd059&amp;chksm=fbd7ed65cca06473cd2ff831b68672ec1b19f43b993c6bcd8d7fd5c3bfbffe6898f2a6a79855&amp;scene=27 - wechat_redirect" r:id="rId209"/>
-    <hyperlink ref="B211" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247539967&amp;idx=2&amp;sn=6c386bbb663d5c15432c4b319e7cab15&amp;chksm=fbd7ee93cca06785618c0a96e69fb9ec45af73e9a1bcfa4cf03e33c2e14b81409702676b878e&amp;scene=27 - wechat_redirect" r:id="rId210"/>
-    <hyperlink ref="B212" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649757741&amp;idx=1&amp;sn=b77ae57ee2c7ab4c9621ec4cfbca1a85&amp;chksm=becc8b5689bb0240959c0bbd40a104f0646b235f09e89cf20a01099d9d4bdc8843bd499f3d8c&amp;scene=27 - wechat_redirect" r:id="rId211"/>
-    <hyperlink ref="B213" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649757740&amp;idx=1&amp;sn=51e5809fcf1b2f148dfd284d4628c57a&amp;chksm=becc8b5789bb0241136a70f726c94007f8b61d62bc87a6d4f09ca8d8d80eff5382c735fae685&amp;scene=27 - wechat_redirect" r:id="rId212"/>
-    <hyperlink ref="B214" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247538234&amp;idx=1&amp;sn=8626d27fd350c9f3008fdb5944cfb608&amp;chksm=fbd7e456cca06d40a769a4241877a3beb494e94a6a548687ca3b449510a7320f26d30db979ab&amp;scene=27 - wechat_redirect" r:id="rId213"/>
-    <hyperlink ref="B215" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247537974&amp;idx=1&amp;sn=116f1bcaa683ea35587b0483d9599d4d&amp;chksm=fbd7e75acca06e4c560519cac81cb324be3737b524beca1a249ac114dbfa99109e1fb71361f7&amp;scene=27 - wechat_redirect" r:id="rId214"/>
-    <hyperlink ref="B216" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247536974&amp;idx=1&amp;sn=77201e9ee0390fa0652424e67e6b2b2e&amp;chksm=fbd7e322cca06a34698caf1c601871fcfd3e39f19e947fc871fb57760fc6d8f9f00c0e5e9c8b&amp;scene=27 - wechat_redirect" r:id="rId215"/>
-    <hyperlink ref="B217" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650423941&amp;idx=1&amp;sn=de554547923b2a5bed291727600c6756&amp;chksm=83968a9db4e1038ba8f117a02555969fd1d5c8999c988219a64de43ab300ca838ead9520ab73&amp;scene=27 - wechat_redirect" r:id="rId216"/>
-    <hyperlink ref="B218" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247536094&amp;idx=1&amp;sn=b5fa05a617b40d0af80f5d2c13933e26&amp;chksm=fbd7ffb2cca076a4139ee592d1bc6884cc3e778f588c89048ebbe0ac1b07f3e659013e230842&amp;scene=27 - wechat_redirect" r:id="rId217"/>
-    <hyperlink ref="B219" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247534298&amp;idx=1&amp;sn=21ad88daaedaf33566862e27efc29f5e&amp;chksm=fbd7f4b6cca07da043296b689ededb9923057f68e551c2af0f73a805bf4b38f6c9279b019d84&amp;scene=27 - wechat_redirect" r:id="rId218"/>
-    <hyperlink ref="B220" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247533960&amp;idx=2&amp;sn=6c73cfb81818554c26add442a3fc92af&amp;chksm=fbd7f7e4cca07ef24457e2a9894e99204c895785202d72257d531b773760b8d1e21df9f08858&amp;scene=27 - wechat_redirect" r:id="rId219"/>
-    <hyperlink ref="B221" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247533885&amp;idx=1&amp;sn=4bacb967f194d00e69798f9a3b0eeed2&amp;chksm=fbd7f751cca07e47e466094605201bfcc5feff89e273a1aa59b64d5aeb6ffb0b2aaee9a99678&amp;scene=27 - wechat_redirect" r:id="rId220"/>
-    <hyperlink ref="B222" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247533568&amp;idx=1&amp;sn=2b8c694ff43bb451ff1e70b49a7bd97b&amp;chksm=fbd7f66ccca07f7a29d0eb0389cd4231707d6588219af0fff94b22e43d8106161172aff9f16c&amp;scene=27 - wechat_redirect" r:id="rId221"/>
-    <hyperlink ref="B223" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247533308&amp;idx=1&amp;sn=f25852e94c1f0c3535312961342b2933&amp;chksm=fbd7f090cca07986161d65abbf1f8bdc7858775a75de302f591c31ed992e9816682d44e6b311&amp;scene=27 - wechat_redirect" r:id="rId222"/>
-    <hyperlink ref="B224" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247530926&amp;idx=1&amp;sn=43527db30cd5d0584a8f112426d8720f&amp;chksm=fbd7cbc2cca042d4c0620396c3acc6752c8b6a9f5c7980a9f7ac44a72c040e0d0763ced31606&amp;scene=27 - wechat_redirect" r:id="rId223"/>
-    <hyperlink ref="B225" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247529736&amp;idx=1&amp;sn=d24b824c6ff0841a851f123800b87ea4&amp;chksm=fbd7c764cca04e722b39cc29e05eb4e5009ea9f66a5b0e502653c8086a56defb1dec257893aa&amp;scene=27 - wechat_redirect" r:id="rId224"/>
-    <hyperlink ref="B226" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247529654&amp;idx=1&amp;sn=77b68c348d19685b57523056b8762c8c&amp;chksm=fbd7c6dacca04fcc3edf402e37fef4bc7eacfad21a99c37e28131501fbbe3a74033ded30732b&amp;scene=27 - wechat_redirect" r:id="rId225"/>
-    <hyperlink ref="B227" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247529612&amp;idx=1&amp;sn=57e147d705ba3faebb8acb91e18c5bc6&amp;chksm=fbd7c6e0cca04ff616575d710a545f98e79db90394e76b9d5f5f3589124efa8a88d6f99aaed1&amp;scene=27 - wechat_redirect" r:id="rId226"/>
-    <hyperlink ref="B228" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247529074&amp;idx=1&amp;sn=877e42d49b4474eb488a32ec3b5e9108&amp;chksm=fbd7c01ecca04908f40d3907a719b850cbf1cfb87afb83e4cc62e8255b7714bd65504d639e54&amp;scene=27 - wechat_redirect" r:id="rId227"/>
-    <hyperlink ref="B229" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247528876&amp;idx=2&amp;sn=717b0426ccbcc168d0fa9fbad3fc2c8a&amp;chksm=fbd7c3c0cca04ad662db295c96894f85b89a36d074565a326a53ad9d8870944bce48da2be748&amp;scene=27 - wechat_redirect" r:id="rId228"/>
-    <hyperlink ref="B230" display="https://zhuanlan.zhihu.com/p/344165004" r:id="rId229"/>
-    <hyperlink ref="B231" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650418474&amp;idx=1&amp;sn=6b1e3ff914e68607c006a07a5b880296&amp;chksm=8396e532b4e16c24734511e21872e995f5191943628eca791eb819a3899cfd6904996d09f461&amp;scene=27 - wechat_redirect" r:id="rId230"/>
-    <hyperlink ref="B232" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247523713&amp;idx=1&amp;sn=06a41fb141e2fcdd0b723874f5090481&amp;chksm=fbd72fedcca0a6fbb4f4b89720e379bde71a9f25579e2886b7629ad3e7f4f7eb7b550ca9e9f5&amp;scene=27 - wechat_redirect" r:id="rId231"/>
-    <hyperlink ref="B233" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247522939&amp;idx=1&amp;sn=8dfedad371667ef3ebd5621cbb882a25&amp;chksm=fbd72817cca0a1015e484b805bd5ef5c9442b47e1f45a9643cfc56bbc7a5787bad19ae4d1351&amp;scene=27 - wechat_redirect" r:id="rId232"/>
-    <hyperlink ref="B234" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247522902&amp;idx=1&amp;sn=55111acdfdc00dc59fc0fb10dfe9e0dc&amp;chksm=fbd7283acca0a12c23a5b77a2413c25956a63c348c48f9fe01787d3d155d5fbcd183a0f09e90&amp;scene=27 - wechat_redirect" r:id="rId233"/>
-    <hyperlink ref="B235" display="https://zhuanlan.zhihu.com/p/348595873" r:id="rId234"/>
-    <hyperlink ref="B236" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247522599&amp;idx=1&amp;sn=24ab674235a3bc1a3b9944894bb6715f&amp;chksm=fbd72b4bcca0a25d7287bf4ad0ec5becdb1ceb800966c9f7cf1ecacf807187f3a5a9d13f71a0&amp;scene=27 - wechat_redirect" r:id="rId235"/>
-    <hyperlink ref="B237" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247520759&amp;idx=1&amp;sn=4aaab934ad388ce03d3af0a3e812ce9e&amp;chksm=fbd7239bcca0aa8d37d22880608f7704c51104f79b5bee016a7b4692dc3340e983dae0c0fa31&amp;scene=27 - wechat_redirect" r:id="rId236"/>
-    <hyperlink ref="B238" display="https://zhuanlan.zhihu.com/p/338515054" r:id="rId237"/>
-    <hyperlink ref="B239" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247519854&amp;idx=2&amp;sn=b373b930f2409b56c3d27193f8b7fd1f&amp;chksm=fbd73c02cca0b514bf784919121c46963cdca4aa944336dfeb8c5b7f5b5211de0b746f4eee23&amp;scene=27 - wechat_redirect" r:id="rId238"/>
-    <hyperlink ref="B240" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247519343&amp;idx=1&amp;sn=4f23cfbc240fcaac5d05a6411362a3fa&amp;chksm=fbd73e03cca0b715ff529d524b1d36efc4a7c52c904fdc07f5858ce06943de1e4acd381b0ae5&amp;scene=27 - wechat_redirect" r:id="rId239"/>
-    <hyperlink ref="B241" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247518591&amp;idx=2&amp;sn=483cec95afbfc61aa0b6736ebae47b3c&amp;chksm=fbd73b13cca0b205887dfa2e03a092cb9bda9b2f22e823ea378ef96cf24a9a75775c47f9f170&amp;scene=27 - wechat_redirect" r:id="rId240"/>
-    <hyperlink ref="B242" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247518142&amp;idx=1&amp;sn=6c7484ca8f4d55fc96e2e8a87ab4cbb5&amp;chksm=fbd735d2cca0bcc4d56252639dd615aee574a520cc37ce7d6401cc7ef44f7e8f9b79739e78f9&amp;scene=27 - wechat_redirect" r:id="rId241"/>
-    <hyperlink ref="B243" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247517980&amp;idx=2&amp;sn=bc82b69449a005f76284a475c46a7ec2&amp;chksm=fbd73570cca0bc66302d7bdb893e4c391197004baf376a0fa3e52ad68052ba7bc66ee0e0a723&amp;scene=27 - wechat_redirect" r:id="rId242"/>
-    <hyperlink ref="B244" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247489906&amp;idx=2&amp;sn=ef3edb0c5ea102b92beaf3731f928af3&amp;chksm=a6926a9f91e5e389230aa102870b24102d73e7073c75c5bfd997f8d8b8d6b9b14808326ff011&amp;scene=27 - wechat_redirect" r:id="rId243"/>
-    <hyperlink ref="B245" display="https://zhuanlan.zhihu.com/p/337649676" r:id="rId244"/>
-    <hyperlink ref="B246" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247517708&amp;idx=1&amp;sn=d44835c9bc1099aeb6b6c40b8c32fad5&amp;chksm=fbd73460cca0bd769dfa2a3379649c14b78528cfb8e9df0fa3807bbcf6cef3f9324a52a83a97&amp;scene=27 - wechat_redirect" r:id="rId245"/>
-    <hyperlink ref="B247" display="https://zhuanlan.zhihu.com/p/270354109" r:id="rId246"/>
-    <hyperlink ref="B248" display="https://zhuanlan.zhihu.com/p/329877052" r:id="rId247"/>
-    <hyperlink ref="B249" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247517070&amp;idx=2&amp;sn=367376c143ca8f5e526b33d93518ea16&amp;chksm=fbd731e2cca0b8f4c97ea4f22464c6ee101e853f2a95b8159763c72e723d8902843a13970bf9&amp;scene=27 - wechat_redirect" r:id="rId248"/>
-    <hyperlink ref="B250" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247516794&amp;idx=1&amp;sn=a3f2243dfba429f3956514c2e00aca1b&amp;chksm=fbd73016cca0b900bce56933e86d12237c7ca5e7ada3532d104e18e5a03d60167683b23aaa38&amp;scene=27 - wechat_redirect" r:id="rId249"/>
-    <hyperlink ref="B251" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651755958&amp;idx=2&amp;sn=bb2a7e9e3817d9993a9137dfeb6b5ec4&amp;chksm=bd124cfb8a65c5ed3453a6473b556df1968e9f983da94bcab6610f718bfed2b37be5bd3ad7ae&amp;mpshare=1&amp;scene=1&amp;srcid=0117wmg82Cvm9SxD2roqqbzV&amp;sharer_sharetime=1673957290926&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId250"/>
-    <hyperlink ref="B252" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247516481&amp;idx=2&amp;sn=fe9b5f5d0caaa8c142abdb1803336c8f&amp;chksm=fbd7332dcca0ba3b3d27055d9325be56b0fc54106cd0d36ad3a3ac88ce1c3d0e49ff1ebb5c33&amp;scene=27 - wechat_redirect" r:id="rId251"/>
-    <hyperlink ref="B253" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649754988&amp;idx=1&amp;sn=e1d382f8337b5b29085f7e495e85cd0d&amp;chksm=becc9e1789bb1701c6dffa631ae135217240fb436bbc542b36af7a8b6a64b2c7c6f3bb988ce8&amp;scene=27 - wechat_redirect" r:id="rId252"/>
-    <hyperlink ref="B254" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247513875&amp;idx=1&amp;sn=75f718e9c7a27e37a753bd7d7e3c1fd1&amp;chksm=fbd7057fcca08c690d7b5aab77ff92a374e8f88b722815c421e0d69d1fecad73fec888969a7c&amp;scene=27 - wechat_redirect" r:id="rId253"/>
-    <hyperlink ref="B255" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247513629&amp;idx=2&amp;sn=afba7c17c3f59a9ad04598584aaf181a&amp;chksm=fbd70471cca08d67fd0a4feb6febf613746e1bce6b03e72f6a47c82886f9008e4d1a0dec2683&amp;scene=27 - wechat_redirect" r:id="rId254"/>
-    <hyperlink ref="B256" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247513593&amp;idx=2&amp;sn=376de870c28403fa35087e438a4e6279&amp;chksm=fbd70795cca08e838ee482038a321031db6f4725accb631d92587f111a856ea7217a7727b083&amp;scene=27 - wechat_redirect" r:id="rId255"/>
-    <hyperlink ref="B257" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247512282&amp;idx=2&amp;sn=7174703572f4609d8cc471de41f84762&amp;chksm=fbd702b6cca08ba085c7c2e84b47c4cea10be3400790a6ada49bf1e19e6dd2f996b89685a534&amp;scene=27 - wechat_redirect" r:id="rId256"/>
-    <hyperlink ref="B258" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247512229&amp;idx=1&amp;sn=fe8430b49e6d5fd73e0f9c5cd9d0aaf6&amp;chksm=fbd702c9cca08bdf665cb5628d380e25073dd18366372ff75243f0d9491760f6030a10aebc01&amp;scene=27 - wechat_redirect" r:id="rId257"/>
-    <hyperlink ref="B259" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247512107&amp;idx=2&amp;sn=ce7ce209d594b0574518e5b62a60998a&amp;chksm=fbd70247cca08b5190e1b06ed87f036fc71c17bdda40fb80cbe69420ac7fe22f4eda2c554398&amp;scene=27 - wechat_redirect" r:id="rId258"/>
-    <hyperlink ref="B260" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247512053&amp;idx=2&amp;sn=0ab4ade5ee6c83f1f53a0e03583dc822&amp;chksm=fbd71d99cca0948f7fb6e29943d559214fb55373287ee66cd7c786986f673b9d587ef1d6a3f2&amp;scene=27 - wechat_redirect" r:id="rId259"/>
-    <hyperlink ref="B261" display="https://zhuanlan.zhihu.com/p/271858727" r:id="rId260"/>
-    <hyperlink ref="B262" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247511450&amp;idx=2&amp;sn=57ce9b8d1493fa72f4255dc9b0b866f2&amp;chksm=fbd71ff6cca096e0f798537bcb9e75b88dd777013b7a9fc94b42fa5e7f7368347fb2c566643d&amp;scene=27 - wechat_redirect" r:id="rId261"/>
-    <hyperlink ref="B263" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247511245&amp;idx=2&amp;sn=06e8909f8955594394daef5c43f1b538&amp;chksm=fbd71ea1cca097b7373fa24f9d398b58747ef06c408bd798c1995a37a11132e66809306a2ba0&amp;scene=27 - wechat_redirect" r:id="rId262"/>
-    <hyperlink ref="B264" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247511217&amp;idx=2&amp;sn=021d8fba7ab6decca283d95e5da00600&amp;chksm=fbd71eddcca097cb5da1b73eee9cac0b07277be93fd08cadda170726459fa2a385d376c733bd&amp;scene=27 - wechat_redirect" r:id="rId263"/>
-    <hyperlink ref="B265" display="https://zhuanlan.zhihu.com/p/265522400" r:id="rId264"/>
-    <hyperlink ref="B266" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509951&amp;idx=1&amp;sn=04462583ebe942a12dc8260f7d909ae2&amp;chksm=fbd715d3cca09cc52f5a2aff66e08ad655eb4dd6b7e035d9134a4afceca2c76d19feacf501ce&amp;scene=27 - wechat_redirect" r:id="rId265"/>
-    <hyperlink ref="B267" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509607&amp;idx=1&amp;sn=341212c60824f8c636ee7e8b64a63d62&amp;chksm=fbd7140bcca09d1d52dfb1c10c180feffe3641d2611b46497f08f9722a66cbd6b08436013be4&amp;scene=27 - wechat_redirect" r:id="rId266"/>
-    <hyperlink ref="B268" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509524&amp;idx=1&amp;sn=a65fb689f9b013fe06c44f1e4b2e1b84&amp;chksm=fbd71478cca09d6eadfa3c06c921a47681339c0fa42bd960d66057f07e436e31ed08e92dfeda&amp;scene=27 - wechat_redirect" r:id="rId267"/>
-    <hyperlink ref="B269" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509261&amp;idx=1&amp;sn=17a4b327f46ea40bdf4f7481f8739311&amp;chksm=fbd71761cca09e778f3e05860d2e1333c0ba9e32c6854f1040991478f5965262ef1a0f849b4c&amp;scene=27 - wechat_redirect" r:id="rId268"/>
-    <hyperlink ref="B270" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509245&amp;idx=2&amp;sn=e32f855fa4bcabdd98aef05acc540c17&amp;chksm=fbd71691cca09f878448bf905db8e11119d4ad2482ab48132145ef3ba51fd868448499d73047&amp;scene=27 - wechat_redirect" r:id="rId269"/>
-    <hyperlink ref="B271" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509060&amp;idx=1&amp;sn=be61e643a3de80d8b0bd028cdb5b6827&amp;chksm=fbd71628cca09f3e637db58ce5fc43254fa18ad16779cd6eaf6f1c2d70bbf9e787b420d4116e&amp;scene=27 - wechat_redirect" r:id="rId270"/>
-    <hyperlink ref="B272" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509016&amp;idx=1&amp;sn=aa4c859d268ca02ff869d0930f154463&amp;chksm=fbd71674cca09f62c62bcc8fa9704df9d041c2c5271bdf4eb4bb9cf7e12bb407469e07868017&amp;scene=27 - wechat_redirect" r:id="rId271"/>
-    <hyperlink ref="B273" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247508936&amp;idx=2&amp;sn=78be7e9852a78ddf0da07198b6c7978b&amp;chksm=fbd711a4cca098b245bcdba6932d42927a95ebf01fb949f3e4dbf8d74efc63e6c619357fc702&amp;scene=27 - wechat_redirect" r:id="rId272"/>
-    <hyperlink ref="B274" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650411171&amp;idx=1&amp;sn=b05ff627563bb01d6d29e9482e7e5cc3&amp;chksm=8396d8bbb4e151ad9353e25ab55df7dcb42181c74841db869b9b742994f97109cf423b998685&amp;scene=27 - wechat_redirect" r:id="rId273"/>
-    <hyperlink ref="B275" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247508674&amp;idx=1&amp;sn=098ce77e2947f6e7bb28e56f320d7633&amp;chksm=fbd710aecca099b8e4facf74dc0de9c6023d022c701d012e181c6286295c7578601b5cf78979&amp;scene=27 - wechat_redirect" r:id="rId274"/>
-    <hyperlink ref="B276" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247508638&amp;idx=1&amp;sn=97aa5c7ee4a7981942f40eed91853645&amp;chksm=fbd710f2cca099e45307f0622d243ba543164c14131bbc8cb5a410b4a8ea974f9e1562b34cde&amp;scene=27 - wechat_redirect" r:id="rId275"/>
-    <hyperlink ref="B277" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650411013&amp;idx=1&amp;sn=de621be8767a9e4e9c8de312ecfd5702&amp;chksm=8396d81db4e1510b4a88441595810d48d6ab6c4a4d295fd7b543152603820e93deeba9b52c22&amp;scene=27 - wechat_redirect" r:id="rId276"/>
-    <hyperlink ref="B278" display="https://zhuanlan.zhihu.com/p/259668668" r:id="rId277"/>
-    <hyperlink ref="B279" display="https://zhuanlan.zhihu.com/p/256252184" r:id="rId278"/>
-    <hyperlink ref="B280" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650410892&amp;idx=1&amp;sn=69a89072e83f6ff2b9333622ad390fdd&amp;chksm=8396c794b4e14e829b625fa26568dd112f94edbdc97ec4984a2daf5ee5187e2283c397e36d48&amp;scene=27 - wechat_redirect" r:id="rId279"/>
-    <hyperlink ref="B281" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247508089&amp;idx=1&amp;sn=456558fbe9754cb3b55c6af563504ed1&amp;chksm=fbd71215cca09b03d3ea2fcc44fe511a44823ced8947375a3af9f925c41fbaafd9a38bddaba2&amp;scene=27 - wechat_redirect" r:id="rId280"/>
-    <hyperlink ref="B282" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247507741&amp;idx=2&amp;sn=7d147d3db65d445cd6e17fd943643ebf&amp;chksm=fbd76d71cca0e467a1d6add9d396f1722534d13c9a6c7bacb644c92105f5830bb04a240360ee&amp;scene=27 - wechat_redirect" r:id="rId281"/>
-    <hyperlink ref="B283" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247507652&amp;idx=1&amp;sn=9d3333523ef629aa4286c0bdc669ca22&amp;chksm=fbd76ca8cca0e5be2c9bd7e5e59c5919a7a601eeb5d25ec913877f2827262fe96e0c9d56e6ce&amp;scene=27 - wechat_redirect" r:id="rId282"/>
-    <hyperlink ref="B284" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247507509&amp;idx=1&amp;sn=5f0db1f772d6d8c39016c54318bbc1b1&amp;chksm=fbd76c59cca0e54f82bc64bd1480e1bf36eb1d3323eaf0ce48c9362cdf2665aaafde8c1943a2&amp;scene=27 - wechat_redirect" r:id="rId283"/>
-    <hyperlink ref="B285" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487550&amp;idx=1&amp;sn=68af975e460637783d0a860bfb2d694d&amp;chksm=c29323aaf5e4aabc45b4f705d6c69583960fdae2638f2b3a5252f507ecfa088c92e1f72c6ad8&amp;mpshare=1&amp;scene=1&amp;srcid=0117tJyokgtmE6m24zBKj7kA&amp;sharer_sharetime=1673957367314&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId284"/>
-    <hyperlink ref="B286" display="https://zhuanlan.zhihu.com/p/239824669" r:id="rId285"/>
-    <hyperlink ref="B287" display="https://zhuanlan.zhihu.com/p/238095817" r:id="rId286"/>
-    <hyperlink ref="B288" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649749269&amp;idx=2&amp;sn=deabfe04574815220abad87d9dc9d415&amp;chksm=bed3646e89a4ed782643c014b20e5fb4b2fa114ba8280e168c9f9fbeeef85f6cf758c56fef4e&amp;scene=27 - wechat_redirect" r:id="rId287"/>
-    <hyperlink ref="B289" display="https://zhuanlan.zhihu.com/p/212647751" r:id="rId288"/>
-    <hyperlink ref="B290" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247507022&amp;idx=1&amp;sn=aa4a99562a274b5fd07e5f987a5dc807&amp;chksm=fbd76e22cca0e734f4bc319ec3b908b9b3f200bda80e20b8f65836aac4445bc6a14675aa174e&amp;scene=27 - wechat_redirect" r:id="rId289"/>
-    <hyperlink ref="B291" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506940&amp;idx=2&amp;sn=df6d88efa9f45dc7e2e4592018979692&amp;chksm=fbd76990cca0e08637035afb74fb94cfaec3250c81c8744f41ac6be316d2bee96db16c9fc56c&amp;scene=27 - wechat_redirect" r:id="rId290"/>
-    <hyperlink ref="B292" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506872&amp;idx=1&amp;sn=26b673e5594ec07b3e56b94983d04741&amp;chksm=fbd769d4cca0e0c24f0f96ce2f1eb995065dfbdb17f99cb8bcaa15cbb878673040854a0c0b1b&amp;scene=27 - wechat_redirect" r:id="rId291"/>
-    <hyperlink ref="B293" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649749174&amp;idx=1&amp;sn=ba2bc3de97799879b186feb66e60ec1c&amp;chksm=bed365cd89a4ecdbefb2cf3b631090947788c02fa42323cd19a943aeaa6363ce4bca85e93a4d&amp;scene=27 - wechat_redirect" r:id="rId292"/>
-    <hyperlink ref="B294" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506444&amp;idx=1&amp;sn=48bc7d6d70b336237137a3191894d711&amp;chksm=fbd76860cca0e176d6ba80ef7b7815634578b8468d7e9177158f2426b6d1a27f7b701fbfa940&amp;scene=27 - wechat_redirect" r:id="rId293"/>
-    <hyperlink ref="B295" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649749100&amp;idx=2&amp;sn=7b35927876b101deee529bdb2649b8fb&amp;chksm=bed3651789a4ec017c9a7f563ab7e5aab406a5a75aa87a2b89851755605d9c0784ce1099d8cb&amp;scene=27 - wechat_redirect" r:id="rId294"/>
-    <hyperlink ref="B296" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506358&amp;idx=2&amp;sn=0736cc1bc0d11f4f1ce99979697c29d6&amp;chksm=fbd76bdacca0e2cc405e0f7b689a17f3d752b9fbd5087b0f06b14e24fb2008b6dd43bdd8153f&amp;scene=27 - wechat_redirect" r:id="rId295"/>
-    <hyperlink ref="B297" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506153&amp;idx=1&amp;sn=6ce4840ec9642deb8e1c97efdc727390&amp;chksm=fbd76a85cca0e393c44815b55af12ceca91546d32b5aa6b6340cfb3bb4dbed94d88c5f741cb0&amp;scene=27 - wechat_redirect" r:id="rId296"/>
-    <hyperlink ref="B298" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247505895&amp;idx=1&amp;sn=d449cd607a21e01805db245be8289de6&amp;chksm=fbd7658bcca0ec9d27eb71a01e8b08711802f59cb0c04aa6059eb0d60b895212de8b8e0b5a38&amp;scene=27 - wechat_redirect" r:id="rId297"/>
-    <hyperlink ref="B299" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247505774&amp;idx=1&amp;sn=63efc686d3dda67fa4631e5550560476&amp;chksm=fbd76502cca0ec141440482e048196119101abd0a56dd5dba7c9a18f46ba8f0358e3a458408b&amp;scene=27 - wechat_redirect" r:id="rId298"/>
-    <hyperlink ref="B300" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247505578&amp;idx=1&amp;sn=bc6f551bc83039cebe016ba87cdf8a46&amp;chksm=fbd764c6cca0edd0befcbb887b5b15f10296de6cd6d92ed3382221fcb367c92079b99c895914&amp;scene=27 - wechat_redirect" r:id="rId299"/>
-    <hyperlink ref="B301" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247504918&amp;idx=1&amp;sn=d4cb633276121dc4f09329cf9d231539&amp;chksm=fbd7667acca0ef6cc9d0f21d309b5b28b15f0452f43d33055a1b9562a9519ad36c032ab961f0&amp;scene=27 - wechat_redirect" r:id="rId300"/>
-    <hyperlink ref="B302" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247504377&amp;idx=1&amp;sn=7ca002dd3bfd00a14c93a519b3765a04&amp;chksm=fbd76395cca0ea83b55807543fde6e8fd7879af67d5a4079365493669752cdff06fac5d632c5&amp;scene=27 - wechat_redirect" r:id="rId301"/>
-    <hyperlink ref="B303" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247504009&amp;idx=2&amp;sn=c3d07faaf34416790456eac5be094049&amp;chksm=fbd762e5cca0ebf33eb7f3de1f9c1539ef5bf9fd7c8196bb85a9012ac7472f9c197b80ef8d56&amp;scene=27 - wechat_redirect" r:id="rId302"/>
-    <hyperlink ref="B304" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247503968&amp;idx=1&amp;sn=d8fac671af39a87c9a74fb1aff327e41&amp;chksm=fbd7620ccca0eb1aab16ab0e7d06e9c8975749808ca8d1191b442458280ea227b8ce4d90d865&amp;scene=27 - wechat_redirect" r:id="rId303"/>
-    <hyperlink ref="B305" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247503484&amp;idx=2&amp;sn=e2a2cdd3a517ab09e903e69ccb1e9f94&amp;chksm=fbd77c10cca0f50642dde47439ed919aa2e61b7ff57bc4cbaacc3acaac3c620a1ed6f92684ab&amp;scene=27 - wechat_redirect" r:id="rId304"/>
-    <hyperlink ref="B306" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649747457&amp;idx=1&amp;sn=abfbd9e1c0889dda8c8511b44bbd6416&amp;chksm=bed3637a89a4ea6c9be8915449ad6922da619d8ff0366272787bc93f149d7f36ae9e3ac2cc68&amp;scene=27 - wechat_redirect" r:id="rId305"/>
-    <hyperlink ref="B307" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247502918&amp;idx=1&amp;sn=b461d08b22a9fd8ca2e711bb501b7d7a&amp;chksm=fbd77e2acca0f73ccb2e2dad23ce817a968a9d83fcb0f5c8edda7d6566e77c2ff8bdcd1145a7&amp;scene=27 - wechat_redirect" r:id="rId306"/>
-    <hyperlink ref="B308" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651752296&amp;idx=1&amp;sn=6c20fd97bfd9cc7e5557e40e867f123b&amp;chksm=bd125e258a65d7335e7b649796248908d5a19c7d64f6f8935ab162c11539397feac3d830c3aa&amp;mpshare=1&amp;scene=1&amp;srcid=0117uG6dCdQzn6ZP43n4Sclw&amp;sharer_sharetime=1673957001505&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId307"/>
-    <hyperlink ref="B309" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247502849&amp;idx=1&amp;sn=a9d6b7f727f99e877cb2a4a601773725&amp;chksm=fbd77e6dcca0f77bb63e12273c5befbe00c24fed18525ee0d040acdb95a84f3a8def26707277&amp;scene=27 - wechat_redirect" r:id="rId308"/>
-    <hyperlink ref="B310" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247502251&amp;idx=1&amp;sn=19eb9bd0a7ad487e12af897c38115783&amp;chksm=fbd77bc7cca0f2d178792a9ab4e1468f9f2179a81dbdfb3f6c96b30bea5e25d6bd01b10faf9a&amp;scene=27 - wechat_redirect" r:id="rId309"/>
-    <hyperlink ref="B311" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649747190&amp;idx=1&amp;sn=e850fae5360b7f1f4ee472dec70d5039&amp;chksm=bed37d8d89a4f49b15da1394dbeb2f2934a1a2bb27aaa4e765fa6730a5658d5df2d076936122&amp;scene=27 - wechat_redirect" r:id="rId310"/>
-    <hyperlink ref="B312" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649747167&amp;idx=1&amp;sn=8020e285502d9f47c77dd0c257364580&amp;chksm=bed37da489a4f4b2c7d7e4082f8c05d42ac3ebdf2a49027c60ab603e9d65871aecbb6bb786e2&amp;scene=27 - wechat_redirect" r:id="rId311"/>
-    <hyperlink ref="B313" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzU5Mjc0MTM4NA==&amp;mid=2247486983&amp;idx=2&amp;sn=f4b78f5507d299e34d8c0bc3fb73332d&amp;chksm=fe1a5b60c96dd2763899db6db7a24a274593b4916732b8ddda97a40d2e37b4a476ab42baa18e&amp;mpshare=1&amp;scene=1&amp;srcid=0117uqLWjE0PrSJaXfwrGQHE&amp;sharer_sharetime=1673957934144&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId312"/>
-    <hyperlink ref="B314" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247501908&amp;idx=1&amp;sn=2478b53f5a28eb4002bbfc9bef62001e&amp;chksm=fbd77a38cca0f32ed9b04e6a2b38c3ce08c47f126863b1dafedefa5aa4d662d25d5537c384e2&amp;scene=27 - wechat_redirect" r:id="rId313"/>
-    <hyperlink ref="B315" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247501693&amp;idx=1&amp;sn=da35a37ce1bfc8b43a26572acb5792d3&amp;chksm=fbd77511cca0fc07beabb02dc15cd0f2f7f5ee9f0840ba512a4b3a373f4a676cb7156692bf5f&amp;scene=27 - wechat_redirect" r:id="rId314"/>
-    <hyperlink ref="B316" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649747086&amp;idx=1&amp;sn=5d08665635003d57eba7bf9c2717fa66&amp;chksm=bed37df589a4f4e35cac85f37c13cc30675c3285fba639bd657fd2dd7edbf35169de9777bcc1&amp;scene=27 - wechat_redirect" r:id="rId315"/>
-    <hyperlink ref="B317" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247501599&amp;idx=1&amp;sn=10c0eaa021ef4d7b39a82819bf4b0f66&amp;chksm=fbd77573cca0fc658535625c70a550c297d10d8efcf6ca5640851d76e4cb0b051a9f5f6da62e&amp;scene=27 - wechat_redirect" r:id="rId316"/>
-    <hyperlink ref="B318" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzU5Mjc0MTM4NA==&amp;mid=2247486719&amp;idx=1&amp;sn=48936c1a140f25a374ea5eb12807e636&amp;chksm=fe1a5998c96dd08e39875af88eded481ade7e8f555a01b4dd9df06ea7156cc2e29381bc3e2b5&amp;mpshare=1&amp;scene=1&amp;srcid=0117uXZesx2FgCB5y1sCUTNd&amp;sharer_sharetime=1673957837931&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId317"/>
-    <hyperlink ref="B319" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247501196&amp;idx=1&amp;sn=978b373e1278c709fc53036614a240ab&amp;chksm=fbd777e0cca0fef630da6ed55518775e22afba1e74cd2e09701e055533146f29c71876ba77c4&amp;scene=27 - wechat_redirect" r:id="rId318"/>
-    <hyperlink ref="B320" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzU5Mjc0MTM4NA==&amp;mid=2247486551&amp;idx=1&amp;sn=940a80be200e7fe0c1682405974039fc&amp;chksm=fe1a5930c96dd026c1fa979b3989b13e21cecf8d451fd1448b0c534ff8f320ac41d48d0eba3a&amp;mpshare=1&amp;scene=1&amp;srcid=01176HIzgCam1OfiESJDEnZd&amp;sharer_sharetime=1673957847876&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId319"/>
-    <hyperlink ref="B321" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247500273&amp;idx=1&amp;sn=c8cf8e7a0515e1aeb0022417a6aeda9f&amp;chksm=fbd7739dcca0fa8b8e4fdef2e1d669118de87c1ce1f2f1444bfe314610423fa2a3cf0c8c214c&amp;scene=27 - wechat_redirect" r:id="rId320"/>
-    <hyperlink ref="B322" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247500267&amp;idx=2&amp;sn=0a38ea1f7d4a96a632b129ffbabc2d2c&amp;chksm=fbd77387cca0fa91abbd69ad1885c44d05ab578886102d36e9ea11d9c7c529ebc47dbfa36d61&amp;scene=27 - wechat_redirect" r:id="rId321"/>
-    <hyperlink ref="B323" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499792&amp;idx=1&amp;sn=59b8acac6ea9abe508825146983a4910&amp;chksm=fbd7727ccca0fb6a56c5d677b7b6737bef02c7715b67d368ee551677a4110e241a14e66cf012&amp;scene=27 - wechat_redirect" r:id="rId322"/>
-    <hyperlink ref="B324" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499645&amp;idx=1&amp;sn=a4d1e29381ab912861c3827399e22312&amp;chksm=fbd74d11cca0c407e9149d5d80fba8b6b60e91b66a0688611dcbf6be2b89c2d136da181e0243&amp;scene=27 - wechat_redirect" r:id="rId323"/>
-    <hyperlink ref="B325" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499525&amp;idx=1&amp;sn=638746fcd82ed8ebadb947c5848d8363&amp;chksm=fbd74d69cca0c47fe102231f40b946c7bb0ae968c44061592bf161eb722f6fa71ee6a40b8fdb&amp;scene=27 - wechat_redirect" r:id="rId324"/>
-    <hyperlink ref="B326" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499470&amp;idx=1&amp;sn=6a6e80673353fb485a854ed2cffc5dcb&amp;chksm=fbd74ca2cca0c5b4fb0622140eb9fa3cd15c860d06b24a4c7fc37e8b3db614af8c4ad9cbe0d3&amp;scene=27 - wechat_redirect" r:id="rId325"/>
-    <hyperlink ref="B327" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499412&amp;idx=1&amp;sn=4bde0cbcf1d35fac55bda4733b0be356&amp;chksm=fbd74cf8cca0c5ee48fd9e6448dddb2d885df8dffc11b4f9bce8952b4773a98ee7987b68ba7b&amp;scene=27 - wechat_redirect" r:id="rId326"/>
-    <hyperlink ref="B328" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499255&amp;idx=1&amp;sn=a7a6427c6c2bd74c728ef2d53c736814&amp;chksm=fbd74f9bcca0c68d203296277c23e42f5a218d522bac4e23bfcfcde591be98e334e9f5cb67c8&amp;scene=27 - wechat_redirect" r:id="rId327"/>
-    <hyperlink ref="B329" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499175&amp;idx=1&amp;sn=1c398e92f0712e4e5f545759d0a85692&amp;chksm=fbd74fcbcca0c6dd11a04b493827ffdda06c69f6013b95c74c54c14f596cab0f303751f9e14d&amp;scene=27 - wechat_redirect" r:id="rId328"/>
-    <hyperlink ref="B330" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499139&amp;idx=1&amp;sn=c187e0108e9bd55b69e48d0c8de1887d&amp;chksm=fbd74fefcca0c6f9290da7221b0d4b02a1d6a84913cf4950052b2050cd73e52b906d489f824e&amp;scene=27 - wechat_redirect" r:id="rId329"/>
-    <hyperlink ref="B331" display="https://mp.weixin.qq.com/s/Oixc46P9rQeiMDjI-0j0cw" r:id="rId330"/>
-    <hyperlink ref="B332" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499010&amp;idx=1&amp;sn=138e92d3c22202b7b86c40d8f1bddd07&amp;chksm=fbd74f6ecca0c678b3925526a0c1e4460521263444996eabe0e3224c2e38a243331520ad6f28&amp;scene=27 - wechat_redirect" r:id="rId331"/>
-    <hyperlink ref="B333" display="https://mp.weixin.qq.com/s?__biz=MzI1MzY0MzE4Mg==&amp;mid=2247486489&amp;idx=2&amp;sn=e03b23d476d9864cd417f81c02f6e62e&amp;chksm=e9d01cd8dea795ceb3d95d80ddab98f689d18ded9c0adc2f8175c665666a1d252c8db1d40f3c&amp;scene=27" r:id="rId332"/>
-    <hyperlink ref="B334" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498872&amp;idx=1&amp;sn=c7eb8e9147cb106b4122174981dce0b9&amp;chksm=fbd74e14cca0c7027a2db1641d0e4e7bc16846035359684b702d462abdda8926ee7626bf4505&amp;scene=27 - wechat_redirect" r:id="rId333"/>
-    <hyperlink ref="B335" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498811&amp;idx=1&amp;sn=b138758fe26502935492f0411b5cf66e&amp;chksm=fbd74e57cca0c741e1a51c21aa66c6117df5afe400d1656ea58a153e9f0b5a5bcba0233a42df&amp;scene=27 - wechat_redirect" r:id="rId334"/>
-    <hyperlink ref="B336" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzU5Mjc0MTM4NA==&amp;mid=2247485289&amp;idx=1&amp;sn=6b7edf8bc492bedeb51bb4677bb7d890&amp;chksm=fe1a520ec96ddb18448cdb6c94c13e8ea642c887dd107705a9e00bfa07027a1afcbe29aecdb1&amp;mpshare=1&amp;scene=1&amp;srcid=0117KL0KphjR4Mu3kvl0fOWG&amp;sharer_sharetime=1673957914555&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId335"/>
-    <hyperlink ref="B337" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498766&amp;idx=2&amp;sn=6169f19552682cc582746f6cf852905b&amp;chksm=fbd74e62cca0c7745fdf1c6443f87e18dd85ecc943c7338b2cc1e6c06cd8bb6bae54444b397b&amp;scene=27 - wechat_redirect" r:id="rId336"/>
-    <hyperlink ref="B338" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498637&amp;idx=1&amp;sn=a91d76109129fa42e5910c2e2b5f68ef&amp;chksm=fbd749e1cca0c0f75c8a9dc06c16b8d9a53cdf57eb370c07424d88eefd1ddb66928dd1bf2f7f&amp;scene=27 - wechat_redirect" r:id="rId337"/>
-    <hyperlink ref="B339" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498613&amp;idx=1&amp;sn=77f53f7e1edd2dc579cc49b5db803ad4&amp;chksm=fbd74919cca0c00fdae51accb916b42a29d98bf3eb745f42bd9f17d9c4352ef9129ad13a0e5d&amp;scene=27 - wechat_redirect" r:id="rId338"/>
-    <hyperlink ref="B340" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487492&amp;idx=1&amp;sn=ba82daf0353c5eac7f6d9279e333546c&amp;chksm=c2932390f5e4aa861692198be94febdac6fb05fc9909e4adc392f28e15b4dea9cf984f7579c9&amp;mpshare=1&amp;scene=1&amp;srcid=0117ZsWh7O6AM8nXAR8xUfd0&amp;sharer_sharetime=1673957379385&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId339"/>
-    <hyperlink ref="B341" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498610&amp;idx=1&amp;sn=803bff13e7f663a63358ffef96b4525e&amp;chksm=fbd7491ecca0c008f45e48180991ff7f2ccb70b6640ea9d9534c9cb6c2ddc4346bc848c4a3f3&amp;scene=27 - wechat_redirect" r:id="rId340"/>
-    <hyperlink ref="B342" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498181&amp;idx=1&amp;sn=f3ee8fc793cc47d069913017f5aa7c74&amp;chksm=fbd74ba9cca0c2bfef5fd5a07805b35cc90d15146899125e6bf21be2294a811e42d851cd2c06&amp;scene=27 - wechat_redirect" r:id="rId341"/>
-    <hyperlink ref="B343" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498125&amp;idx=1&amp;sn=52efbe5876151b48a917640f5f56c589&amp;chksm=fbd74be1cca0c2f7b2f378a1b15339ef8697544c2b43bb9b51c7c9eaa79b6aea119d943786a9&amp;scene=27 - wechat_redirect" r:id="rId342"/>
-    <hyperlink ref="B344" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498064&amp;idx=1&amp;sn=66db655be0bcc5e6ee0dc58f869ef6eb&amp;chksm=fbd74b3ccca0c22aacea4a7aca9e803f4044f78ad056983484ebc5ab0c718773ebd4ee8204ea&amp;scene=27 - wechat_redirect" r:id="rId343"/>
-    <hyperlink ref="B345" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498041&amp;idx=1&amp;sn=5c8b880a2be4075ee48388b27ce1a6e0&amp;chksm=fbd74b55cca0c24382f3f10e6f2a8423e228c390339dc086d5f1fec034350e0574302587834a&amp;scene=27 - wechat_redirect" r:id="rId344"/>
-    <hyperlink ref="B346" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497757&amp;idx=1&amp;sn=fe521ea5a746be9ba0aa208506d716b8&amp;chksm=fbd74a71cca0c3676f2681bb7917a12e77562d2c5b3d1e5def4a3eac3fc40bd57e12ef2548e5&amp;scene=27 - wechat_redirect" r:id="rId345"/>
-    <hyperlink ref="B347" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497685&amp;idx=1&amp;sn=4af16b3d4d79ce2850b29717f7de1121&amp;chksm=fbd745b9cca0ccaf7ab41fa2760befc0f0831d74e77c8ff430c4d31016efc1b21d27ac0cea1e&amp;scene=27 - wechat_redirect" r:id="rId346"/>
-    <hyperlink ref="B348" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497357&amp;idx=2&amp;sn=9991d229219e36be78c954b46da1f3e3&amp;chksm=fbd744e1cca0cdf764c33163c35b524299a13d78e803abfcb5e4f88fbb72c26c7dfdf00547dd&amp;scene=27 - wechat_redirect" r:id="rId347"/>
-    <hyperlink ref="B349" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497190&amp;idx=1&amp;sn=c210c40cd365312038c5248752f9e187&amp;chksm=fbd7478acca0ce9c3848d2e699ee4193b9cf08473a3f700d04f8514fa247594cded254aee600&amp;scene=27 - wechat_redirect" r:id="rId348"/>
-    <hyperlink ref="B350" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497109&amp;idx=2&amp;sn=41f16c9b2a9513596553fcd9ff4bb6e2&amp;chksm=fbd747f9cca0ceefffe34a2973623745034e7e94ee48b920b14282da022c9a30682e5dcdc7f5&amp;scene=27 - wechat_redirect" r:id="rId349"/>
-    <hyperlink ref="B351" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496713&amp;idx=1&amp;sn=07bb184081bf8590db12e63ccda6bf22&amp;chksm=fbd74665cca0cf73e625c403d61bb3f1f0fdfe680566927f1b1cda7cb54a7b9ce17418c9690b&amp;scene=27 - wechat_redirect" r:id="rId350"/>
-    <hyperlink ref="B352" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649745235&amp;idx=1&amp;sn=d6031b0d45d1db8c61398e2d3b231bed&amp;chksm=bed3742889a4fd3e3032cab8b95656b441d013d7b988a06f77d72aeb98315f4012bfd9b92b47&amp;scene=27 - wechat_redirect" r:id="rId351"/>
-    <hyperlink ref="B353" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650405126&amp;idx=1&amp;sn=91a9e73ed4f2cc34ca1dac64144ae4d3&amp;chksm=8395311eb4e2b808c516c1b4c9aac24ffe5e6ced9641370e73e6b13fc69512d6bb452a4bb1ba&amp;scene=27 - wechat_redirect" r:id="rId352"/>
-    <hyperlink ref="B354" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496498&amp;idx=1&amp;sn=058af2101d4a1ceda1ec04b30daf4d69&amp;chksm=fbd7415ecca0c8488706ee79480560df06943ede862fc76e0917f29b663b3f30b220c37fee78&amp;scene=27 - wechat_redirect" r:id="rId353"/>
-    <hyperlink ref="B355" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496497&amp;idx=2&amp;sn=46afd0c464186e75ffb90b2af25bc3d6&amp;chksm=fbd7415dcca0c84b056ed3b2aaa71c4469307e3a02e2766ae8f97f16c0bfe78b40e293868eaf&amp;scene=27 - wechat_redirect" r:id="rId354"/>
-    <hyperlink ref="B356" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496432&amp;idx=1&amp;sn=209510d8695aed74c65b2693d300e97b&amp;chksm=fbd7409ccca0c98af6db5aaf452dd81b070f440326bdda5e505069608ddc3b448560c045a2f3&amp;scene=27 - wechat_redirect" r:id="rId355"/>
-    <hyperlink ref="B357" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496409&amp;idx=1&amp;sn=7b2f5984d71454e1a2812321f6018cf8&amp;chksm=fbd740b5cca0c9a37723c8c05b4e1cf95fd8678bc54e9b4591c09a7af06f2acf79e28276a502&amp;scene=27 - wechat_redirect" r:id="rId356"/>
-    <hyperlink ref="B358" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649745156&amp;idx=1&amp;sn=744c59bceef156f5b9f84a28e3073708&amp;chksm=bed3747f89a4fd69840a9c52dc8909d86c8f45ff7f634df48fc478860e43c62e1751ef04668e&amp;scene=27 - wechat_redirect" r:id="rId357"/>
-    <hyperlink ref="B359" display="https://mp.weixin.qq.com/s/bPjk1Rq19KmlPcfkYvVJVw" r:id="rId358"/>
-    <hyperlink ref="B360" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496280&amp;idx=1&amp;sn=870b45e0f9bfda51a093ceabb9b51df2&amp;chksm=fbd74034cca0c922893be32402905954f87d98ffa55aa879b45d9974870f29e15e2a1f5a1429&amp;scene=27 - wechat_redirect" r:id="rId359"/>
-    <hyperlink ref="B361" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487444&amp;idx=1&amp;sn=21618afb5aacc0ea224afdbb1e4fa155&amp;chksm=c2933c40f5e4b5569ab5b0dd73d9a5233eee75dab93b53d23b9541e9230193a2560ce90869a8&amp;mpshare=1&amp;scene=1&amp;srcid=0117mZBwP4XZjMn1x1cMkohc&amp;sharer_sharetime=1673957427902&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId360"/>
-    <hyperlink ref="B362" display="https://mp.weixin.qq.com/s/rp6H_HydTbKiSanijDZwBQ" r:id="rId361"/>
-    <hyperlink ref="B363" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496080&amp;idx=1&amp;sn=70f79a37a6000965fa96bccf893b9c40&amp;chksm=fbd743fccca0caeadb59820801597c51353b0a4ba080d2caf66eccb6644102c2fe674ffcb378&amp;scene=27 - wechat_redirect" r:id="rId362"/>
-    <hyperlink ref="B364" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495736&amp;idx=1&amp;sn=080c985a2e373e04496bce5db3cb1069&amp;chksm=fbd74254cca0cb42324938685381d67217f3cb14cb6da64576cac58238264605b5f7e64d34a6&amp;scene=27 - wechat_redirect" r:id="rId363"/>
-    <hyperlink ref="B365" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649744942&amp;idx=1&amp;sn=7efd84c1371d785d719de481e3e6d44a&amp;chksm=bed3755589a4fc43a2caa01c6579f6d10e65959c529a3be90da6e3938a09886eb8bcbd607ef1&amp;scene=27 - wechat_redirect" r:id="rId364"/>
-    <hyperlink ref="B366" display="https://zhuanlan.zhihu.com/p/89401911" r:id="rId365"/>
-    <hyperlink ref="B367" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495660&amp;idx=1&amp;sn=21a5b7e811d104162609d5fef993be79&amp;chksm=fbd75d80cca0d496995ab1135ceb4734b90553a8fd82f4c970ed48212f3d0abd98f58e4e0864&amp;scene=27 - wechat_redirect" r:id="rId366"/>
-    <hyperlink ref="B368" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495618&amp;idx=1&amp;sn=42b06177dec45f33c29ab25d73b639a9&amp;chksm=fbd75daecca0d4b8a6ae5c4854c40cc05bd6c7b67ac6ab45f74c05d425aafae9d54699a09c19&amp;scene=27 - wechat_redirect" r:id="rId367"/>
-    <hyperlink ref="B369" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649744896&amp;idx=1&amp;sn=ac4361272c2d027631bbca9673b6dc10&amp;chksm=bed3757b89a4fc6da6c516fde28c79c936e7b8dc4647fccebad77c616231c15a48102f28dd7e&amp;scene=27 - wechat_redirect" r:id="rId368"/>
-    <hyperlink ref="B370" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495507&amp;idx=1&amp;sn=a1e0cf988d2e366be58faf1110e4d885&amp;chksm=fbd75d3fcca0d429b33c5a49053dd99a03e603b3230e950d0109f3c9dbe7ede21e1fa2a86752&amp;scene=27 - wechat_redirect" r:id="rId369"/>
-    <hyperlink ref="B371" display="https://zhuanlan.zhihu.com/p/93060649" r:id="rId370"/>
-    <hyperlink ref="B372" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649744830&amp;idx=1&amp;sn=950d79ac145ba6682fcfe096e0398c95&amp;chksm=bed376c589a4ffd348ae826b7a855e034184629b798de48192443e727199ddb7a7c6bd594545&amp;scene=27 - wechat_redirect" r:id="rId371"/>
-    <hyperlink ref="B373" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495039&amp;idx=1&amp;sn=35905df6cd4ef33d2ce505d284d3c8ad&amp;chksm=fbd75f13cca0d605c17bf7a8b3b899b7798a590008625fcffbf00d77c2451249bbdc086d6b18&amp;scene=27 - wechat_redirect" r:id="rId372"/>
-    <hyperlink ref="B374" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494825&amp;idx=2&amp;sn=92f59195e8e4e6b33af6dfa63df6a2b3&amp;chksm=fbd75ec5cca0d7d36752d787d7fc0191b0ecccdb56bda335fa553635f241c20af1f768983f7d&amp;scene=27 - wechat_redirect" r:id="rId373"/>
-    <hyperlink ref="B375" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494579&amp;idx=1&amp;sn=b5274f98c5cfae81d1af68944d3252df&amp;chksm=fbd759dfcca0d0c9f8ab04bebee04b0d7fd6fdd3eae87d3ef475fb26e03b402999c31621d034&amp;scene=27 - wechat_redirect" r:id="rId374"/>
-    <hyperlink ref="B376" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494558&amp;idx=1&amp;sn=10a6332147d713230d0fa4dbf9cdc897&amp;chksm=fbd759f2cca0d0e4f5d39887a86b1d6efae13ad0540dc191fdbc8bb29120d0081a90c97b35f6&amp;scene=27 - wechat_redirect" r:id="rId375"/>
-    <hyperlink ref="B377" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494398&amp;idx=1&amp;sn=cd08a71c4a7ec9a2d81107603fc4c437&amp;chksm=fbd75892cca0d184585075b3315fe0386d37c174995a5a4b27e02db4117a13897678dbcb52ed&amp;scene=27 - wechat_redirect" r:id="rId376"/>
-    <hyperlink ref="B378" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494295&amp;idx=1&amp;sn=1218bfa026994967939fa676ed7dd5f9&amp;chksm=fbd758fbcca0d1ede59b225e98add36cae74e9fd3006d42a054c73aaa4a87c75ef46684b9733&amp;scene=27 - wechat_redirect" r:id="rId377"/>
-    <hyperlink ref="B379" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494020&amp;idx=1&amp;sn=df65908cdaf57d02eee8280d86d66949&amp;chksm=fbd75be8cca0d2fe2d69d89a70eced34ba467acbf26fefe1bf40edea36a07e76406612383fd5&amp;scene=27 - wechat_redirect" r:id="rId378"/>
-    <hyperlink ref="B380" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493952&amp;idx=1&amp;sn=f32e43f0e834d12649a3a6272b85ede0&amp;chksm=fbd75b2ccca0d23a224032d999dd52ca3fa53529abf78c2cf3d4f5e9d52ef3a691bcf76bbdd1&amp;scene=27 - wechat_redirect" r:id="rId379"/>
-    <hyperlink ref="B381" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493807&amp;idx=1&amp;sn=7d0b5d89e6fb604794049ac29ccf6ecd&amp;chksm=fbd75ac3cca0d3d526d65b0b55f9f34f2b2ca6d086a4222440b817a4434c359e979331a75917&amp;scene=27 - wechat_redirect" r:id="rId380"/>
-    <hyperlink ref="B382" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493747&amp;idx=1&amp;sn=3288e75a42a8e93bc7ce34b47b811b9b&amp;chksm=fbd75a1fcca0d3092046e1c3b0d961ef99edc8323426fdd78eae3693119a726328db7f0dd246&amp;scene=27 - wechat_redirect" r:id="rId381"/>
-    <hyperlink ref="B383" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493714&amp;idx=1&amp;sn=146ca2efa604b71b20ae166fb0cd6b85&amp;chksm=fbd75a3ecca0d3280f88577c843d7ebf7c4b66f00134f2802e3863e17fa811eb8e328ca030a2&amp;scene=27 - wechat_redirect" r:id="rId382"/>
-    <hyperlink ref="B384" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493496&amp;idx=1&amp;sn=16a9495c9a0452ef60e38bb129105b02&amp;chksm=fbd75514cca0dc020fa508aa34e01a3c17949e70cbccd5531122556f14c7351d15da93775f17&amp;scene=27 - wechat_redirect" r:id="rId383"/>
-    <hyperlink ref="B385" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493262&amp;idx=1&amp;sn=c5c2b9827c5de1d1311673523c96e3e7&amp;chksm=fbd754e2cca0ddf47163df7559a20bb85a45633ecdc57f168874819225dffb4db19449c00cdc&amp;scene=27 - wechat_redirect" r:id="rId384"/>
-    <hyperlink ref="B386" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487361&amp;idx=2&amp;sn=36cb82dd07dafa41ddd7b983f2c44649&amp;chksm=c2933c15f5e4b503af0ac18437085f8928b09261e379e4d5a0628a386f2cefd4cbccb110ab60&amp;mpshare=1&amp;scene=1&amp;srcid=0117dqnVg0mxFOFbynlpzCf9&amp;sharer_sharetime=1673957459189&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId385"/>
-    <hyperlink ref="B387" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247492994&amp;idx=1&amp;sn=6a787521ad85f37339f880bba0cc5d63&amp;chksm=fbd757eecca0def8ac32a1c60f49ec933096833b5b55860074fd5d305499adc85d9f833fa333&amp;scene=27 - wechat_redirect" r:id="rId386"/>
-    <hyperlink ref="B388" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247492901&amp;idx=1&amp;sn=e0241e72bb057ed300fef994721a2a3b&amp;chksm=fbd75749cca0de5f029b880bbe53914dfd789452d35cde78097f00a75f789f2508e452bf1805&amp;scene=27 - wechat_redirect" r:id="rId387"/>
-    <hyperlink ref="B389" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650403666&amp;idx=1&amp;sn=96be637d3fd89472d326f09596a48e2d&amp;chksm=83953b4ab4e2b25c514fd36904d0bad493aab91bcd4f30c4b59762b6b1fbd0b2aaa0509a0d4b&amp;scene=27 - wechat_redirect" r:id="rId388"/>
-    <hyperlink ref="B390" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487340&amp;idx=1&amp;sn=e96e5e1034462b3fed38c98aef1627ca&amp;chksm=c2933cf8f5e4b5ee13fd52fbaeda37679d5766aea514099c720a4bb131340521583ba2fd2582&amp;mpshare=1&amp;scene=1&amp;srcid=0117LVG4Py92aQ9dr3ohqsMG&amp;sharer_sharetime=1673957323507&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId389"/>
-    <hyperlink ref="B391" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247492462&amp;idx=1&amp;sn=4f770371f0493448fab48af8750adb66&amp;chksm=fbd75102cca0d81418aca45fe714c80838b5de34555cd561aec4d87cda710e56b744f953bbbc&amp;scene=27 - wechat_redirect" r:id="rId390"/>
-    <hyperlink ref="B392" location="wechat_redirect" display="https://mp.weixin.qq.com/s?__biz=MzI1MzY0MzE4Mg==&amp;mid=2247484855&amp;idx=2&amp;sn=f0032b7a1611be3d87615f3aecc334de&amp;chksm=e9d01576dea79c60aed6633bd1ff386a376c2bdb50aeaa35834644068f76a2a7f23649500fe1&amp;scene=27 - wechat_redirect" r:id="rId391"/>
-    <hyperlink ref="B393" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247492047&amp;idx=1&amp;sn=7db1f1eaadfdac75c5a0ae0e3a7beea1&amp;chksm=fbd753a3cca0dab5fe09c091fb36c0ae9ba9ae83af38593d333bbdf61d97ee137b1577611ec0&amp;scene=27 - wechat_redirect" r:id="rId392"/>
-    <hyperlink ref="B394" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491955&amp;idx=1&amp;sn=8d6258dd5330a86608191088ec5444a2&amp;chksm=fbd7531fcca0da0945008445177aaaf07b72b61e990fd847e36a8f516eed0f0c93123409dddd&amp;scene=27 - wechat_redirect" r:id="rId393"/>
-    <hyperlink ref="B395" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491927&amp;idx=1&amp;sn=5454d891f68f7c2d49cb453cf4c40f2d&amp;chksm=fbd7533bcca0da2dc093950f0b2b95c4d525a6caf60fec117228be52afd2a498bb74812c0e92&amp;scene=27 - wechat_redirect" r:id="rId394"/>
-    <hyperlink ref="B396" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491883&amp;idx=1&amp;sn=9a28cb03a2e34ec380cd5ff789b8f48d&amp;chksm=fbd75347cca0da51e1257f4de6824e77546f3eeb1e78090cd11ec71841f31cc4cf8562ab3151&amp;scene=27 - wechat_redirect" r:id="rId395"/>
-    <hyperlink ref="B397" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491647&amp;idx=1&amp;sn=787f20dad8e613c0f72142df6789d91d&amp;chksm=fbd75253cca0db45abed1a13b555f358ce059b4e9477afaeb872cab12d4fc310f119d65f797a&amp;scene=27 - wechat_redirect" r:id="rId396"/>
-    <hyperlink ref="B398" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491541&amp;idx=1&amp;sn=cd70f902ac265bfb36e95deac352f797&amp;chksm=fbd4adb9cca324afc840c189ddae4f25ae5c1ee1b8405bd3d0c78c0293d87d85a516e1cfa1c0&amp;scene=27 - wechat_redirect" r:id="rId397"/>
-    <hyperlink ref="B399" display="https://mp.weixin.qq.com/s?src=11&amp;timestamp=1675783003&amp;ver=4336&amp;signature=JXo7DrRlU7Hx9WJP0r7ozT7S1eVkuUt-AiIg21XL7Nz3OkHBzLWECkq4hTwtGtYY0NUnl5gLihW3hGnfr8dqXJIydi1e5uty4VX58eYccDtQI-jUVPhyMU9VvBdkCWkV&amp;new=1" r:id="rId398"/>
-    <hyperlink ref="B400" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247490461&amp;idx=1&amp;sn=84a010d7fa0b0d29f25d87b57e2a29ee&amp;chksm=fbd4a9f1cca320e721ab7c0f167ae5e56f0b00aae7995f8d5a9ad49125ae8d46e86095afd120&amp;scene=27 - wechat_redirect" r:id="rId399"/>
-    <hyperlink ref="B401" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247490293&amp;idx=1&amp;sn=4dcd1cf5f945c03c98ed3401afb7983d&amp;chksm=fbd4a899cca3218f328a661da553b470e018eeeef2ca3bf2696140ef045f1805f89b8c3a596a&amp;scene=27 - wechat_redirect" r:id="rId400"/>
-    <hyperlink ref="B402" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247490057&amp;idx=1&amp;sn=d676c16816c16a27abe5ce69c15feafa&amp;chksm=fbd4a865cca321735c0c0a700e6210f80fa10cfa16aed6e8068dd601853a6285aa7f4601f2ad&amp;scene=27 - wechat_redirect" r:id="rId401"/>
-    <hyperlink ref="B403" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247488752&amp;idx=1&amp;sn=aaaed48b319d572990c93dc1e60a7ba2&amp;chksm=fbd4a69ccca32f8a636b600a77504ab7689f8e90279ace41ae669268dba533e5b8ece9e7b2d3&amp;scene=27 - wechat_redirect" r:id="rId402"/>
-    <hyperlink ref="B404" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247488177&amp;idx=1&amp;sn=ce32c5e9eaf50c9d7f5f3f075d632fc3&amp;chksm=fbd4a0ddcca329cbc93e4fded3b83d59c7ab30d64206a1cf80e63289f925635bcf7eba6651a5&amp;scene=27 - wechat_redirect" r:id="rId403"/>
-    <hyperlink ref="B405" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247487620&amp;idx=1&amp;sn=b3162fec93608788430f7e52236d998e&amp;chksm=fbd4a2e8cca32bfea69c4e418e38d0c8709d2fe3395f74f73aaf48815ec8a41fc0d130ae4a1e&amp;scene=27 - wechat_redirect" r:id="rId404"/>
-    <hyperlink ref="B406" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247487590&amp;idx=1&amp;sn=792f7c3a1cb05bd3c89660c2ceff3fed&amp;chksm=fbd4a20acca32b1c3a9eff018b9e3e96a31425cab16d4a7241e0258221320266007e9c3e70f0&amp;scene=27 - wechat_redirect" r:id="rId405"/>
-    <hyperlink ref="B407" display="https://tech.meituan.com/2019/01/17/dianping-search-deeplearning.html" r:id="rId406"/>
-    <hyperlink ref="B408" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247487240&amp;idx=1&amp;sn=f38e4a5cd73a2d2f1d52ee5eda418528&amp;chksm=fbd4bd64cca334720629ba997aca98642bc1e1b25c422623ddf07e30cb9a5f5068cf22af0048&amp;scene=27 - wechat_redirect" r:id="rId407"/>
-    <hyperlink ref="B409" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247487111&amp;idx=1&amp;sn=0466151a7745795694ee6b66838ef263&amp;chksm=fbd4bcebcca335fd6038ab853b9a73ce1147c953594df2aea6fd1c1db013191086f4c656f5d2&amp;scene=27 - wechat_redirect" r:id="rId408"/>
-    <hyperlink ref="B410" display="https://zhuanlan.zhihu.com/p/52287783" r:id="rId409"/>
-    <hyperlink ref="B411" display="https://zhuanlan.zhihu.com/p/52146789" r:id="rId410"/>
-    <hyperlink ref="B412" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247486677&amp;idx=1&amp;sn=8fba1b390945dea3d15574f1465575f0&amp;chksm=fbd4beb9cca337afbfc433e2873efb13ae87ec226bdd7dd9e1bee159a82a0201a9186c0a8449&amp;scene=27 - wechat_redirect" r:id="rId411"/>
-    <hyperlink ref="B413" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247486538&amp;idx=1&amp;sn=32498d028a74dce05ffa4a4eee66e4b5&amp;chksm=fbd4be26cca33730d988a9bd19e5bcd8034fc3388ff468853bfcf5367a4dc446c1ffcff355f8&amp;scene=27 - wechat_redirect" r:id="rId412"/>
-    <hyperlink ref="B414" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247486253&amp;idx=1&amp;sn=5730d5ab24b87a5985ffa5ff10d34c79&amp;chksm=fbd4b941cca330577e3755aea84d9026aca36a55490e7f71c447d613fca0ba5be77c00067490&amp;scene=27 - wechat_redirect" r:id="rId413"/>
-    <hyperlink ref="B415" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247486057&amp;idx=1&amp;sn=567a04976f82b07645992790196d223f&amp;chksm=fbd4b805cca33113171e35d00054238b7a260052313ed32aa8050a4a7c9460638c65cb7a8389&amp;scene=27 - wechat_redirect" r:id="rId414"/>
-    <hyperlink ref="B416" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247485830&amp;idx=1&amp;sn=621393b30e179660de9b35d57da60752&amp;chksm=fbd4bbeacca332fcfe9733a126f07386ad66c3a0381b5e0c2daa81c70d88d0d19048fad645c1&amp;scene=27 - wechat_redirect" r:id="rId415"/>
-    <hyperlink ref="B417" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247485411&amp;idx=1&amp;sn=3ac29da8b7a81869bd33679531e2cfe3&amp;chksm=fbd4b58fcca33c998652a1e1a84b4dee7b825df919e1c68702938ee24728121617ac30f85878&amp;scene=27 - wechat_redirect" r:id="rId416"/>
-    <hyperlink ref="B418" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651746611&amp;idx=1&amp;sn=c9bf49b74c52ba3a091051772828fb54&amp;chksm=bd12a87e8a6521689690ea992fe69ab4b37cbb3f77942e2900314033fdda361d9993af6698fa&amp;mpshare=1&amp;scene=1&amp;srcid=0117WfBjqkaqVXB9LUCBJpti&amp;sharer_sharetime=1673957092409&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId417"/>
-    <hyperlink ref="B419" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651746412&amp;idx=1&amp;sn=885e98dd829dabbe3858d6b2ea9f954f&amp;chksm=bd12a9218a652037b31b32188ff61258bdae61b3ab8bc5d326ac6f9d199cb1d83260701ff3ec&amp;mpshare=1&amp;scene=1&amp;srcid=0117bKvljgSQqp4W9Kz9mPdU&amp;sharer_sharetime=1673957061139&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId418"/>
-    <hyperlink ref="B420" r:id="rId419"/>
-    <hyperlink ref="B421" r:id="rId420"/>
-    <hyperlink ref="B422" r:id="rId421"/>
-    <hyperlink ref="B423" r:id="rId422"/>
-    <hyperlink ref="B424" r:id="rId423"/>
-    <hyperlink ref="B425" r:id="rId424"/>
-    <hyperlink ref="B426" r:id="rId425"/>
-    <hyperlink ref="B427" r:id="rId426"/>
-    <hyperlink ref="B428" r:id="rId427"/>
-    <hyperlink ref="B429" r:id="rId428"/>
-    <hyperlink ref="B430" r:id="rId429"/>
-    <hyperlink ref="B431" r:id="rId430"/>
-    <hyperlink ref="B432" r:id="rId431"/>
-    <hyperlink ref="B433" r:id="rId432"/>
-    <hyperlink ref="B434" r:id="rId433"/>
-    <hyperlink ref="B435" r:id="rId434"/>
-    <hyperlink ref="B436" r:id="rId435"/>
-    <hyperlink ref="B437" r:id="rId436"/>
-    <hyperlink ref="B438" r:id="rId437"/>
-    <hyperlink ref="B439" r:id="rId438"/>
-    <hyperlink ref="B440" r:id="rId439"/>
-    <hyperlink ref="B441" r:id="rId440"/>
-    <hyperlink ref="B442" r:id="rId441"/>
-    <hyperlink ref="B443" r:id="rId442"/>
-    <hyperlink ref="B444" r:id="rId443"/>
-    <hyperlink ref="B445" r:id="rId444"/>
-    <hyperlink ref="B446" r:id="rId445"/>
-    <hyperlink ref="B447" r:id="rId446"/>
-    <hyperlink ref="B448" r:id="rId447"/>
-    <hyperlink ref="B449" r:id="rId448"/>
-    <hyperlink ref="B450" r:id="rId449"/>
-    <hyperlink ref="B451" r:id="rId450"/>
-    <hyperlink ref="B452" r:id="rId451"/>
-    <hyperlink ref="B453" r:id="rId452"/>
-    <hyperlink ref="B454" r:id="rId453"/>
-    <hyperlink ref="B455" r:id="rId454"/>
-    <hyperlink ref="B456" r:id="rId455"/>
-    <hyperlink ref="B457" r:id="rId456"/>
-    <hyperlink ref="B458" r:id="rId457"/>
-    <hyperlink ref="B459" r:id="rId458"/>
-    <hyperlink ref="B460" r:id="rId459"/>
-    <hyperlink ref="B461" r:id="rId460"/>
-    <hyperlink ref="B462" r:id="rId461"/>
-    <hyperlink ref="B463" r:id="rId462"/>
-    <hyperlink ref="B464" r:id="rId463"/>
-    <hyperlink ref="B465" r:id="rId464"/>
-    <hyperlink ref="B466" r:id="rId465"/>
-    <hyperlink ref="B467" r:id="rId466"/>
-    <hyperlink ref="B468" r:id="rId467"/>
-    <hyperlink ref="B469" r:id="rId468"/>
-    <hyperlink ref="B470" r:id="rId469"/>
-    <hyperlink ref="B471" r:id="rId470"/>
-    <hyperlink ref="B472" r:id="rId471"/>
-    <hyperlink ref="B473" r:id="rId472"/>
-    <hyperlink ref="B474" r:id="rId473"/>
-    <hyperlink ref="B475" r:id="rId474"/>
-    <hyperlink ref="B476" r:id="rId475"/>
-    <hyperlink ref="B477" r:id="rId476"/>
-    <hyperlink ref="B478" r:id="rId477"/>
-    <hyperlink ref="B479" r:id="rId478"/>
-    <hyperlink ref="B480" r:id="rId479"/>
-    <hyperlink ref="B481" r:id="rId480"/>
-    <hyperlink ref="B482" r:id="rId481"/>
-    <hyperlink ref="B483" r:id="rId482"/>
-    <hyperlink ref="B484" r:id="rId483"/>
-    <hyperlink ref="B485" r:id="rId484"/>
-    <hyperlink ref="B486" r:id="rId485"/>
-    <hyperlink ref="B487" r:id="rId486"/>
-    <hyperlink ref="B488" r:id="rId487"/>
-    <hyperlink ref="B489" r:id="rId488"/>
-    <hyperlink ref="B490" r:id="rId489"/>
-    <hyperlink ref="B491" r:id="rId490"/>
-    <hyperlink ref="B492" r:id="rId491"/>
-    <hyperlink ref="B493" r:id="rId492"/>
-    <hyperlink ref="B494" r:id="rId493"/>
-    <hyperlink ref="B495" r:id="rId494"/>
-    <hyperlink ref="B496" r:id="rId495"/>
-    <hyperlink ref="B497" r:id="rId496"/>
-    <hyperlink ref="B498" r:id="rId497"/>
-    <hyperlink ref="B499" r:id="rId498"/>
-    <hyperlink ref="B500" r:id="rId499"/>
-    <hyperlink ref="B501" r:id="rId500"/>
-    <hyperlink ref="B502" r:id="rId501"/>
-    <hyperlink ref="B503" r:id="rId502"/>
-    <hyperlink ref="B504" r:id="rId503"/>
-    <hyperlink ref="B505" r:id="rId504"/>
-    <hyperlink ref="B506" r:id="rId505"/>
-    <hyperlink ref="B507" r:id="rId506"/>
-    <hyperlink ref="B508" r:id="rId507"/>
-    <hyperlink ref="B509" r:id="rId508"/>
-    <hyperlink ref="B510" r:id="rId509"/>
-    <hyperlink ref="B511" r:id="rId510"/>
-    <hyperlink ref="B512" r:id="rId511"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" display="https://mp.weixin.qq.com/s/KX2gmEUme4Iy1PCR9PTrYg" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" display="https://mp.weixin.qq.com/s/DCiNgI1LL-uN4JmgQ5VSjQ" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" display="https://www.bilibili.com/video/BV1Km4y167ho" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" display="https://mp.weixin.qq.com/s/CFmp_FTHbf5l2ohUokTGgw" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" display="https://mp.weixin.qq.com/s/v-GN1ors-bWutfsIJcZYbQ" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" display="https://mp.weixin.qq.com/s/1a2bl983bGKM713xI_3v_A" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" display="https://mp.weixin.qq.com/s/IoPZ-fUL0h1PVOA8uDXPJg" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" display="https://mp.weixin.qq.com/s/-klZWT30J41xPQfOqlWiNA" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" display="https://zhuanlan.zhihu.com/p/611877625" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" display="https://mp.weixin.qq.com/s/SwR1-mAtqjwsnJVy3UiMnA" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" display="https://mp.weixin.qq.com/s/EabcwCtSPEmFOjRATVVORQ" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" display="https://mp.weixin.qq.com/s/SsgVqei9sL5y7N1GUXOJLg" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" display="https://mp.weixin.qq.com/s/or9DT2HlVPnUFBsqAEv6Uw" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" display="https://mp.weixin.qq.com/s/Rmgh-ynoWU4uerh_4jL4YA" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" display="https://mp.weixin.qq.com/s/oRxn2PQdh3_giCPkrJpQaQ" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" display="https://mp.weixin.qq.com/s/AyMmfixX8rXUgGIf94uBkw" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" display="https://mp.weixin.qq.com/s/rF9wC2qecPHDcn8fy6KIuA" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" display="https://mp.weixin.qq.com/s/_lEeyyxhGHg5ZOtrpf2epQ" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247621853&amp;idx=1&amp;sn=61378cddef3e7b9579b00f92d4e3c609&amp;chksm=fbd6aeb1cca127a76b85c8af5ba05d2b9f482252d176be3c6b42a8081bd4589f96c6178e066f&amp;scene=27 - wechat_redirect" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247487662&amp;idx=1&amp;sn=f3f28448bc605c8022cc84c3093f6562&amp;chksm=ea2e6788dd59ee9e1111e3352363aa86bb8abdaa92f8167df62c201783bee38647912691ebe9&amp;mpshare=1&amp;scene=1&amp;srcid=0117adz8z5uuqKd4JsFiqBky&amp;sharer_sharetime=1673958834277&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650490509&amp;idx=1&amp;sn=0881c47b13cf7d97a1f91e7b5830c58d&amp;chksm=83978e95b4e007830bcd4bae627b02b275baf60b453035a711e43f4ff604c5389ed089ef2c45&amp;scene=27 - wechat_redirect" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247487588&amp;idx=1&amp;sn=099b6105ef6f4e06df3ec6ace9cea168&amp;chksm=ea2e6742dd59ee54d426895b8c2c335e7bed3027da1302da81eea829e26bb1600c7d149f29f6&amp;mpshare=1&amp;scene=1&amp;srcid=0117wGK8qD3vbVGyqHjrC0m2&amp;sharer_sharetime=1673958824881&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247618221&amp;idx=1&amp;sn=bbbb4acd59fa304fd9941138d03a5b03&amp;chksm=fbd6bcc1cca135d72d19924659d0ba226d516409c975610d077e64705d351b2c0b82ee46da4f&amp;scene=27 - wechat_redirect" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247617404&amp;idx=1&amp;sn=a21ed8b66d98c7f2c32605a8ed5b6e7c&amp;chksm=fbd6b910cca13006bf965630fcacedaf4ef4342b5b85f2a2728b83ff2e671fc2422c6d9a8583&amp;scene=27 - wechat_redirect" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg4OTc2MzczNg==&amp;mid=2247486087&amp;idx=1&amp;sn=fa6b75242336d49fb780ab63c63ce4e5&amp;chksm=cfe7a870f89021667d5056c587fdd9aafa025de8443fe9496f5321ff729b93536545324235b9&amp;mpshare=1&amp;scene=1&amp;srcid=0117WqeEpkGzXEGbrlQ2qUP5&amp;sharer_sharetime=1673957656684&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247614845&amp;idx=1&amp;sn=0e8c26b62cd8e2ffe5c54e6e3ee28a5d&amp;chksm=fbd6b311cca13a07f68d47ac22d2ebc0f2fad1e082809bd0ccc8f68a5bc6f298e2bc16fa0ec1&amp;scene=27 - wechat_redirect" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg3Njc0NTgwMg==&amp;mid=2247492039&amp;idx=1&amp;sn=1395b05f9f13d2ec5f094098335f0fb2&amp;chksm=cf2f24e2f858adf401be214e3c00a17e71b4580afa3bb7c2e479fbdd196abaced8836c4bfc04&amp;mpshare=1&amp;scene=1&amp;srcid=01173Yirag3aRdwVVXpLoC6m&amp;sharer_sharetime=1673957819680&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649774611&amp;idx=1&amp;sn=50784f8f205424ac315c214eecde370d&amp;chksm=beccc96889bb407e2fd0af67766bebc8e01a6619ac8356dba71efeb165c450b97c7a5561d5ef&amp;scene=27 - wechat_redirect" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247487245&amp;idx=1&amp;sn=e60203a06dfbbd736ba5085554a8e86a&amp;chksm=ea2e782bdd59f13d0cf199247081e406ef3352c2e211fe24be3aa851d996f37d412bb232f6ea&amp;mpshare=1&amp;scene=1&amp;srcid=0117PDLkxZZZqZuhvqAb5zCN&amp;sharer_sharetime=1673958990974&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247609347&amp;idx=1&amp;sn=277d03dd9bbd978c2d6fa564e6ea3583&amp;chksm=fbd69e6fcca117797939d7386d642cd99eca8bbe9d25b02e3fcf5245eb871faf4fcf9bffc5bc&amp;scene=27 - wechat_redirect" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg4OTc2MzczNg==&amp;mid=2247485593&amp;idx=1&amp;sn=80a57bc832565f38dfea8ce396975c3b&amp;chksm=cfe7aa6ef890237880872ebe8ff471a9642104d84a6a3463ba4ea81a304f15fde179c437e741&amp;mpshare=1&amp;scene=1&amp;srcid=0117HHDQtSslzh1IBwT4tYom&amp;sharer_sharetime=1673957674492&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247607759&amp;idx=2&amp;sn=793f2f26ca50fdcdd5e1805c540a8844&amp;chksm=fbd697a3cca11eb5b0967e15bd56f2adfb8691d96e78a6b5115dd7bf96c30078ddaa9ed6eee4&amp;scene=27 - wechat_redirect" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247607015&amp;idx=1&amp;sn=640758c804a49c7fee278066b85203df&amp;chksm=fbd6908bcca1199d272fe7ca3e6c7cde7dcdb43f33fbfc319fca414f76f5f3dc97ca443cb178&amp;scene=27 - wechat_redirect" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247605093&amp;idx=1&amp;sn=32663a66325e7d0f5d8e4164ead40cc4&amp;chksm=fbd6e909cca1601feba78e308e77e54d4860e7a08b5407c02cab0be27ec555f83647d2933209&amp;scene=27 - wechat_redirect" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247603217&amp;idx=1&amp;sn=a170a798db5c190fef89b28a4c157aa1&amp;chksm=fbd6e67dcca16f6b0e825f6818c40b67e38827aba0686d1a8221eda050b81196c45bf62ab643&amp;scene=27 - wechat_redirect" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg4OTc2MzczNg==&amp;mid=2247485120&amp;idx=1&amp;sn=d34d4cca4ad1ec00b1772d9ca4f7da5e&amp;chksm=cfe7a437f8902d21404e7e184f8da18d6ed8b3056af83574060dbfedac20677b490b04c796fc&amp;mpshare=1&amp;scene=1&amp;srcid=0117Of6uG80CLb3wppixoYYu&amp;sharer_sharetime=1673957705690&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247599652&amp;idx=1&amp;sn=7e548fdf373404f9e28a68ed60ed5fdf&amp;chksm=fbd6f448cca17d5eb554161219b8c926861540ebf6a6c405e0d9397f7a857109adfef6712b38&amp;scene=27 - wechat_redirect" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247598912&amp;idx=1&amp;sn=f9b89d6ab0e471ad3d0a5274c521fd76&amp;chksm=fbd6f12ccca1783a70ecc2434b5614bad885fe8a4070a7b028432034c472a36763c0624d4abb&amp;scene=27 - wechat_redirect" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247597380&amp;idx=1&amp;sn=4db0d3fe68ca96bdf1f5304e3bf27efe&amp;chksm=fbd6cf28cca1463eda0a8c82b5d5bac1c52980c18c4b3503ae7ba1f785b28a486d4e1569a730&amp;scene=27 - wechat_redirect" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247597321&amp;idx=1&amp;sn=250130a92dc6fa4fcded1633faa5c908&amp;chksm=fbd6cf65cca1467362fe21eaef511502e03412b93fbef8256174d3ce5f90360ed7c112c1ea0a&amp;scene=27 - wechat_redirect" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247595912&amp;idx=1&amp;sn=d6d805fca059e98542d139238a64de65&amp;chksm=fbd6c5e4cca14cf266926db0859a3f06611e4ec36c359ccc6f1ad3a1689b6d77edcb3eb5a553&amp;scene=27 - wechat_redirect" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247595831&amp;idx=1&amp;sn=6527aef4ce07e8ce2867af62d27338cb&amp;chksm=fbd6c55bcca14c4d83907a730d8ab95cef14a86ae7d3e834c41aaea74bedb38cd73cdfc7f35e&amp;scene=27 - wechat_redirect" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247594776&amp;idx=1&amp;sn=494824ef9ea3be55df7fe98211c3964e&amp;chksm=fbd6c174cca148623cfada0a0539a0d33b173d01bbf36fef508f4f9c2a1618bc856785651ac3&amp;scene=27 - wechat_redirect" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247593010&amp;idx=1&amp;sn=f9384194319269e7a79ba8e577830ce4&amp;chksm=fbd6de5ecca1574819e4184b92b5167e1317cc226ba1673f57f22cf544bd30b6cc55a97f6bce&amp;scene=27 - wechat_redirect" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650472691&amp;idx=1&amp;sn=0de2198074b629ad7c9605a7a3d7d683&amp;chksm=8397c8ebb4e041fde5b09d0496f18224248a922b5559f5722c914c856fda59d3f9283834f292&amp;scene=27 - wechat_redirect" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247592677&amp;idx=2&amp;sn=3cae00c17a89b7f34b65bd835a553491&amp;chksm=fbd6d889cca1519fba25525dbff8f189be084c6a0bd4a30489aa5facde7038bcd663617ce393&amp;scene=27 - wechat_redirect" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247591189&amp;idx=1&amp;sn=b6d191ff2cf27e4c9bfef945683bfb4a&amp;chksm=fbd6d779cca15e6f195c83f5c873a5ecb364478c75282dd6bde34986a089e0b443ec659724fd&amp;scene=27 - wechat_redirect" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486879&amp;idx=1&amp;sn=6ed863ec4ebb4a43fd5303dc31283e96&amp;chksm=ea2e7ab9dd59f3af6c20ff794907160342ea844097f787a8b6761872cbe2a047a43272b542bb&amp;mpshare=1&amp;scene=1&amp;srcid=0117V5aFvFP5Ddjfi2srfCOV&amp;sharer_sharetime=1673959633475&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651770506&amp;idx=2&amp;sn=53df7e69852b53b8e9a78704250a3f59&amp;chksm=bd1217c78a659ed1fe25caf2f387dd5adf7543c0d18aa9404a68dedc4393d3f75bdbc08d0097&amp;mpshare=1&amp;scene=1&amp;srcid=0117rkw4ucCVdx40VXlSeHoB&amp;sharer_sharetime=1673956974542&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649772002&amp;idx=1&amp;sn=7ab50931711fa4cebae08db9b132ade5&amp;chksm=beccdc9989bb558f3223ecfec306aacfa4c17cdd49dab60bc6bd70be72b61d79d319c4e7b025&amp;scene=27 - wechat_redirect" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247586109&amp;idx=1&amp;sn=0ee0886b4f9249baf93439835d5d0268&amp;chksm=fbd62351cca1aa47003a2abcd486f152e3eb2a70de6313764c24518b8ff41e0e1a654aef8bd3&amp;scene=27 - wechat_redirect" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651769715&amp;idx=2&amp;sn=2d6c3eb9d9646374b5f789fcf4282794&amp;chksm=bd12123e8a659b2841fd12d873d3f7087f300b3bf8b6cbd9136728fc1231655eb573cf97f4e0&amp;mpshare=1&amp;scene=1&amp;srcid=0117Xd442BpulsuEWGrZhqzJ&amp;sharer_sharetime=1673957035636&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247584814&amp;idx=1&amp;sn=0905e790e129fc69071ee35b033580f0&amp;chksm=fbd63e42cca1b7544faa0cb1e8bced4ba70991deb29679987616565a0e7e66e31ca926b65538&amp;scene=27 - wechat_redirect" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486528&amp;idx=1&amp;sn=af5d722949e17ef6388582cb79d8db39&amp;chksm=ea2e7b66dd59f27040aeffc48f0dea150e5bc52a4e3d1b3cba7f1c9cf4ad4588d7e0c5e1a0de&amp;mpshare=1&amp;scene=1&amp;srcid=0117qiTM67fWa7TSJSplzmZm&amp;sharer_sharetime=1673959054283&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247502484&amp;idx=1&amp;sn=72e86c400261dceb2526e4de6759e73f&amp;chksm=a691b97991e6306fea07ccc0fe69fc2c21e41d6dcf5696b0558d38a06773799073a78e227bfd&amp;scene=27 - wechat_redirect" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247583653&amp;idx=1&amp;sn=5dc8cfa18b3a48103ba104470df2be45&amp;chksm=fbd635c9cca1bcdf262951910a8b0808d395a5a00f34e47c38adcf6e8eac1c8c1a61780ba514&amp;scene=27 - wechat_redirect" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247583047&amp;idx=1&amp;sn=e1d82adf00fc6259a3750228d6979b4c&amp;chksm=fbd6372bcca1be3dc6577ef0b2b3d671f12ab72ef7347202df175e19132433d4aefdeb97505f&amp;scene=27 - wechat_redirect" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651769148&amp;idx=2&amp;sn=f046a03fe1a02abf525c065963ae4038&amp;chksm=bd1210718a65996725b53e639b2b6c3b51eb28f9ac53152a1c695746cf1c15d202535ee5f71f&amp;mpshare=1&amp;scene=1&amp;srcid=0117F7qqsflxxpqhdQ1SngCz&amp;sharer_sharetime=1673957044472&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486449&amp;idx=1&amp;sn=489c7b0383800ddcc36a9a72af81f3c3&amp;chksm=ea2e7cd7dd59f5c15d2ed2adcd1db35f89d92c8390ed956f0b298a658def93410a4c6668f715&amp;mpshare=1&amp;scene=1&amp;srcid=0117rJEidptu50XAatgGRbHk&amp;sharer_sharetime=1673958981682&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247502213&amp;idx=1&amp;sn=fc146301867e6dcfc1c76eb4ead978d0&amp;chksm=a691ba6891e6337e86096af1a44fc35fbbf5ec1c3af779b4bf84d00dc5738ceb80acfadd3df4&amp;scene=27 - wechat_redirect" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247577711&amp;idx=1&amp;sn=d4dc3ecc9fc9c63aa0a7746237156800&amp;chksm=fbd60203cca18b153440f5ea638f0f409fa953c06ce8bcf1b23878664617dc206947ca7e4fa8&amp;scene=27 - wechat_redirect" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247577501&amp;idx=1&amp;sn=0abd962b316235700f4050fcc8968a3b&amp;chksm=fbd61df1cca194e7df8a414a8055df18e3592e0b59a1f941afb05005221e8e168f99a8d18b62&amp;scene=27 - wechat_redirect" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650464730&amp;idx=1&amp;sn=c5aa5396fc7c7a2eabb7990c6ce0d178&amp;chksm=839629c2b4e1a0d491b314e5d6437ca87083de35cfa3791cf00a3fbd559641159cd0d350d057&amp;scene=27 - wechat_redirect" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650464165&amp;idx=1&amp;sn=76193b6fc997e3d1d842c6ebe2dbf317&amp;chksm=839617bdb4e19eabccf0bd4bc71d89e97cb17def86abb812a562b4019d379525e33ff7339152&amp;scene=27 - wechat_redirect" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B66" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247576281&amp;idx=2&amp;sn=097528a2c3a4ba819eab3cd122df990b&amp;chksm=fbd618b5cca191a394aec5846ce48720d95e3e6ea153c0770452a0eec447309383b3bf99e453&amp;scene=27 - wechat_redirect" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B67" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247575814&amp;idx=1&amp;sn=c20d71bcf94a88a3e791885edb1af421&amp;chksm=fbd61b6acca1927c038e60999db375f0192b322e72bf094e764a295f36ec217d8651d4a41a2c&amp;scene=27 - wechat_redirect" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B68" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486273&amp;idx=1&amp;sn=b0866d0b104de68bb5866b879df5baf5&amp;chksm=ea2e7c67dd59f57161d5651396274ac15cd9af031995650a7e349710e983ed1a20d4f2a74fbd&amp;mpshare=1&amp;scene=1&amp;srcid=0117G8EkbjLIyTRHBJSunt4X&amp;sharer_sharetime=1673959041521&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B69" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg4OTc2MzczNg==&amp;mid=2247484208&amp;idx=1&amp;sn=b250b40543a4f8c2c28827587dd62d02&amp;chksm=cfe7a1c7f89028d118599648db1037bddaa7f0eefed08abb3e8fc10699c1421441c3517166bc&amp;mpshare=1&amp;scene=1&amp;srcid=0117OKUhDuwgjxulTmbfCefn&amp;sharer_sharetime=1673957661497&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B70" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650462657&amp;idx=1&amp;sn=5e7ba268bb213b97e373c09ef8063234&amp;chksm=839611d9b4e198cf0735bee5a88e32efbfdbaab402b6f5a74be1986304608f73bb87ecd72c23&amp;scene=27 - wechat_redirect" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B71" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650462450&amp;idx=1&amp;sn=48c33f93cae32d6bf5ea6d8dfd0cb12b&amp;chksm=839610eab4e199fcf614def6a660424a04196208d4acaf10ea653ca2920018f21226eb87cc42&amp;scene=27 - wechat_redirect" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B72" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247501313&amp;idx=1&amp;sn=8f41c67db2b9fd8d016863c4bef7174f&amp;chksm=a691b5ec91e63cfaaf84c2872a0a33f8736d5077711b5f10fdca7e2f5578b6a61d915a985f0a&amp;scene=27 - wechat_redirect" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B73" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247574417&amp;idx=1&amp;sn=87ba745e7e1180fc6f85349428a890e9&amp;chksm=fbd611fdcca198eba7ba7f339556911ae27b4058e0ae27581f793280ac0fc34fbc4e49e4a23f&amp;scene=27 - wechat_redirect" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B74" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247574304&amp;idx=1&amp;sn=142635ea47eb0bf24b4feaab967f6d04&amp;chksm=fbd6114ccca1985aecefcc46ade6d4d878bc6109205c2b4f8d5802ef9a484aee4a2c12fffed7&amp;scene=27 - wechat_redirect" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B75" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247572115&amp;idx=1&amp;sn=e77ece68da5e843e620599cd9bc35ad9&amp;chksm=fbd668ffcca1e1e90ee71c122a5c379051ef0ed6e9cb1460ffd8692c5066803524c6c4472480&amp;scene=27 - wechat_redirect" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B76" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247571544&amp;idx=2&amp;sn=c298c717bb79092cb8ea7adf718cf64b&amp;chksm=fbd66a34cca1e3222d5ab2f54185cea9732528721b3f0ad3df83dc15e14a30b1d6c6f64fafa2&amp;scene=27 - wechat_redirect" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B77" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247570937&amp;idx=1&amp;sn=aa619fe9ca5ce9b655368d11bed4f42a&amp;chksm=fbd66795cca1ee830ab6c13d90dcd0a465f4c0f1e871c207db97f588b228f8f9ad7feec48d96&amp;scene=27 - wechat_redirect" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B78" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247570552&amp;idx=2&amp;sn=6f5c88fc386de39080c8ab16ec415a28&amp;chksm=fbd66614cca1ef02422ec1a182101aabfed8939a077d3825c9cc2efc2664364592ba949e59e3&amp;scene=27 - wechat_redirect" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B79" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247486194&amp;idx=1&amp;sn=48db3322795a4931f30c760017aaf9bc&amp;chksm=ea2e7dd4dd59f4c2e568ddb5bd3a17fdf9c42701995b42d33252c0182341a1a909cf66be862d&amp;mpshare=1&amp;scene=1&amp;srcid=0117Q0TI5TIkAQKoTGlkapeK&amp;sharer_sharetime=1673958944207&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B80" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247569807&amp;idx=2&amp;sn=8d133978b9c78529d6c83c756c4a242d&amp;chksm=fbd663e3cca1eaf58e2fe5d7c88430ada4ffac92e7a96082906c03666d3fdc28548c59c1078f&amp;scene=27 - wechat_redirect" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B81" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247569443&amp;idx=1&amp;sn=c683867e850188217bcdce54b9243feb&amp;chksm=fbd6624fcca1eb59366b793686f378217d677a394378e65bc5b24963d10fff77461618203f74&amp;scene=27 - wechat_redirect" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B82" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247569405&amp;idx=2&amp;sn=fb25b857a2355631e7236ad538b7db1a&amp;chksm=fbd67d91cca1f48793667b8211a67d91087a206fddfe15cb3a81fca07a74db96dd206452cca7&amp;scene=27 - wechat_redirect" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B83" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247485997&amp;idx=1&amp;sn=382ec987f91b1e9da9c9b99b4c26c927&amp;chksm=ea2e7d0bdd59f41d9da9b6df7c4973eaab7a9d594cfd5250ca3128a9aaf7dee4a540485a616c&amp;mpshare=1&amp;scene=1&amp;srcid=0117LxLqRhvnFtyKC08DdoKa&amp;sharer_sharetime=1673958844890&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B84" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650458750&amp;idx=1&amp;sn=263bc286f3bf0711380b4c15d746ecdc&amp;chksm=83960266b4e18b702e68a2e6fc1537d412aae05c8679b2f93fd6cd8d9c2e15647af2decf2625&amp;scene=27 - wechat_redirect" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B85" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247569004&amp;idx=1&amp;sn=819194c1427369349458d65a4d372f4b&amp;chksm=fbd67c00cca1f5165aa04c2a247b70ab435f3d38f95f3b737ee0613ef13da7d465e6cc3f72a4&amp;scene=27 - wechat_redirect" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B86" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247485981&amp;idx=1&amp;sn=ca9f4b56e4225c26e1e477ad47e5ce71&amp;chksm=ea2e7d3bdd59f42dfa7ed40277d8db305544f59fccdae53b81be9f6010a0ee94bc102e6172d5&amp;mpshare=1&amp;scene=1&amp;srcid=0117vy6KkfZbqSewnRXKH9LX&amp;sharer_sharetime=1673958897941&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B87" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650457465&amp;idx=1&amp;sn=0fab7290a4e7dc9e951da5c2fc6404f9&amp;chksm=83960d61b4e18477d070f49f47f4dd27d6feae11e2b940439a5833d9c1d78fc629fb1f4811f1&amp;scene=27 - wechat_redirect" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B88" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567877&amp;idx=1&amp;sn=1c8d1f781bd72fdf063f05694f8ff001&amp;chksm=fbd67869cca1f17ff2d6a98f51c5b61792db7aeac74a8f1503155851e4f59e5dc69f0342f47f&amp;scene=27 - wechat_redirect" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B89" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567823&amp;idx=2&amp;sn=97cccbf605536b1b02b56485e6b6d3f2&amp;chksm=fbd67ba3cca1f2b5fbae4f27941220e719144f7cb7fc1399c63d95c42d43ece6dbd649a6fcc1&amp;scene=27 - wechat_redirect" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B90" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567741&amp;idx=1&amp;sn=6406f8181482a6be57eb0a752173fa1a&amp;chksm=fbd67b11cca1f2076580fb3e08d635033bdb03fa7fd195f6b6e07d231d3c7b52b03f3fe02996&amp;scene=27 - wechat_redirect" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B91" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247485890&amp;idx=1&amp;sn=16486343e1cebcf9b77352826c5c307e&amp;chksm=ea2e7ee4dd59f7f2559e53c5f174e1541f1b940257e8af9027416ebd38ea4e643c583d1a6a5e&amp;mpshare=1&amp;scene=1&amp;srcid=01175jUTYWcRHTuTLYsLKiuB&amp;sharer_sharetime=1673958857324&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B92" display="https://mp.weixin.qq.com/s/fN9s5Ml4GjGK2xLOeAUN4w" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B93" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650457145&amp;idx=1&amp;sn=569530d4129f0ba122b79ddd66e6e742&amp;chksm=83960c21b4e18537aa1edaead0ecf40f1e74aec662f1bc69d8a166b55085862d16211aa661a6&amp;scene=27 - wechat_redirect" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B94" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567452&amp;idx=1&amp;sn=4da4f736bb462d213f5c275181201f29&amp;chksm=fbd67a30cca1f326d7e08bf37270fd446cd82d693b1054611a8f2e76bfdee328863eada422d4&amp;scene=27 - wechat_redirect" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B95" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247567308&amp;idx=1&amp;sn=bf4cb94e1cf1ce58e01e5a9a1d9fabd1&amp;chksm=fbd675a0cca1fcb643835a48add91625fda1f9dd22f6fde80e23310355ec144e93cb4f642e8c&amp;scene=27 - wechat_redirect" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B96" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg2NzU4MDM0MQ==&amp;mid=2247484777&amp;idx=1&amp;sn=8e258fae7c3c04d483dca1a74b5b6d46&amp;chksm=ceb825b3f9cfaca56b9879bd8b621dd99ec89d5322a5cc17da49c76a629bce9c24c75a486155&amp;mpshare=1&amp;scene=1&amp;srcid=0117cYykpg2l8QoQuZOe3Tvk&amp;sharer_sharetime=1673959147851&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B97" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650455296&amp;idx=1&amp;sn=06621faf40213e4e56a3211a88a6e234&amp;chksm=83967518b4e1fc0e38716b43f07fb863fa12b2f1ac1e8b2afb2ef0d062f091b3e375dde8f0f3&amp;scene=27 - wechat_redirect" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B98" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566960&amp;idx=1&amp;sn=e8cc6cc5f3a1f7de5eac0dee97debb6b&amp;chksm=fbd6741ccca1fd0ad16036ace153dc09b06649e9235bc89f2eda09f87c1aeee9e713f073b6c0&amp;scene=27 - wechat_redirect" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B99" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566913&amp;idx=1&amp;sn=2d203186459c22eb14d54745cecdd83e&amp;chksm=fbd6742dcca1fd3ba5b947fa2914bef7b218e957c94b458a12824c0fd0802cb616051bbcad80&amp;scene=27 - wechat_redirect" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B100" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649769274&amp;idx=1&amp;sn=a46fc1574ecbf5cfddd1f40af9cb1b4f&amp;chksm=beccd64189bb5f57f80799fd2ea51c7669942254a2223dea55fe7d2bfa5762410a784dec8e2f&amp;scene=27 - wechat_redirect" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B101" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566783&amp;idx=1&amp;sn=7f693e5b57988166ec07017f32ff2b97&amp;chksm=fbd677d3cca1fec550f381173c195aef54aab536ce429cb823d9c62c7ca2a66cde9eb09c30ca&amp;scene=27 - wechat_redirect" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B102" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566714&amp;idx=1&amp;sn=fcccd4847149cb3496d10e2d4975c30a&amp;chksm=fbd67716cca1fe00735a96213bcd8d208d15654acb63ce8fd1e0dc0c383d8352c89ced76327f&amp;scene=27 - wechat_redirect" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B103" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651766855&amp;idx=2&amp;sn=3f501731584e8cdf6fa7d22fafc9d469&amp;chksm=bd12190a8a65901cfbad1590c49044afdf81c4df281e23dab813c51acddbace87bf93a78202d&amp;mpshare=1&amp;scene=1&amp;srcid=0117wolSN0KkwClWlrLhbYd9&amp;sharer_sharetime=1673957140359&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B104" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650454966&amp;idx=1&amp;sn=a5721d265ed07138fdad3c8e1d06b727&amp;chksm=839673aeb4e1fab8164ef508bfeddc4f4cfc2c76d8163cf209c871df94a0c3fb0b1fd7f9c9b6&amp;scene=27 - wechat_redirect" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B105" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566529&amp;idx=1&amp;sn=aaedccdf162508b78b35b99b5262e47e&amp;chksm=fbd676adcca1ffbbd669a3190c4b96561686716a2c03f813cbf71c5af8313e20eab654116c9c&amp;scene=27 - wechat_redirect" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B106" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzI1NTg3NzcwNQ==&amp;mid=2247485614&amp;idx=1&amp;sn=07571004c063b7563fa83f0b38e4f9b0&amp;chksm=ea2e7f88dd59f69e24c15d4cfee263f4dab871a8a5bc6a8ca798d76265497e418ff2c393229c&amp;mpshare=1&amp;scene=1&amp;srcid=0117kMMwZFauG8GEMkGxRgkM&amp;sharer_sharetime=1673958791203&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B107" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566515&amp;idx=2&amp;sn=45d7744b256ca6a4f3871126e6c343a9&amp;chksm=fbd676dfcca1ffc9008e4af615655bc243a502bef76ec9aa73cfa961f005a5ceddbf85135020&amp;scene=27 - wechat_redirect" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B108" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247566074&amp;idx=1&amp;sn=8c6b37aa60324b26561a5d3fae6ae9b7&amp;chksm=fbd67096cca1f98057c70929be491b04a58704d04ddf4896e77947b5927c62aea546610e1e73&amp;scene=27 - wechat_redirect" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B109" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650453241&amp;idx=1&amp;sn=d30e011ac9e416aab54eb76378b43f39&amp;chksm=83967ce1b4e1f5f79ce2067171d9c6336269edb47c88992ba765376438534ba13a6b83da287f&amp;scene=27 - wechat_redirect" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B110" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565994&amp;idx=1&amp;sn=6d57d32a8d2d81d6540a5e0219d14528&amp;chksm=fbd670c6cca1f9d034eb1a94314e838a09e843c65143995e0d133bc612596ba3817f73f99507&amp;scene=27 - wechat_redirect" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B111" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565976&amp;idx=1&amp;sn=a651d09cdd08268b1424c854790e3a59&amp;chksm=fbd670f4cca1f9e25c39dea866a2b3c4ffeb954ad078e46404656f464f45eb4081307b8476cd&amp;scene=27 - wechat_redirect" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B112" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565886&amp;idx=1&amp;sn=fbce6bf0053fc396ec28ef96b70b4549&amp;chksm=fbd67052cca1f944934c670f15d55771cd9287962d642fb0ce39208d5bd769c35bd7692ab481&amp;scene=27 - wechat_redirect" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B113" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650452759&amp;idx=1&amp;sn=9405ae3c91460fb6ad0e85389de5414c&amp;chksm=83967b0fb4e1f219afa071fd46547c54a189ff468dcf9fd33ea6b6f9ae8fefcd2df7cf1007aa&amp;scene=27 - wechat_redirect" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B114" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565718&amp;idx=1&amp;sn=5d5e7b94caa839ccf85e0b119de3ba64&amp;chksm=fbd673facca1faecf357c3478bb5d0859c0e3a9f25110e8a1ba17a561b24ec8094ab07640988&amp;scene=27 - wechat_redirect" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B115" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565711&amp;idx=2&amp;sn=7f04ddc36909ebe7301775eda5fd577e&amp;chksm=fbd673e3cca1faf50348726147937c20283f2b8c65f5f033852feeb2e9f7e4ed7c8d06c2190c&amp;scene=27 - wechat_redirect" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B116" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649768292&amp;idx=1&amp;sn=354dfe8a3186fd265dbe434738ef5599&amp;chksm=beccd21f89bb5b093f7a7ee15b4ea54e0035b445f9835d5cd8835c8d4dd460a2303bdc2eb61a&amp;scene=27 - wechat_redirect" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B117" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247565613&amp;idx=2&amp;sn=f71fdb23b678e962f4cb9e4373d0f3c9&amp;chksm=fbd67341cca1fa57fc35cbd6f260f27f9b058fe2d815aee5e0249b0f4e9c97e4e7a035460105&amp;scene=27 - wechat_redirect" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B118" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzMDE5MDgwMQ==&amp;mid=2247486658&amp;idx=1&amp;sn=0ee241fe1d39ca49fa027df3157c2011&amp;chksm=c27f487cf508c16a391b504cb12557a1e3b7b59e63c668f41b2956cddabd417d35d27a51b596&amp;mpshare=1&amp;scene=1&amp;srcid=01178Hqxu4n7E06o8irFWJnX&amp;sharer_sharetime=1673956927457&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B119" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651766615&amp;idx=2&amp;sn=89b1399f902ce8b01d2e5dc45c11ec43&amp;chksm=bd12661a8a65ef0c8ac325db5450c1ce7e62dfeb87120569aca449afdbcc24a1e0a112eadbe6&amp;mpshare=1&amp;scene=1&amp;srcid=0117flm3zao0X73AS87VEsRA&amp;sharer_sharetime=1673957162379&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B120" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247499655&amp;idx=1&amp;sn=0af7ce51790e7de995b989250af545ac&amp;chksm=a6918c6a91e6057ca610820f4207531dd77de9541a534ab6df033691b21023d2c6a5d3736e70&amp;scene=27 - wechat_redirect" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B121" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg2NzU4MDM0MQ==&amp;mid=2247484702&amp;idx=1&amp;sn=33891737a46268a28d6676ca1e2e8212&amp;chksm=ceb825c4f9cfacd2b0cb6ff6106940043d708260b561285cc7459a17bd65d3d16e3ddce95707&amp;mpshare=1&amp;scene=1&amp;srcid=0117GxgZME41q4MyG15aaS66&amp;sharer_sharetime=1673959171765&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B122" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247564687&amp;idx=1&amp;sn=2825449485d6fae3ae2005c822ce8dc1&amp;chksm=fbd64fe3cca1c6f5277e84d19e723e2ff4e165ced14d94d53bf93ce73878943ec9d7c0f005d3&amp;scene=27 - wechat_redirect" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B123" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562574&amp;idx=1&amp;sn=2c5c787485131673da963e4a1ca8610a&amp;chksm=fbd64722cca1ce34155e3c4507bea25b4debca0c0cbcb88871bcc3f6637efa4c7452d24ec092&amp;scene=27 - wechat_redirect" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B124" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562529&amp;idx=1&amp;sn=6bae7191d8f711d68c1520f4e8a28c7a&amp;chksm=fbd6474dcca1ce5b112eb645ff15d173c7054d2343b16e4d3674201c4481314fa9297b90b0b7&amp;scene=27 - wechat_redirect" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B125" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562443&amp;idx=1&amp;sn=e648c2b1fcd04c94fe39c74176b5d5d5&amp;chksm=fbd646a7cca1cfb135acbd3ee5e460e846dd7851c24f5b8ed2b30556d967f5ad2ae54862f6b7&amp;scene=27 - wechat_redirect" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B126" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562403&amp;idx=1&amp;sn=b639f10eabbc85c33cb47773f6e7f927&amp;chksm=fbd646cfcca1cfd94d90c73d665d9a056bf90e40b8c9857d5f5476f6ae8f1eb41fff5302508f&amp;scene=27 - wechat_redirect" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B127" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562398&amp;idx=1&amp;sn=a4a75e80defd853797980fc99a09b6b3&amp;chksm=fbd646f2cca1cfe4fab6870c681e40db76cd1b0bebdd55f93034ed812ac1ac1f38908a2a6d59&amp;scene=27 - wechat_redirect" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B128" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562297&amp;idx=1&amp;sn=38d236570827c2d8422dbfe1fbc93819&amp;chksm=fbd64655cca1cf43815128dc9a8b7adf5efe1d6779fa7feb60ad9f1414767cf57623cbbd41f1&amp;scene=27 - wechat_redirect" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B129" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650451312&amp;idx=1&amp;sn=a9bf674c661cb9f4ea5b9a1a86b874ac&amp;chksm=83966568b4e1ec7eb52f139edd3ede3df3fb6b23f4a4951be6b66db1390264b58e4a5ee43329&amp;scene=27 - wechat_redirect" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B130" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247562067&amp;idx=2&amp;sn=9a47510cfb928f3d0001428f3a1f7555&amp;chksm=fbd6413fcca1c829d11e66edf61b8cfa7b0b735ac3425fb3f67cfdfb041f9dbc5d247f06391b&amp;scene=27 - wechat_redirect" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B131" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247561697&amp;idx=2&amp;sn=9db06881ce75388999f96276289f2bf2&amp;chksm=fbd6438dcca1ca9b4c7c1f40224c735499a6bacc952640d4a1f3cb1233d3a5e2b53c2ec983aa&amp;scene=27 - wechat_redirect" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B132" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247561513&amp;idx=1&amp;sn=5b818890be25a6b346041bcd45f9b5c7&amp;chksm=fbd64345cca1ca5395f1cd95f1cc0d0f9b4bcbd330f26e2fea657424bde76bd74b57bf989720&amp;scene=27 - wechat_redirect" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B133" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247561463&amp;idx=1&amp;sn=264c42e7c9207cd57e0f13937985a869&amp;chksm=fbd6429bcca1cb8d461a43081195f95972c08d8055680d0b7fed174734abf042162f673d0913&amp;scene=27 - wechat_redirect" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B134" display="https://www.bilibili.com/video/BV1QS4y1j7yK" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B135" display="https://www.bilibili.com/video/BV1GY411h7MH" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B136" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650450365&amp;idx=2&amp;sn=cac748e80be91c0ef674b0f5cffd8892&amp;chksm=839661a5b4e1e8b39164b66b6d3c34f673353b623f8e77d8588488696992dad60f205192d56a&amp;scene=27 - wechat_redirect" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B137" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650450321&amp;idx=2&amp;sn=f80e1432c9d601cdead700c4a2f4c9c6&amp;chksm=83966189b4e1e89fff4e286b3543aaa4caa1a897bcd65f49754d6a35735e04299cac329102a2&amp;scene=27 - wechat_redirect" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B138" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650447143&amp;idx=1&amp;sn=28572b3214b41042573190f918fec5e2&amp;chksm=8396553fb4e1dc299959b25ebba018de65a0ad01f764cff9be3691be7a28efe20bc494af76a0&amp;scene=27 - wechat_redirect" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B139" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247560198&amp;idx=1&amp;sn=d6245b5ad0e0a45828d8a5a3d42565b3&amp;chksm=fbd65e6acca1d77c4219211313cf049d7c3b3f1380137f4a4057180e3453ac286cc90489f3a2&amp;scene=27 - wechat_redirect" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B140" display="https://zhuanlan.zhihu.com/p/448175622?utm_medium=social&amp;utm_oi=32492828491776&amp;utm_psn=1598782592987373568&amp;utm_source=wechat_session" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B141" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650445597&amp;idx=1&amp;sn=3cf659eb6888d315eef88a40ca01b35e&amp;chksm=83965f05b4e1d613ae13a009563d6ddd5cefe111249309968461b388dba2b9fceb6c059014f9&amp;scene=27 - wechat_redirect" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B142" display="https://www.bilibili.com/video/BV1QP4y1n7vD" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B143" display="https://www.bilibili.com/video/BV1CL411j7sP" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B144" display="https://www.bilibili.com/video/BV1Bg411w7ib" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B145" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247559222&amp;idx=1&amp;sn=9bd74ce22471f24c67ede5664e3d52ca&amp;chksm=fbd65a5acca1d34c479c885f71f9c936be3dcacdf07a6b93804497ce2a80e6e1dbbd6c2ccb01&amp;scene=27 - wechat_redirect" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650445349&amp;idx=1&amp;sn=bb8ad24cef7f34bd46fe35d0cb370958&amp;chksm=83965e3db4e1d72ba530d9f06acaa2d0432338935e9585e530958dba2d42f20971047b0b0c78&amp;scene=27 - wechat_redirect" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650445139&amp;idx=1&amp;sn=c43febc0a43bf5b4165d06cceffd873c&amp;chksm=83965d4bb4e1d45d50fd46a3776bf9ebfe78477c45a872aba220ff37aa331fda2fe07874c803&amp;scene=27 - wechat_redirect" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B148" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247558984&amp;idx=1&amp;sn=b43d63234470d398222d969bd832ceb4&amp;chksm=fbd65524cca1dc3237395c3d5971388533d363d8d8ea0ac15ab7ae1fe1f976e04b35abe4a17a&amp;scene=27 - wechat_redirect" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B149" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247558876&amp;idx=2&amp;sn=9661f9e62d675dc9c6c1e1755166f475&amp;chksm=fbd654b0cca1dda662a444099587fb756253ff670453f1093fbdab68caffd9ce31c3864a86c6&amp;scene=27 - wechat_redirect" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650443071&amp;idx=1&amp;sn=b61d6b1fdcf0c61bccb3988dd2516616&amp;chksm=83964527b4e1cc31a67ced58e4a1559d8214f5a560258aaac51223c393ec829d3d2ede1faadb&amp;scene=27 - wechat_redirect" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" display="https://www.bilibili.com/video/BV16M4y1P71Y" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B152" location="rd" display="http://mp.weixin.qq.com/s?__biz=Mzg2NzU4MDM0MQ==&amp;mid=2247484410&amp;idx=1&amp;sn=6eb90265ecadfd8a6239142e82d2791e&amp;chksm=ceb82320f9cfaa3605c0808a6cc59e1272e4bd66966707bfea69c443bf6f94e7f084d0fb68d0&amp;mpshare=1&amp;scene=1&amp;srcid=0117gma2C2J5yABFspK8xOMO&amp;sharer_sharetime=1673959158573&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B153" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247557961&amp;idx=2&amp;sn=cfaf7721b9c7892654fb6d22fc3dcb9a&amp;chksm=fbd65125cca1d83361018b1cb258acf75919d79989f306bb031eb61a86aa60e38423ce26b7a3&amp;scene=27 - wechat_redirect" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B154" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650442614&amp;idx=1&amp;sn=9f70b34865023eb21948da0e1048caa8&amp;chksm=8396436eb4e1ca7838bee45c86575fd55a5ab4890d00ab39c8a79f9d7152a19ed7c173139ebe&amp;scene=27 - wechat_redirect" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B155" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651765674&amp;idx=1&amp;sn=55f3a13f9b2ecc1b0c28a76e76b35727&amp;chksm=bd1262e78a65ebf12783a6b593cef4f8fe0a5b1f41eac019ce707ff01cc9c307e6febcefc634&amp;mpshare=1&amp;scene=1&amp;srcid=0117VHqucNGNj19mtFAk5cYg&amp;sharer_sharetime=1673957152451&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B156" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247557338&amp;idx=2&amp;sn=ab7ae767a2504d9cde93552d35d402fd&amp;chksm=fbd652b6cca1dba0bac36a18cd430d38d30d76f1f9112bde9fc42e8c723eb4a3a71c50fdcafa&amp;scene=27 - wechat_redirect" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B157" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247556442&amp;idx=1&amp;sn=61144058d5ac801109ca343d4480295d&amp;chksm=fbd7af36cca02620de8ad397ef047fc8f1dfc896c6a44c935e79f19eccea6194e471f6252283&amp;scene=27 - wechat_redirect" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B158" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247555956&amp;idx=1&amp;sn=9495f84c782e741e7609b5e0ba8b9833&amp;chksm=fbd7a918cca0200eb0d1aba6a17889b91b0235df7edc6e5b4c611aabc464357d445f2c6ee132&amp;scene=27 - wechat_redirect" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B159" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247555887&amp;idx=1&amp;sn=72e77940abd250906cf42e03c8027c18&amp;chksm=fbd7a943cca020551709b8e89bfc1c5c494fae68beb2d87d14cbea17f83455524443539469f6&amp;scene=27 - wechat_redirect" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B160" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247555532&amp;idx=1&amp;sn=df29d507d23d2431687d85b3ac865763&amp;chksm=fbd7aba0cca022b615356a849cc9b60c32e0461d8d50328f5024408e0a4acda5ecb688600234&amp;scene=27 - wechat_redirect" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B161" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247554796&amp;idx=1&amp;sn=e96ad50dfbf4e2b54cfff9ee3ee122b7&amp;chksm=fbd7a480cca02d96c66772353c5e4b54fc80d2577775337a53b6d916e753c2cf08af9d858be3&amp;scene=27 - wechat_redirect" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B162" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649765103&amp;idx=1&amp;sn=7da591618dfacca5314f77634861bd1e&amp;chksm=becca79489bb2e82f1d4bb047b759a75c98257980e09514ebf83f72177a5aafec7945e340f8c&amp;scene=27 - wechat_redirect" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B163" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247496575&amp;idx=1&amp;sn=ea69970e5ce1e56683c0dfb5491e4c63&amp;chksm=a691809291e60984f7e09ea5912be01f732fad486f8c1439152d6744b745c0989c8a5a38c713&amp;scene=27 - wechat_redirect" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B164" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247554470&amp;idx=1&amp;sn=2ff40b9e09a4424c850059053a065178&amp;chksm=fbd7a7cacca02edca60d87ea1be7ec4ec489d1688a67e4451e8c8cb42f8d4da0027cbc4abe8e&amp;scene=27 - wechat_redirect" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B165" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651765021&amp;idx=1&amp;sn=3ac05ac64f650bcedd4f75d5aa715771&amp;chksm=bd1260508a65e9462f356aab0fc0df37e4860628f3f404db9099b8195991bfd9a4542c35dd80&amp;mpshare=1&amp;scene=1&amp;srcid=0117FB6mPZqwGWEVytjcUxEH&amp;sharer_sharetime=1673957236741&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B166" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247554157&amp;idx=1&amp;sn=cec38d80b7d75845c6af5bca7bf9087b&amp;chksm=fbd7a601cca02f17ff5c1c5baee827ca106761579fdacc03e082e8034978a4860bf7d4c63dc3&amp;scene=27 - wechat_redirect" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B167" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247553674&amp;idx=1&amp;sn=93fd72425a2e1fc8a1aaaa48075a7f09&amp;chksm=fbd7a0e6cca029f099db1ee7f6d44e0bc32ad91f21d661573be58e8e2d323aa822c37fa0219d&amp;scene=27 - wechat_redirect" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B168" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247551834&amp;idx=2&amp;sn=98052911088d340991cec0c6c804f389&amp;chksm=fbd7b936cca03020aaae4b4c5820e678017589affa19dedfe4fea56059c10c6922380ea65a6c&amp;scene=27 - wechat_redirect" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B169" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247550322&amp;idx=2&amp;sn=5f46d888ca18541b9b3d9929cdbb369f&amp;chksm=fbd7b71ecca03e089c2a6c7996fef0b640af5f8ea79c000418847847e69276d07035bc483370&amp;scene=27 - wechat_redirect" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B170" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247549101&amp;idx=2&amp;sn=08fab37f73d47f7215e0a5f8fd1ad24c&amp;chksm=fbd7b2c1cca03bd716dcd437fabd34bdf9fb802dbef59e18039dede88511ff113864352b1172&amp;scene=27 - wechat_redirect" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B171" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650433549&amp;idx=1&amp;sn=7e352d215146a445ea47a566a4aa8411&amp;chksm=8396a015b4e12903e30ea108bb8fd4c963d4b0af6bd691a869ec77220211427084a60ce57cf1&amp;scene=27 - wechat_redirect" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B172" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547626&amp;idx=2&amp;sn=3954ffc136544fd683b1629c9df8a978&amp;chksm=fbd78886cca0019084a7b35ed0fa21e5f753a22d172c4b63dbe756d2b5581242fdf8c7280fe8&amp;scene=27 - wechat_redirect" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B173" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547435&amp;idx=1&amp;sn=d629f799eb85ac8e90c6962cd424d7ee&amp;chksm=fbd78847cca00151fdd192d1152aaae4cc7ec1b7a1a67487f4e5619070475020b8fc0fb83de1&amp;scene=27 - wechat_redirect" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B174" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650433132&amp;idx=1&amp;sn=d3d9df3adbb8533eaa2f60f80dd8fc2f&amp;chksm=8396ae74b4e12762ac17b45a41e0e4b98d2cb3493eb6e44b0e338d3b594f685efa43bff5a4ce&amp;scene=27 - wechat_redirect" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B175" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547345&amp;idx=1&amp;sn=343a931f247a2ebc0e53b40298b0bb17&amp;chksm=fbd78bbdcca002abce76f5c4bf6aca9d44e45bf9e16ee219ac33620521b9e2c81186c1933ad8&amp;scene=27 - wechat_redirect" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B176" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547245&amp;idx=1&amp;sn=e5d4731f4b0b665057786318c6fac68c&amp;chksm=fbd78b01cca00217b66667d41cdbee41ebce14a58d8c9f99ce48838ffd4713560e78919e6ede&amp;scene=27 - wechat_redirect" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B177" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650433059&amp;idx=1&amp;sn=7282fc6987a94b5d32d88ffc513dcc15&amp;chksm=8396ae3bb4e1272d3cc9a73ce8b2cd7aa6914c80958e57b13bcdba379fdbe755ac7d304547f3&amp;scene=27 - wechat_redirect" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B178" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547145&amp;idx=1&amp;sn=de1b92402bf93a5777ab0e7faac3dd57&amp;chksm=fbd78b65cca0027348e33d8be4c044b190a25129cbd12cad5dedef08f90c87e42796a1fd14f5&amp;scene=27 - wechat_redirect" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B179" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247547084&amp;idx=1&amp;sn=7bcfbba74623c84bcc850bd042c279b6&amp;chksm=fbd78aa0cca003b6726344ce152f7ddcb1fae15932c262c042b43783260b1b7b69ce15524cdc&amp;scene=27 - wechat_redirect" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B180" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247546914&amp;idx=1&amp;sn=b553a4d0cb60b9220b967970f9b54b13&amp;chksm=fbd78a4ecca00358b84bd7d41eda415ea50169fe7b23bb27009bc526ccabe7dd9cdbf1707411&amp;scene=27 - wechat_redirect" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B181" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247495242&amp;idx=1&amp;sn=c739912e3f2116eb000255ae368b3c07&amp;chksm=a6919da791e614b17afc52b99157ac735a66990946b42ca9ae437f96c112f8cd08d4cbfca128&amp;scene=27 - wechat_redirect" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B182" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650432692&amp;idx=1&amp;sn=db725557ba260b82ca2601d578687916&amp;chksm=8396acacb4e125baa2f9fb61e7b30015e9bfaf7cc327734ce6193e0e6378dcc9637486eb6935&amp;scene=27 - wechat_redirect" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B183" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247546474&amp;idx=2&amp;sn=ada65eaa15c7beef9c2f70f586d8dfbf&amp;chksm=fbd78406cca00d10b2532ffe6c937ef216cfa96c90efaf91901233d8dbd1be11aa396a5bfafd&amp;scene=27 - wechat_redirect" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B184" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247546358&amp;idx=2&amp;sn=b8b5605be6321a2e3291733aafc45053&amp;chksm=fbd7879acca00e8c8f1891dbc01322991153e72a45a7b468a2c5a160acb1300ecc44843be1cf&amp;scene=27 - wechat_redirect" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B185" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247545833&amp;idx=1&amp;sn=9feb4b0a4b6ab469a434df7696efaadd&amp;chksm=fbd78185cca00893a23e1a61d49c0d5e86e291450a1d8444c171fbd0a07d9365ae358d021175&amp;scene=27 - wechat_redirect" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B186" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247545777&amp;idx=2&amp;sn=bf9ee1e9d70148449f0643532fca9db6&amp;chksm=fbd781ddcca008cbbec49ba2d0a31fd36f7390828ac5e9ebce831a2a787d29f18cdd38c93732&amp;scene=27 - wechat_redirect" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B187" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247545585&amp;idx=1&amp;sn=d45b4e3909c2f1677d9900d8f07718a1&amp;chksm=fbd7809dcca0098b70f8213ac4c86badf8921cc680a462d98fd52ee3a84f5d2ffb23187a49ec&amp;scene=27 - wechat_redirect" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B188" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247545317&amp;idx=2&amp;sn=acbd7df8a7554d92cb086febf4f3c0bd&amp;chksm=fbd78389cca00a9f3fd3d3bbca7b61447c82566a5185db052cbac8241adc1164bc81685e2701&amp;scene=27 - wechat_redirect" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B189" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247544207&amp;idx=2&amp;sn=4adac4d8c43122374905f236634e2b0e&amp;chksm=fbd79fe3cca016f5f2896aa33cebd1442569f73aa8c807d4c0a0ac8753898e42fa736552bf1d&amp;scene=27 - wechat_redirect" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B190" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543721&amp;idx=2&amp;sn=c4a4a98515f9f33be4b505977acb4499&amp;chksm=fbd799c5cca010d3f62d23492016a42221f2cad319507541e6ce52a6d4c41bd19608ab267979&amp;scene=27 - wechat_redirect" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B191" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543682&amp;idx=1&amp;sn=49bb76a0dd3eb1263a1e5e204c95857e&amp;chksm=fbd799eecca010f8fd2ec7376d7b304f6bf88c7dee9cd7305c9c9bcf7fdc3e6bc3ad22184207&amp;scene=27 - wechat_redirect" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B192" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543460&amp;idx=2&amp;sn=833b99ad67ff1914b94453aaa1e752c8&amp;chksm=fbd798c8cca011de8743b244e2a39159e26691a963d6a046280b6dbdd6bd7e6f38ae4df53e33&amp;scene=27 - wechat_redirect" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B193" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543441&amp;idx=2&amp;sn=2d283f1e03d1731d8a06a8f7b2115872&amp;chksm=fbd798fdcca011eb3135738e25b4aef91b2a7305641c2ae505268a01e665014c1a77fe30583a&amp;scene=27 - wechat_redirect" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B194" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247543407&amp;idx=2&amp;sn=5ef8d7ada9e6060d0f88c303602b3db5&amp;chksm=fbd79803cca01115ac9ea59e34afb653d3d9f1f7fd2857f77d6252cd0cd62aa1f47d7434a93e&amp;scene=27 - wechat_redirect" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B195" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650431219&amp;idx=1&amp;sn=0b66e25d6693363d34cafbb6abc72fa8&amp;chksm=839696ebb4e11ffd2dc45c654d5e6b254625719b6a4e01ce4186218c3f147dd3dd5398590680&amp;scene=27 - wechat_redirect" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B196" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247542308&amp;idx=1&amp;sn=822ad9c80b39f9fd281573f2deb610ac&amp;chksm=fbd79448cca01d5e9697b7a943cb550483685ddfe10222abf4612aa29007481d35b11a461b85&amp;scene=27 - wechat_redirect" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B197" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247542213&amp;idx=2&amp;sn=d0708ac37e8805c8ff385600bc3888e1&amp;chksm=fbd797a9cca01ebfccee12ef66cf7b9dc19753e960dbf1de254520c050e7131740b382f34ac8&amp;scene=27 - wechat_redirect" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B198" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247542183&amp;idx=1&amp;sn=4f844163c99f7ee554554b4be1e31512&amp;chksm=fbd797cbcca01edde5bd80a9ab67ff22a250ab98d473694105a83b9ae242f8867fcbf11a4d38&amp;scene=27 - wechat_redirect" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B199" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650430647&amp;idx=1&amp;sn=de550537683d9444813a16703d60780e&amp;chksm=839694afb4e11db952c355a6b1f6f9bad00e713de7a5f9bbe847a5dbc0cddd4cabc3c604ca47&amp;scene=27 - wechat_redirect" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B200" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541942&amp;idx=1&amp;sn=60eeeb4a69f817d2cff29750f8b7fbdb&amp;chksm=fbd796dacca01fcc8ff53c481fb219368b24b48b4e44c068f588b9d1921742ef973663cf23c6&amp;scene=27 - wechat_redirect" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B201" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650430600&amp;idx=1&amp;sn=313876949aa19b5d38e4f9363abf7b27&amp;chksm=83969490b4e11d86ca19aea8c1e9034577051dac13f5ce04a3e241b3732dbc75d65f35cc1be2&amp;scene=27 - wechat_redirect" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B202" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247494303&amp;idx=1&amp;sn=b1d8d66bd590e66158b5ce745f2dc6ea&amp;chksm=a691997291e610645cd6962a33c83945ddbc42a1630ac48bbef53bad9f22239a6db81a20a7cd&amp;scene=27 - wechat_redirect" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B203" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541722&amp;idx=2&amp;sn=828032935a3f384d75fbc54a1396cf12&amp;chksm=fbd791b6cca018a021c5e53221b684aba588f03176e3b9cc2b839b6820f8c8766b79a074e4fc&amp;scene=27 - wechat_redirect" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B204" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541692&amp;idx=1&amp;sn=478e62d4865aa51a84f1d89ef0d862c0&amp;chksm=fbd791d0cca018c6e5445ee84e6bccfc698d72d68e23e8b989ce3ff428c722ce019254ad6281&amp;scene=27 - wechat_redirect" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B205" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541265&amp;idx=1&amp;sn=5446849bfdf0f0ce571e5eac412dd04b&amp;chksm=fbd7907dcca0196bb199142242773bf89fb3393c6a9e594a8ecead15ef20b86d2456faa05280&amp;scene=27 - wechat_redirect" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B206" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541235&amp;idx=2&amp;sn=eeb61de139b90caa87add3aacf39ed29&amp;chksm=fbd7939fcca01a89391bc124f54ccf8e58baca2b597b54b39ba3c9dbd3c5b9bdac6e5fb6809f&amp;scene=27 - wechat_redirect" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B207" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247541036&amp;idx=1&amp;sn=136c52347a6e6fde29d9f7604df4d0e8&amp;chksm=fbd79340cca01a5618af600e66f2dd392cdd0fe8615cacf3d20ec55e0167a7108dfd6c0859f1&amp;scene=27 - wechat_redirect" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B208" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650428919&amp;idx=1&amp;sn=2a687d967536d65d31f026243b74479a&amp;chksm=83969defb4e114f9ecf975a4b55836e0be86748cd76cc1cf3e3e2db6344478925c4c454ace32&amp;scene=27 - wechat_redirect" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B209" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650428918&amp;idx=1&amp;sn=3d1b828d0bc685a357a13a607cad365c&amp;chksm=83969deeb4e114f81484cb3c0216c0a6cdf55ae2d6dc824963fd7ee2cb2b09978a906aabda1c&amp;scene=27 - wechat_redirect" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B210" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247540489&amp;idx=1&amp;sn=56258f5ebcff70e17e6d026aba8fd059&amp;chksm=fbd7ed65cca06473cd2ff831b68672ec1b19f43b993c6bcd8d7fd5c3bfbffe6898f2a6a79855&amp;scene=27 - wechat_redirect" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B211" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247539967&amp;idx=2&amp;sn=6c386bbb663d5c15432c4b319e7cab15&amp;chksm=fbd7ee93cca06785618c0a96e69fb9ec45af73e9a1bcfa4cf03e33c2e14b81409702676b878e&amp;scene=27 - wechat_redirect" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B212" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649757741&amp;idx=1&amp;sn=b77ae57ee2c7ab4c9621ec4cfbca1a85&amp;chksm=becc8b5689bb0240959c0bbd40a104f0646b235f09e89cf20a01099d9d4bdc8843bd499f3d8c&amp;scene=27 - wechat_redirect" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B213" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649757740&amp;idx=1&amp;sn=51e5809fcf1b2f148dfd284d4628c57a&amp;chksm=becc8b5789bb0241136a70f726c94007f8b61d62bc87a6d4f09ca8d8d80eff5382c735fae685&amp;scene=27 - wechat_redirect" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B214" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247538234&amp;idx=1&amp;sn=8626d27fd350c9f3008fdb5944cfb608&amp;chksm=fbd7e456cca06d40a769a4241877a3beb494e94a6a548687ca3b449510a7320f26d30db979ab&amp;scene=27 - wechat_redirect" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B215" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247537974&amp;idx=1&amp;sn=116f1bcaa683ea35587b0483d9599d4d&amp;chksm=fbd7e75acca06e4c560519cac81cb324be3737b524beca1a249ac114dbfa99109e1fb71361f7&amp;scene=27 - wechat_redirect" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B216" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247536974&amp;idx=1&amp;sn=77201e9ee0390fa0652424e67e6b2b2e&amp;chksm=fbd7e322cca06a34698caf1c601871fcfd3e39f19e947fc871fb57760fc6d8f9f00c0e5e9c8b&amp;scene=27 - wechat_redirect" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B217" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650423941&amp;idx=1&amp;sn=de554547923b2a5bed291727600c6756&amp;chksm=83968a9db4e1038ba8f117a02555969fd1d5c8999c988219a64de43ab300ca838ead9520ab73&amp;scene=27 - wechat_redirect" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B218" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247536094&amp;idx=1&amp;sn=b5fa05a617b40d0af80f5d2c13933e26&amp;chksm=fbd7ffb2cca076a4139ee592d1bc6884cc3e778f588c89048ebbe0ac1b07f3e659013e230842&amp;scene=27 - wechat_redirect" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B219" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247534298&amp;idx=1&amp;sn=21ad88daaedaf33566862e27efc29f5e&amp;chksm=fbd7f4b6cca07da043296b689ededb9923057f68e551c2af0f73a805bf4b38f6c9279b019d84&amp;scene=27 - wechat_redirect" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B220" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247533960&amp;idx=2&amp;sn=6c73cfb81818554c26add442a3fc92af&amp;chksm=fbd7f7e4cca07ef24457e2a9894e99204c895785202d72257d531b773760b8d1e21df9f08858&amp;scene=27 - wechat_redirect" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B221" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247533885&amp;idx=1&amp;sn=4bacb967f194d00e69798f9a3b0eeed2&amp;chksm=fbd7f751cca07e47e466094605201bfcc5feff89e273a1aa59b64d5aeb6ffb0b2aaee9a99678&amp;scene=27 - wechat_redirect" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B222" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247533568&amp;idx=1&amp;sn=2b8c694ff43bb451ff1e70b49a7bd97b&amp;chksm=fbd7f66ccca07f7a29d0eb0389cd4231707d6588219af0fff94b22e43d8106161172aff9f16c&amp;scene=27 - wechat_redirect" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B223" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247533308&amp;idx=1&amp;sn=f25852e94c1f0c3535312961342b2933&amp;chksm=fbd7f090cca07986161d65abbf1f8bdc7858775a75de302f591c31ed992e9816682d44e6b311&amp;scene=27 - wechat_redirect" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B224" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247530926&amp;idx=1&amp;sn=43527db30cd5d0584a8f112426d8720f&amp;chksm=fbd7cbc2cca042d4c0620396c3acc6752c8b6a9f5c7980a9f7ac44a72c040e0d0763ced31606&amp;scene=27 - wechat_redirect" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B225" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247529736&amp;idx=1&amp;sn=d24b824c6ff0841a851f123800b87ea4&amp;chksm=fbd7c764cca04e722b39cc29e05eb4e5009ea9f66a5b0e502653c8086a56defb1dec257893aa&amp;scene=27 - wechat_redirect" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B226" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247529654&amp;idx=1&amp;sn=77b68c348d19685b57523056b8762c8c&amp;chksm=fbd7c6dacca04fcc3edf402e37fef4bc7eacfad21a99c37e28131501fbbe3a74033ded30732b&amp;scene=27 - wechat_redirect" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B227" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247529612&amp;idx=1&amp;sn=57e147d705ba3faebb8acb91e18c5bc6&amp;chksm=fbd7c6e0cca04ff616575d710a545f98e79db90394e76b9d5f5f3589124efa8a88d6f99aaed1&amp;scene=27 - wechat_redirect" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B228" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247529074&amp;idx=1&amp;sn=877e42d49b4474eb488a32ec3b5e9108&amp;chksm=fbd7c01ecca04908f40d3907a719b850cbf1cfb87afb83e4cc62e8255b7714bd65504d639e54&amp;scene=27 - wechat_redirect" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B229" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247528876&amp;idx=2&amp;sn=717b0426ccbcc168d0fa9fbad3fc2c8a&amp;chksm=fbd7c3c0cca04ad662db295c96894f85b89a36d074565a326a53ad9d8870944bce48da2be748&amp;scene=27 - wechat_redirect" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B230" display="https://zhuanlan.zhihu.com/p/344165004" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B231" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650418474&amp;idx=1&amp;sn=6b1e3ff914e68607c006a07a5b880296&amp;chksm=8396e532b4e16c24734511e21872e995f5191943628eca791eb819a3899cfd6904996d09f461&amp;scene=27 - wechat_redirect" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B232" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247523713&amp;idx=1&amp;sn=06a41fb141e2fcdd0b723874f5090481&amp;chksm=fbd72fedcca0a6fbb4f4b89720e379bde71a9f25579e2886b7629ad3e7f4f7eb7b550ca9e9f5&amp;scene=27 - wechat_redirect" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B233" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247522939&amp;idx=1&amp;sn=8dfedad371667ef3ebd5621cbb882a25&amp;chksm=fbd72817cca0a1015e484b805bd5ef5c9442b47e1f45a9643cfc56bbc7a5787bad19ae4d1351&amp;scene=27 - wechat_redirect" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B234" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247522902&amp;idx=1&amp;sn=55111acdfdc00dc59fc0fb10dfe9e0dc&amp;chksm=fbd7283acca0a12c23a5b77a2413c25956a63c348c48f9fe01787d3d155d5fbcd183a0f09e90&amp;scene=27 - wechat_redirect" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B235" display="https://zhuanlan.zhihu.com/p/348595873" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B236" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247522599&amp;idx=1&amp;sn=24ab674235a3bc1a3b9944894bb6715f&amp;chksm=fbd72b4bcca0a25d7287bf4ad0ec5becdb1ceb800966c9f7cf1ecacf807187f3a5a9d13f71a0&amp;scene=27 - wechat_redirect" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B237" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247520759&amp;idx=1&amp;sn=4aaab934ad388ce03d3af0a3e812ce9e&amp;chksm=fbd7239bcca0aa8d37d22880608f7704c51104f79b5bee016a7b4692dc3340e983dae0c0fa31&amp;scene=27 - wechat_redirect" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B238" display="https://zhuanlan.zhihu.com/p/338515054" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B239" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247519854&amp;idx=2&amp;sn=b373b930f2409b56c3d27193f8b7fd1f&amp;chksm=fbd73c02cca0b514bf784919121c46963cdca4aa944336dfeb8c5b7f5b5211de0b746f4eee23&amp;scene=27 - wechat_redirect" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B240" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247519343&amp;idx=1&amp;sn=4f23cfbc240fcaac5d05a6411362a3fa&amp;chksm=fbd73e03cca0b715ff529d524b1d36efc4a7c52c904fdc07f5858ce06943de1e4acd381b0ae5&amp;scene=27 - wechat_redirect" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B241" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247518591&amp;idx=2&amp;sn=483cec95afbfc61aa0b6736ebae47b3c&amp;chksm=fbd73b13cca0b205887dfa2e03a092cb9bda9b2f22e823ea378ef96cf24a9a75775c47f9f170&amp;scene=27 - wechat_redirect" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B242" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247518142&amp;idx=1&amp;sn=6c7484ca8f4d55fc96e2e8a87ab4cbb5&amp;chksm=fbd735d2cca0bcc4d56252639dd615aee574a520cc37ce7d6401cc7ef44f7e8f9b79739e78f9&amp;scene=27 - wechat_redirect" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B243" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247517980&amp;idx=2&amp;sn=bc82b69449a005f76284a475c46a7ec2&amp;chksm=fbd73570cca0bc66302d7bdb893e4c391197004baf376a0fa3e52ad68052ba7bc66ee0e0a723&amp;scene=27 - wechat_redirect" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B244" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5MzY4NzE3MA==&amp;mid=2247489906&amp;idx=2&amp;sn=ef3edb0c5ea102b92beaf3731f928af3&amp;chksm=a6926a9f91e5e389230aa102870b24102d73e7073c75c5bfd997f8d8b8d6b9b14808326ff011&amp;scene=27 - wechat_redirect" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B245" display="https://zhuanlan.zhihu.com/p/337649676" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B246" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247517708&amp;idx=1&amp;sn=d44835c9bc1099aeb6b6c40b8c32fad5&amp;chksm=fbd73460cca0bd769dfa2a3379649c14b78528cfb8e9df0fa3807bbcf6cef3f9324a52a83a97&amp;scene=27 - wechat_redirect" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B247" display="https://zhuanlan.zhihu.com/p/270354109" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B248" display="https://zhuanlan.zhihu.com/p/329877052" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B249" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247517070&amp;idx=2&amp;sn=367376c143ca8f5e526b33d93518ea16&amp;chksm=fbd731e2cca0b8f4c97ea4f22464c6ee101e853f2a95b8159763c72e723d8902843a13970bf9&amp;scene=27 - wechat_redirect" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B250" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247516794&amp;idx=1&amp;sn=a3f2243dfba429f3956514c2e00aca1b&amp;chksm=fbd73016cca0b900bce56933e86d12237c7ca5e7ada3532d104e18e5a03d60167683b23aaa38&amp;scene=27 - wechat_redirect" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B251" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651755958&amp;idx=2&amp;sn=bb2a7e9e3817d9993a9137dfeb6b5ec4&amp;chksm=bd124cfb8a65c5ed3453a6473b556df1968e9f983da94bcab6610f718bfed2b37be5bd3ad7ae&amp;mpshare=1&amp;scene=1&amp;srcid=0117wmg82Cvm9SxD2roqqbzV&amp;sharer_sharetime=1673957290926&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B252" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247516481&amp;idx=2&amp;sn=fe9b5f5d0caaa8c142abdb1803336c8f&amp;chksm=fbd7332dcca0ba3b3d27055d9325be56b0fc54106cd0d36ad3a3ac88ce1c3d0e49ff1ebb5c33&amp;scene=27 - wechat_redirect" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B253" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649754988&amp;idx=1&amp;sn=e1d382f8337b5b29085f7e495e85cd0d&amp;chksm=becc9e1789bb1701c6dffa631ae135217240fb436bbc542b36af7a8b6a64b2c7c6f3bb988ce8&amp;scene=27 - wechat_redirect" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B254" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247513875&amp;idx=1&amp;sn=75f718e9c7a27e37a753bd7d7e3c1fd1&amp;chksm=fbd7057fcca08c690d7b5aab77ff92a374e8f88b722815c421e0d69d1fecad73fec888969a7c&amp;scene=27 - wechat_redirect" r:id="rId253"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B255" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247513629&amp;idx=2&amp;sn=afba7c17c3f59a9ad04598584aaf181a&amp;chksm=fbd70471cca08d67fd0a4feb6febf613746e1bce6b03e72f6a47c82886f9008e4d1a0dec2683&amp;scene=27 - wechat_redirect" r:id="rId254"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B256" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247513593&amp;idx=2&amp;sn=376de870c28403fa35087e438a4e6279&amp;chksm=fbd70795cca08e838ee482038a321031db6f4725accb631d92587f111a856ea7217a7727b083&amp;scene=27 - wechat_redirect" r:id="rId255"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B257" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247512282&amp;idx=2&amp;sn=7174703572f4609d8cc471de41f84762&amp;chksm=fbd702b6cca08ba085c7c2e84b47c4cea10be3400790a6ada49bf1e19e6dd2f996b89685a534&amp;scene=27 - wechat_redirect" r:id="rId256"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B258" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247512229&amp;idx=1&amp;sn=fe8430b49e6d5fd73e0f9c5cd9d0aaf6&amp;chksm=fbd702c9cca08bdf665cb5628d380e25073dd18366372ff75243f0d9491760f6030a10aebc01&amp;scene=27 - wechat_redirect" r:id="rId257"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B259" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247512107&amp;idx=2&amp;sn=ce7ce209d594b0574518e5b62a60998a&amp;chksm=fbd70247cca08b5190e1b06ed87f036fc71c17bdda40fb80cbe69420ac7fe22f4eda2c554398&amp;scene=27 - wechat_redirect" r:id="rId258"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B260" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247512053&amp;idx=2&amp;sn=0ab4ade5ee6c83f1f53a0e03583dc822&amp;chksm=fbd71d99cca0948f7fb6e29943d559214fb55373287ee66cd7c786986f673b9d587ef1d6a3f2&amp;scene=27 - wechat_redirect" r:id="rId259"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B261" display="https://zhuanlan.zhihu.com/p/271858727" r:id="rId260"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B262" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247511450&amp;idx=2&amp;sn=57ce9b8d1493fa72f4255dc9b0b866f2&amp;chksm=fbd71ff6cca096e0f798537bcb9e75b88dd777013b7a9fc94b42fa5e7f7368347fb2c566643d&amp;scene=27 - wechat_redirect" r:id="rId261"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B263" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247511245&amp;idx=2&amp;sn=06e8909f8955594394daef5c43f1b538&amp;chksm=fbd71ea1cca097b7373fa24f9d398b58747ef06c408bd798c1995a37a11132e66809306a2ba0&amp;scene=27 - wechat_redirect" r:id="rId262"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B264" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247511217&amp;idx=2&amp;sn=021d8fba7ab6decca283d95e5da00600&amp;chksm=fbd71eddcca097cb5da1b73eee9cac0b07277be93fd08cadda170726459fa2a385d376c733bd&amp;scene=27 - wechat_redirect" r:id="rId263"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B265" display="https://zhuanlan.zhihu.com/p/265522400" r:id="rId264"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B266" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509951&amp;idx=1&amp;sn=04462583ebe942a12dc8260f7d909ae2&amp;chksm=fbd715d3cca09cc52f5a2aff66e08ad655eb4dd6b7e035d9134a4afceca2c76d19feacf501ce&amp;scene=27 - wechat_redirect" r:id="rId265"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B267" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509607&amp;idx=1&amp;sn=341212c60824f8c636ee7e8b64a63d62&amp;chksm=fbd7140bcca09d1d52dfb1c10c180feffe3641d2611b46497f08f9722a66cbd6b08436013be4&amp;scene=27 - wechat_redirect" r:id="rId266"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B268" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509524&amp;idx=1&amp;sn=a65fb689f9b013fe06c44f1e4b2e1b84&amp;chksm=fbd71478cca09d6eadfa3c06c921a47681339c0fa42bd960d66057f07e436e31ed08e92dfeda&amp;scene=27 - wechat_redirect" r:id="rId267"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B269" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509261&amp;idx=1&amp;sn=17a4b327f46ea40bdf4f7481f8739311&amp;chksm=fbd71761cca09e778f3e05860d2e1333c0ba9e32c6854f1040991478f5965262ef1a0f849b4c&amp;scene=27 - wechat_redirect" r:id="rId268"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B270" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509245&amp;idx=2&amp;sn=e32f855fa4bcabdd98aef05acc540c17&amp;chksm=fbd71691cca09f878448bf905db8e11119d4ad2482ab48132145ef3ba51fd868448499d73047&amp;scene=27 - wechat_redirect" r:id="rId269"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B271" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509060&amp;idx=1&amp;sn=be61e643a3de80d8b0bd028cdb5b6827&amp;chksm=fbd71628cca09f3e637db58ce5fc43254fa18ad16779cd6eaf6f1c2d70bbf9e787b420d4116e&amp;scene=27 - wechat_redirect" r:id="rId270"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B272" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247509016&amp;idx=1&amp;sn=aa4c859d268ca02ff869d0930f154463&amp;chksm=fbd71674cca09f62c62bcc8fa9704df9d041c2c5271bdf4eb4bb9cf7e12bb407469e07868017&amp;scene=27 - wechat_redirect" r:id="rId271"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B273" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247508936&amp;idx=2&amp;sn=78be7e9852a78ddf0da07198b6c7978b&amp;chksm=fbd711a4cca098b245bcdba6932d42927a95ebf01fb949f3e4dbf8d74efc63e6c619357fc702&amp;scene=27 - wechat_redirect" r:id="rId272"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B274" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650411171&amp;idx=1&amp;sn=b05ff627563bb01d6d29e9482e7e5cc3&amp;chksm=8396d8bbb4e151ad9353e25ab55df7dcb42181c74841db869b9b742994f97109cf423b998685&amp;scene=27 - wechat_redirect" r:id="rId273"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B275" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247508674&amp;idx=1&amp;sn=098ce77e2947f6e7bb28e56f320d7633&amp;chksm=fbd710aecca099b8e4facf74dc0de9c6023d022c701d012e181c6286295c7578601b5cf78979&amp;scene=27 - wechat_redirect" r:id="rId274"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B276" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247508638&amp;idx=1&amp;sn=97aa5c7ee4a7981942f40eed91853645&amp;chksm=fbd710f2cca099e45307f0622d243ba543164c14131bbc8cb5a410b4a8ea974f9e1562b34cde&amp;scene=27 - wechat_redirect" r:id="rId275"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B277" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650411013&amp;idx=1&amp;sn=de621be8767a9e4e9c8de312ecfd5702&amp;chksm=8396d81db4e1510b4a88441595810d48d6ab6c4a4d295fd7b543152603820e93deeba9b52c22&amp;scene=27 - wechat_redirect" r:id="rId276"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B278" display="https://zhuanlan.zhihu.com/p/259668668" r:id="rId277"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B279" display="https://zhuanlan.zhihu.com/p/256252184" r:id="rId278"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B280" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650410892&amp;idx=1&amp;sn=69a89072e83f6ff2b9333622ad390fdd&amp;chksm=8396c794b4e14e829b625fa26568dd112f94edbdc97ec4984a2daf5ee5187e2283c397e36d48&amp;scene=27 - wechat_redirect" r:id="rId279"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B281" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247508089&amp;idx=1&amp;sn=456558fbe9754cb3b55c6af563504ed1&amp;chksm=fbd71215cca09b03d3ea2fcc44fe511a44823ced8947375a3af9f925c41fbaafd9a38bddaba2&amp;scene=27 - wechat_redirect" r:id="rId280"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B282" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247507741&amp;idx=2&amp;sn=7d147d3db65d445cd6e17fd943643ebf&amp;chksm=fbd76d71cca0e467a1d6add9d396f1722534d13c9a6c7bacb644c92105f5830bb04a240360ee&amp;scene=27 - wechat_redirect" r:id="rId281"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B283" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247507652&amp;idx=1&amp;sn=9d3333523ef629aa4286c0bdc669ca22&amp;chksm=fbd76ca8cca0e5be2c9bd7e5e59c5919a7a601eeb5d25ec913877f2827262fe96e0c9d56e6ce&amp;scene=27 - wechat_redirect" r:id="rId282"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B284" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247507509&amp;idx=1&amp;sn=5f0db1f772d6d8c39016c54318bbc1b1&amp;chksm=fbd76c59cca0e54f82bc64bd1480e1bf36eb1d3323eaf0ce48c9362cdf2665aaafde8c1943a2&amp;scene=27 - wechat_redirect" r:id="rId283"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B285" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487550&amp;idx=1&amp;sn=68af975e460637783d0a860bfb2d694d&amp;chksm=c29323aaf5e4aabc45b4f705d6c69583960fdae2638f2b3a5252f507ecfa088c92e1f72c6ad8&amp;mpshare=1&amp;scene=1&amp;srcid=0117tJyokgtmE6m24zBKj7kA&amp;sharer_sharetime=1673957367314&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId284"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B286" display="https://zhuanlan.zhihu.com/p/239824669" r:id="rId285"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B287" display="https://zhuanlan.zhihu.com/p/238095817" r:id="rId286"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B288" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649749269&amp;idx=2&amp;sn=deabfe04574815220abad87d9dc9d415&amp;chksm=bed3646e89a4ed782643c014b20e5fb4b2fa114ba8280e168c9f9fbeeef85f6cf758c56fef4e&amp;scene=27 - wechat_redirect" r:id="rId287"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B289" display="https://zhuanlan.zhihu.com/p/212647751" r:id="rId288"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B290" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247507022&amp;idx=1&amp;sn=aa4a99562a274b5fd07e5f987a5dc807&amp;chksm=fbd76e22cca0e734f4bc319ec3b908b9b3f200bda80e20b8f65836aac4445bc6a14675aa174e&amp;scene=27 - wechat_redirect" r:id="rId289"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B291" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506940&amp;idx=2&amp;sn=df6d88efa9f45dc7e2e4592018979692&amp;chksm=fbd76990cca0e08637035afb74fb94cfaec3250c81c8744f41ac6be316d2bee96db16c9fc56c&amp;scene=27 - wechat_redirect" r:id="rId290"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B292" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506872&amp;idx=1&amp;sn=26b673e5594ec07b3e56b94983d04741&amp;chksm=fbd769d4cca0e0c24f0f96ce2f1eb995065dfbdb17f99cb8bcaa15cbb878673040854a0c0b1b&amp;scene=27 - wechat_redirect" r:id="rId291"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B293" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649749174&amp;idx=1&amp;sn=ba2bc3de97799879b186feb66e60ec1c&amp;chksm=bed365cd89a4ecdbefb2cf3b631090947788c02fa42323cd19a943aeaa6363ce4bca85e93a4d&amp;scene=27 - wechat_redirect" r:id="rId292"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B294" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506444&amp;idx=1&amp;sn=48bc7d6d70b336237137a3191894d711&amp;chksm=fbd76860cca0e176d6ba80ef7b7815634578b8468d7e9177158f2426b6d1a27f7b701fbfa940&amp;scene=27 - wechat_redirect" r:id="rId293"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B295" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649749100&amp;idx=2&amp;sn=7b35927876b101deee529bdb2649b8fb&amp;chksm=bed3651789a4ec017c9a7f563ab7e5aab406a5a75aa87a2b89851755605d9c0784ce1099d8cb&amp;scene=27 - wechat_redirect" r:id="rId294"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B296" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506358&amp;idx=2&amp;sn=0736cc1bc0d11f4f1ce99979697c29d6&amp;chksm=fbd76bdacca0e2cc405e0f7b689a17f3d752b9fbd5087b0f06b14e24fb2008b6dd43bdd8153f&amp;scene=27 - wechat_redirect" r:id="rId295"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B297" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247506153&amp;idx=1&amp;sn=6ce4840ec9642deb8e1c97efdc727390&amp;chksm=fbd76a85cca0e393c44815b55af12ceca91546d32b5aa6b6340cfb3bb4dbed94d88c5f741cb0&amp;scene=27 - wechat_redirect" r:id="rId296"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B298" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247505895&amp;idx=1&amp;sn=d449cd607a21e01805db245be8289de6&amp;chksm=fbd7658bcca0ec9d27eb71a01e8b08711802f59cb0c04aa6059eb0d60b895212de8b8e0b5a38&amp;scene=27 - wechat_redirect" r:id="rId297"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B299" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247505774&amp;idx=1&amp;sn=63efc686d3dda67fa4631e5550560476&amp;chksm=fbd76502cca0ec141440482e048196119101abd0a56dd5dba7c9a18f46ba8f0358e3a458408b&amp;scene=27 - wechat_redirect" r:id="rId298"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B300" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247505578&amp;idx=1&amp;sn=bc6f551bc83039cebe016ba87cdf8a46&amp;chksm=fbd764c6cca0edd0befcbb887b5b15f10296de6cd6d92ed3382221fcb367c92079b99c895914&amp;scene=27 - wechat_redirect" r:id="rId299"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B301" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247504918&amp;idx=1&amp;sn=d4cb633276121dc4f09329cf9d231539&amp;chksm=fbd7667acca0ef6cc9d0f21d309b5b28b15f0452f43d33055a1b9562a9519ad36c032ab961f0&amp;scene=27 - wechat_redirect" r:id="rId300"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B302" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247504377&amp;idx=1&amp;sn=7ca002dd3bfd00a14c93a519b3765a04&amp;chksm=fbd76395cca0ea83b55807543fde6e8fd7879af67d5a4079365493669752cdff06fac5d632c5&amp;scene=27 - wechat_redirect" r:id="rId301"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B303" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247504009&amp;idx=2&amp;sn=c3d07faaf34416790456eac5be094049&amp;chksm=fbd762e5cca0ebf33eb7f3de1f9c1539ef5bf9fd7c8196bb85a9012ac7472f9c197b80ef8d56&amp;scene=27 - wechat_redirect" r:id="rId302"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B304" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247503968&amp;idx=1&amp;sn=d8fac671af39a87c9a74fb1aff327e41&amp;chksm=fbd7620ccca0eb1aab16ab0e7d06e9c8975749808ca8d1191b442458280ea227b8ce4d90d865&amp;scene=27 - wechat_redirect" r:id="rId303"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B305" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247503484&amp;idx=2&amp;sn=e2a2cdd3a517ab09e903e69ccb1e9f94&amp;chksm=fbd77c10cca0f50642dde47439ed919aa2e61b7ff57bc4cbaacc3acaac3c620a1ed6f92684ab&amp;scene=27 - wechat_redirect" r:id="rId304"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B306" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649747457&amp;idx=1&amp;sn=abfbd9e1c0889dda8c8511b44bbd6416&amp;chksm=bed3637a89a4ea6c9be8915449ad6922da619d8ff0366272787bc93f149d7f36ae9e3ac2cc68&amp;scene=27 - wechat_redirect" r:id="rId305"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B307" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247502918&amp;idx=1&amp;sn=b461d08b22a9fd8ca2e711bb501b7d7a&amp;chksm=fbd77e2acca0f73ccb2e2dad23ce817a968a9d83fcb0f5c8edda7d6566e77c2ff8bdcd1145a7&amp;scene=27 - wechat_redirect" r:id="rId306"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B308" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651752296&amp;idx=1&amp;sn=6c20fd97bfd9cc7e5557e40e867f123b&amp;chksm=bd125e258a65d7335e7b649796248908d5a19c7d64f6f8935ab162c11539397feac3d830c3aa&amp;mpshare=1&amp;scene=1&amp;srcid=0117uG6dCdQzn6ZP43n4Sclw&amp;sharer_sharetime=1673957001505&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId307"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B309" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247502849&amp;idx=1&amp;sn=a9d6b7f727f99e877cb2a4a601773725&amp;chksm=fbd77e6dcca0f77bb63e12273c5befbe00c24fed18525ee0d040acdb95a84f3a8def26707277&amp;scene=27 - wechat_redirect" r:id="rId308"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B310" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247502251&amp;idx=1&amp;sn=19eb9bd0a7ad487e12af897c38115783&amp;chksm=fbd77bc7cca0f2d178792a9ab4e1468f9f2179a81dbdfb3f6c96b30bea5e25d6bd01b10faf9a&amp;scene=27 - wechat_redirect" r:id="rId309"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B311" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649747190&amp;idx=1&amp;sn=e850fae5360b7f1f4ee472dec70d5039&amp;chksm=bed37d8d89a4f49b15da1394dbeb2f2934a1a2bb27aaa4e765fa6730a5658d5df2d076936122&amp;scene=27 - wechat_redirect" r:id="rId310"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B312" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649747167&amp;idx=1&amp;sn=8020e285502d9f47c77dd0c257364580&amp;chksm=bed37da489a4f4b2c7d7e4082f8c05d42ac3ebdf2a49027c60ab603e9d65871aecbb6bb786e2&amp;scene=27 - wechat_redirect" r:id="rId311"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B313" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzU5Mjc0MTM4NA==&amp;mid=2247486983&amp;idx=2&amp;sn=f4b78f5507d299e34d8c0bc3fb73332d&amp;chksm=fe1a5b60c96dd2763899db6db7a24a274593b4916732b8ddda97a40d2e37b4a476ab42baa18e&amp;mpshare=1&amp;scene=1&amp;srcid=0117uqLWjE0PrSJaXfwrGQHE&amp;sharer_sharetime=1673957934144&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId312"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B314" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247501908&amp;idx=1&amp;sn=2478b53f5a28eb4002bbfc9bef62001e&amp;chksm=fbd77a38cca0f32ed9b04e6a2b38c3ce08c47f126863b1dafedefa5aa4d662d25d5537c384e2&amp;scene=27 - wechat_redirect" r:id="rId313"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B315" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247501693&amp;idx=1&amp;sn=da35a37ce1bfc8b43a26572acb5792d3&amp;chksm=fbd77511cca0fc07beabb02dc15cd0f2f7f5ee9f0840ba512a4b3a373f4a676cb7156692bf5f&amp;scene=27 - wechat_redirect" r:id="rId314"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B316" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649747086&amp;idx=1&amp;sn=5d08665635003d57eba7bf9c2717fa66&amp;chksm=bed37df589a4f4e35cac85f37c13cc30675c3285fba639bd657fd2dd7edbf35169de9777bcc1&amp;scene=27 - wechat_redirect" r:id="rId315"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B317" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247501599&amp;idx=1&amp;sn=10c0eaa021ef4d7b39a82819bf4b0f66&amp;chksm=fbd77573cca0fc658535625c70a550c297d10d8efcf6ca5640851d76e4cb0b051a9f5f6da62e&amp;scene=27 - wechat_redirect" r:id="rId316"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B318" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzU5Mjc0MTM4NA==&amp;mid=2247486719&amp;idx=1&amp;sn=48936c1a140f25a374ea5eb12807e636&amp;chksm=fe1a5998c96dd08e39875af88eded481ade7e8f555a01b4dd9df06ea7156cc2e29381bc3e2b5&amp;mpshare=1&amp;scene=1&amp;srcid=0117uXZesx2FgCB5y1sCUTNd&amp;sharer_sharetime=1673957837931&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId317"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B319" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247501196&amp;idx=1&amp;sn=978b373e1278c709fc53036614a240ab&amp;chksm=fbd777e0cca0fef630da6ed55518775e22afba1e74cd2e09701e055533146f29c71876ba77c4&amp;scene=27 - wechat_redirect" r:id="rId318"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B320" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzU5Mjc0MTM4NA==&amp;mid=2247486551&amp;idx=1&amp;sn=940a80be200e7fe0c1682405974039fc&amp;chksm=fe1a5930c96dd026c1fa979b3989b13e21cecf8d451fd1448b0c534ff8f320ac41d48d0eba3a&amp;mpshare=1&amp;scene=1&amp;srcid=01176HIzgCam1OfiESJDEnZd&amp;sharer_sharetime=1673957847876&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId319"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B321" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247500273&amp;idx=1&amp;sn=c8cf8e7a0515e1aeb0022417a6aeda9f&amp;chksm=fbd7739dcca0fa8b8e4fdef2e1d669118de87c1ce1f2f1444bfe314610423fa2a3cf0c8c214c&amp;scene=27 - wechat_redirect" r:id="rId320"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B322" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247500267&amp;idx=2&amp;sn=0a38ea1f7d4a96a632b129ffbabc2d2c&amp;chksm=fbd77387cca0fa91abbd69ad1885c44d05ab578886102d36e9ea11d9c7c529ebc47dbfa36d61&amp;scene=27 - wechat_redirect" r:id="rId321"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B323" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499792&amp;idx=1&amp;sn=59b8acac6ea9abe508825146983a4910&amp;chksm=fbd7727ccca0fb6a56c5d677b7b6737bef02c7715b67d368ee551677a4110e241a14e66cf012&amp;scene=27 - wechat_redirect" r:id="rId322"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B324" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499645&amp;idx=1&amp;sn=a4d1e29381ab912861c3827399e22312&amp;chksm=fbd74d11cca0c407e9149d5d80fba8b6b60e91b66a0688611dcbf6be2b89c2d136da181e0243&amp;scene=27 - wechat_redirect" r:id="rId323"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B325" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499525&amp;idx=1&amp;sn=638746fcd82ed8ebadb947c5848d8363&amp;chksm=fbd74d69cca0c47fe102231f40b946c7bb0ae968c44061592bf161eb722f6fa71ee6a40b8fdb&amp;scene=27 - wechat_redirect" r:id="rId324"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B326" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499470&amp;idx=1&amp;sn=6a6e80673353fb485a854ed2cffc5dcb&amp;chksm=fbd74ca2cca0c5b4fb0622140eb9fa3cd15c860d06b24a4c7fc37e8b3db614af8c4ad9cbe0d3&amp;scene=27 - wechat_redirect" r:id="rId325"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B327" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499412&amp;idx=1&amp;sn=4bde0cbcf1d35fac55bda4733b0be356&amp;chksm=fbd74cf8cca0c5ee48fd9e6448dddb2d885df8dffc11b4f9bce8952b4773a98ee7987b68ba7b&amp;scene=27 - wechat_redirect" r:id="rId326"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B328" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499255&amp;idx=1&amp;sn=a7a6427c6c2bd74c728ef2d53c736814&amp;chksm=fbd74f9bcca0c68d203296277c23e42f5a218d522bac4e23bfcfcde591be98e334e9f5cb67c8&amp;scene=27 - wechat_redirect" r:id="rId327"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B329" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499175&amp;idx=1&amp;sn=1c398e92f0712e4e5f545759d0a85692&amp;chksm=fbd74fcbcca0c6dd11a04b493827ffdda06c69f6013b95c74c54c14f596cab0f303751f9e14d&amp;scene=27 - wechat_redirect" r:id="rId328"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B330" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499139&amp;idx=1&amp;sn=c187e0108e9bd55b69e48d0c8de1887d&amp;chksm=fbd74fefcca0c6f9290da7221b0d4b02a1d6a84913cf4950052b2050cd73e52b906d489f824e&amp;scene=27 - wechat_redirect" r:id="rId329"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B331" display="https://mp.weixin.qq.com/s/Oixc46P9rQeiMDjI-0j0cw" r:id="rId330"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B332" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247499010&amp;idx=1&amp;sn=138e92d3c22202b7b86c40d8f1bddd07&amp;chksm=fbd74f6ecca0c678b3925526a0c1e4460521263444996eabe0e3224c2e38a243331520ad6f28&amp;scene=27 - wechat_redirect" r:id="rId331"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B333" display="https://mp.weixin.qq.com/s?__biz=MzI1MzY0MzE4Mg==&amp;mid=2247486489&amp;idx=2&amp;sn=e03b23d476d9864cd417f81c02f6e62e&amp;chksm=e9d01cd8dea795ceb3d95d80ddab98f689d18ded9c0adc2f8175c665666a1d252c8db1d40f3c&amp;scene=27" r:id="rId332"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B334" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498872&amp;idx=1&amp;sn=c7eb8e9147cb106b4122174981dce0b9&amp;chksm=fbd74e14cca0c7027a2db1641d0e4e7bc16846035359684b702d462abdda8926ee7626bf4505&amp;scene=27 - wechat_redirect" r:id="rId333"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B335" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498811&amp;idx=1&amp;sn=b138758fe26502935492f0411b5cf66e&amp;chksm=fbd74e57cca0c741e1a51c21aa66c6117df5afe400d1656ea58a153e9f0b5a5bcba0233a42df&amp;scene=27 - wechat_redirect" r:id="rId334"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B336" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzU5Mjc0MTM4NA==&amp;mid=2247485289&amp;idx=1&amp;sn=6b7edf8bc492bedeb51bb4677bb7d890&amp;chksm=fe1a520ec96ddb18448cdb6c94c13e8ea642c887dd107705a9e00bfa07027a1afcbe29aecdb1&amp;mpshare=1&amp;scene=1&amp;srcid=0117KL0KphjR4Mu3kvl0fOWG&amp;sharer_sharetime=1673957914555&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId335"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B337" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498766&amp;idx=2&amp;sn=6169f19552682cc582746f6cf852905b&amp;chksm=fbd74e62cca0c7745fdf1c6443f87e18dd85ecc943c7338b2cc1e6c06cd8bb6bae54444b397b&amp;scene=27 - wechat_redirect" r:id="rId336"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B338" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498637&amp;idx=1&amp;sn=a91d76109129fa42e5910c2e2b5f68ef&amp;chksm=fbd749e1cca0c0f75c8a9dc06c16b8d9a53cdf57eb370c07424d88eefd1ddb66928dd1bf2f7f&amp;scene=27 - wechat_redirect" r:id="rId337"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B339" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498613&amp;idx=1&amp;sn=77f53f7e1edd2dc579cc49b5db803ad4&amp;chksm=fbd74919cca0c00fdae51accb916b42a29d98bf3eb745f42bd9f17d9c4352ef9129ad13a0e5d&amp;scene=27 - wechat_redirect" r:id="rId338"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B340" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487492&amp;idx=1&amp;sn=ba82daf0353c5eac7f6d9279e333546c&amp;chksm=c2932390f5e4aa861692198be94febdac6fb05fc9909e4adc392f28e15b4dea9cf984f7579c9&amp;mpshare=1&amp;scene=1&amp;srcid=0117ZsWh7O6AM8nXAR8xUfd0&amp;sharer_sharetime=1673957379385&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId339"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B341" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498610&amp;idx=1&amp;sn=803bff13e7f663a63358ffef96b4525e&amp;chksm=fbd7491ecca0c008f45e48180991ff7f2ccb70b6640ea9d9534c9cb6c2ddc4346bc848c4a3f3&amp;scene=27 - wechat_redirect" r:id="rId340"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B342" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498181&amp;idx=1&amp;sn=f3ee8fc793cc47d069913017f5aa7c74&amp;chksm=fbd74ba9cca0c2bfef5fd5a07805b35cc90d15146899125e6bf21be2294a811e42d851cd2c06&amp;scene=27 - wechat_redirect" r:id="rId341"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B343" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498125&amp;idx=1&amp;sn=52efbe5876151b48a917640f5f56c589&amp;chksm=fbd74be1cca0c2f7b2f378a1b15339ef8697544c2b43bb9b51c7c9eaa79b6aea119d943786a9&amp;scene=27 - wechat_redirect" r:id="rId342"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B344" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498064&amp;idx=1&amp;sn=66db655be0bcc5e6ee0dc58f869ef6eb&amp;chksm=fbd74b3ccca0c22aacea4a7aca9e803f4044f78ad056983484ebc5ab0c718773ebd4ee8204ea&amp;scene=27 - wechat_redirect" r:id="rId343"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B345" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247498041&amp;idx=1&amp;sn=5c8b880a2be4075ee48388b27ce1a6e0&amp;chksm=fbd74b55cca0c24382f3f10e6f2a8423e228c390339dc086d5f1fec034350e0574302587834a&amp;scene=27 - wechat_redirect" r:id="rId344"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B346" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497757&amp;idx=1&amp;sn=fe521ea5a746be9ba0aa208506d716b8&amp;chksm=fbd74a71cca0c3676f2681bb7917a12e77562d2c5b3d1e5def4a3eac3fc40bd57e12ef2548e5&amp;scene=27 - wechat_redirect" r:id="rId345"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B347" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497685&amp;idx=1&amp;sn=4af16b3d4d79ce2850b29717f7de1121&amp;chksm=fbd745b9cca0ccaf7ab41fa2760befc0f0831d74e77c8ff430c4d31016efc1b21d27ac0cea1e&amp;scene=27 - wechat_redirect" r:id="rId346"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B348" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497357&amp;idx=2&amp;sn=9991d229219e36be78c954b46da1f3e3&amp;chksm=fbd744e1cca0cdf764c33163c35b524299a13d78e803abfcb5e4f88fbb72c26c7dfdf00547dd&amp;scene=27 - wechat_redirect" r:id="rId347"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B349" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497190&amp;idx=1&amp;sn=c210c40cd365312038c5248752f9e187&amp;chksm=fbd7478acca0ce9c3848d2e699ee4193b9cf08473a3f700d04f8514fa247594cded254aee600&amp;scene=27 - wechat_redirect" r:id="rId348"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B350" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247497109&amp;idx=2&amp;sn=41f16c9b2a9513596553fcd9ff4bb6e2&amp;chksm=fbd747f9cca0ceefffe34a2973623745034e7e94ee48b920b14282da022c9a30682e5dcdc7f5&amp;scene=27 - wechat_redirect" r:id="rId349"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B351" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496713&amp;idx=1&amp;sn=07bb184081bf8590db12e63ccda6bf22&amp;chksm=fbd74665cca0cf73e625c403d61bb3f1f0fdfe680566927f1b1cda7cb54a7b9ce17418c9690b&amp;scene=27 - wechat_redirect" r:id="rId350"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B352" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649745235&amp;idx=1&amp;sn=d6031b0d45d1db8c61398e2d3b231bed&amp;chksm=bed3742889a4fd3e3032cab8b95656b441d013d7b988a06f77d72aeb98315f4012bfd9b92b47&amp;scene=27 - wechat_redirect" r:id="rId351"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B353" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650405126&amp;idx=1&amp;sn=91a9e73ed4f2cc34ca1dac64144ae4d3&amp;chksm=8395311eb4e2b808c516c1b4c9aac24ffe5e6ced9641370e73e6b13fc69512d6bb452a4bb1ba&amp;scene=27 - wechat_redirect" r:id="rId352"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B354" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496498&amp;idx=1&amp;sn=058af2101d4a1ceda1ec04b30daf4d69&amp;chksm=fbd7415ecca0c8488706ee79480560df06943ede862fc76e0917f29b663b3f30b220c37fee78&amp;scene=27 - wechat_redirect" r:id="rId353"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B355" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496497&amp;idx=2&amp;sn=46afd0c464186e75ffb90b2af25bc3d6&amp;chksm=fbd7415dcca0c84b056ed3b2aaa71c4469307e3a02e2766ae8f97f16c0bfe78b40e293868eaf&amp;scene=27 - wechat_redirect" r:id="rId354"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B356" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496432&amp;idx=1&amp;sn=209510d8695aed74c65b2693d300e97b&amp;chksm=fbd7409ccca0c98af6db5aaf452dd81b070f440326bdda5e505069608ddc3b448560c045a2f3&amp;scene=27 - wechat_redirect" r:id="rId355"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B357" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496409&amp;idx=1&amp;sn=7b2f5984d71454e1a2812321f6018cf8&amp;chksm=fbd740b5cca0c9a37723c8c05b4e1cf95fd8678bc54e9b4591c09a7af06f2acf79e28276a502&amp;scene=27 - wechat_redirect" r:id="rId356"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B358" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649745156&amp;idx=1&amp;sn=744c59bceef156f5b9f84a28e3073708&amp;chksm=bed3747f89a4fd69840a9c52dc8909d86c8f45ff7f634df48fc478860e43c62e1751ef04668e&amp;scene=27 - wechat_redirect" r:id="rId357"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B359" display="https://mp.weixin.qq.com/s/bPjk1Rq19KmlPcfkYvVJVw" r:id="rId358"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B360" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496280&amp;idx=1&amp;sn=870b45e0f9bfda51a093ceabb9b51df2&amp;chksm=fbd74034cca0c922893be32402905954f87d98ffa55aa879b45d9974870f29e15e2a1f5a1429&amp;scene=27 - wechat_redirect" r:id="rId359"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B361" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487444&amp;idx=1&amp;sn=21618afb5aacc0ea224afdbb1e4fa155&amp;chksm=c2933c40f5e4b5569ab5b0dd73d9a5233eee75dab93b53d23b9541e9230193a2560ce90869a8&amp;mpshare=1&amp;scene=1&amp;srcid=0117mZBwP4XZjMn1x1cMkohc&amp;sharer_sharetime=1673957427902&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId360"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B362" display="https://mp.weixin.qq.com/s/rp6H_HydTbKiSanijDZwBQ" r:id="rId361"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B363" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247496080&amp;idx=1&amp;sn=70f79a37a6000965fa96bccf893b9c40&amp;chksm=fbd743fccca0caeadb59820801597c51353b0a4ba080d2caf66eccb6644102c2fe674ffcb378&amp;scene=27 - wechat_redirect" r:id="rId362"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B364" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495736&amp;idx=1&amp;sn=080c985a2e373e04496bce5db3cb1069&amp;chksm=fbd74254cca0cb42324938685381d67217f3cb14cb6da64576cac58238264605b5f7e64d34a6&amp;scene=27 - wechat_redirect" r:id="rId363"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B365" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649744942&amp;idx=1&amp;sn=7efd84c1371d785d719de481e3e6d44a&amp;chksm=bed3755589a4fc43a2caa01c6579f6d10e65959c529a3be90da6e3938a09886eb8bcbd607ef1&amp;scene=27 - wechat_redirect" r:id="rId364"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B366" display="https://zhuanlan.zhihu.com/p/89401911" r:id="rId365"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B367" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495660&amp;idx=1&amp;sn=21a5b7e811d104162609d5fef993be79&amp;chksm=fbd75d80cca0d496995ab1135ceb4734b90553a8fd82f4c970ed48212f3d0abd98f58e4e0864&amp;scene=27 - wechat_redirect" r:id="rId366"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B368" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495618&amp;idx=1&amp;sn=42b06177dec45f33c29ab25d73b639a9&amp;chksm=fbd75daecca0d4b8a6ae5c4854c40cc05bd6c7b67ac6ab45f74c05d425aafae9d54699a09c19&amp;scene=27 - wechat_redirect" r:id="rId367"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B369" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649744896&amp;idx=1&amp;sn=ac4361272c2d027631bbca9673b6dc10&amp;chksm=bed3757b89a4fc6da6c516fde28c79c936e7b8dc4647fccebad77c616231c15a48102f28dd7e&amp;scene=27 - wechat_redirect" r:id="rId368"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B370" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495507&amp;idx=1&amp;sn=a1e0cf988d2e366be58faf1110e4d885&amp;chksm=fbd75d3fcca0d429b33c5a49053dd99a03e603b3230e950d0109f3c9dbe7ede21e1fa2a86752&amp;scene=27 - wechat_redirect" r:id="rId369"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B371" display="https://zhuanlan.zhihu.com/p/93060649" r:id="rId370"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B372" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MjM5ODYwMjI2MA==&amp;mid=2649744830&amp;idx=1&amp;sn=950d79ac145ba6682fcfe096e0398c95&amp;chksm=bed376c589a4ffd348ae826b7a855e034184629b798de48192443e727199ddb7a7c6bd594545&amp;scene=27 - wechat_redirect" r:id="rId371"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B373" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247495039&amp;idx=1&amp;sn=35905df6cd4ef33d2ce505d284d3c8ad&amp;chksm=fbd75f13cca0d605c17bf7a8b3b899b7798a590008625fcffbf00d77c2451249bbdc086d6b18&amp;scene=27 - wechat_redirect" r:id="rId372"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B374" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494825&amp;idx=2&amp;sn=92f59195e8e4e6b33af6dfa63df6a2b3&amp;chksm=fbd75ec5cca0d7d36752d787d7fc0191b0ecccdb56bda335fa553635f241c20af1f768983f7d&amp;scene=27 - wechat_redirect" r:id="rId373"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B375" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494579&amp;idx=1&amp;sn=b5274f98c5cfae81d1af68944d3252df&amp;chksm=fbd759dfcca0d0c9f8ab04bebee04b0d7fd6fdd3eae87d3ef475fb26e03b402999c31621d034&amp;scene=27 - wechat_redirect" r:id="rId374"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B376" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494558&amp;idx=1&amp;sn=10a6332147d713230d0fa4dbf9cdc897&amp;chksm=fbd759f2cca0d0e4f5d39887a86b1d6efae13ad0540dc191fdbc8bb29120d0081a90c97b35f6&amp;scene=27 - wechat_redirect" r:id="rId375"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B377" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494398&amp;idx=1&amp;sn=cd08a71c4a7ec9a2d81107603fc4c437&amp;chksm=fbd75892cca0d184585075b3315fe0386d37c174995a5a4b27e02db4117a13897678dbcb52ed&amp;scene=27 - wechat_redirect" r:id="rId376"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B378" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494295&amp;idx=1&amp;sn=1218bfa026994967939fa676ed7dd5f9&amp;chksm=fbd758fbcca0d1ede59b225e98add36cae74e9fd3006d42a054c73aaa4a87c75ef46684b9733&amp;scene=27 - wechat_redirect" r:id="rId377"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B379" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247494020&amp;idx=1&amp;sn=df65908cdaf57d02eee8280d86d66949&amp;chksm=fbd75be8cca0d2fe2d69d89a70eced34ba467acbf26fefe1bf40edea36a07e76406612383fd5&amp;scene=27 - wechat_redirect" r:id="rId378"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B380" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493952&amp;idx=1&amp;sn=f32e43f0e834d12649a3a6272b85ede0&amp;chksm=fbd75b2ccca0d23a224032d999dd52ca3fa53529abf78c2cf3d4f5e9d52ef3a691bcf76bbdd1&amp;scene=27 - wechat_redirect" r:id="rId379"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B381" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493807&amp;idx=1&amp;sn=7d0b5d89e6fb604794049ac29ccf6ecd&amp;chksm=fbd75ac3cca0d3d526d65b0b55f9f34f2b2ca6d086a4222440b817a4434c359e979331a75917&amp;scene=27 - wechat_redirect" r:id="rId380"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B382" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493747&amp;idx=1&amp;sn=3288e75a42a8e93bc7ce34b47b811b9b&amp;chksm=fbd75a1fcca0d3092046e1c3b0d961ef99edc8323426fdd78eae3693119a726328db7f0dd246&amp;scene=27 - wechat_redirect" r:id="rId381"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B383" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493714&amp;idx=1&amp;sn=146ca2efa604b71b20ae166fb0cd6b85&amp;chksm=fbd75a3ecca0d3280f88577c843d7ebf7c4b66f00134f2802e3863e17fa811eb8e328ca030a2&amp;scene=27 - wechat_redirect" r:id="rId382"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B384" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493496&amp;idx=1&amp;sn=16a9495c9a0452ef60e38bb129105b02&amp;chksm=fbd75514cca0dc020fa508aa34e01a3c17949e70cbccd5531122556f14c7351d15da93775f17&amp;scene=27 - wechat_redirect" r:id="rId383"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B385" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247493262&amp;idx=1&amp;sn=c5c2b9827c5de1d1311673523c96e3e7&amp;chksm=fbd754e2cca0ddf47163df7559a20bb85a45633ecdc57f168874819225dffb4db19449c00cdc&amp;scene=27 - wechat_redirect" r:id="rId384"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B386" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487361&amp;idx=2&amp;sn=36cb82dd07dafa41ddd7b983f2c44649&amp;chksm=c2933c15f5e4b503af0ac18437085f8928b09261e379e4d5a0628a386f2cefd4cbccb110ab60&amp;mpshare=1&amp;scene=1&amp;srcid=0117dqnVg0mxFOFbynlpzCf9&amp;sharer_sharetime=1673957459189&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId385"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B387" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247492994&amp;idx=1&amp;sn=6a787521ad85f37339f880bba0cc5d63&amp;chksm=fbd757eecca0def8ac32a1c60f49ec933096833b5b55860074fd5d305499adc85d9f833fa333&amp;scene=27 - wechat_redirect" r:id="rId386"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B388" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247492901&amp;idx=1&amp;sn=e0241e72bb057ed300fef994721a2a3b&amp;chksm=fbd75749cca0de5f029b880bbe53914dfd789452d35cde78097f00a75f789f2508e452bf1805&amp;scene=27 - wechat_redirect" r:id="rId387"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B389" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzAxNDEwNjk5OQ==&amp;mid=2650403666&amp;idx=1&amp;sn=96be637d3fd89472d326f09596a48e2d&amp;chksm=83953b4ab4e2b25c514fd36904d0bad493aab91bcd4f30c4b59762b6b1fbd0b2aaa0509a0d4b&amp;scene=27 - wechat_redirect" r:id="rId388"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B390" location="rd" display="http://mp.weixin.qq.com/s?__biz=MzkzNzI0MDMxNQ==&amp;mid=2247487340&amp;idx=1&amp;sn=e96e5e1034462b3fed38c98aef1627ca&amp;chksm=c2933cf8f5e4b5ee13fd52fbaeda37679d5766aea514099c720a4bb131340521583ba2fd2582&amp;mpshare=1&amp;scene=1&amp;srcid=0117LVG4Py92aQ9dr3ohqsMG&amp;sharer_sharetime=1673957323507&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId389"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B391" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247492462&amp;idx=1&amp;sn=4f770371f0493448fab48af8750adb66&amp;chksm=fbd75102cca0d81418aca45fe714c80838b5de34555cd561aec4d87cda710e56b744f953bbbc&amp;scene=27 - wechat_redirect" r:id="rId390"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B392" location="wechat_redirect" display="https://mp.weixin.qq.com/s?__biz=MzI1MzY0MzE4Mg==&amp;mid=2247484855&amp;idx=2&amp;sn=f0032b7a1611be3d87615f3aecc334de&amp;chksm=e9d01576dea79c60aed6633bd1ff386a376c2bdb50aeaa35834644068f76a2a7f23649500fe1&amp;scene=27 - wechat_redirect" r:id="rId391"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B393" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247492047&amp;idx=1&amp;sn=7db1f1eaadfdac75c5a0ae0e3a7beea1&amp;chksm=fbd753a3cca0dab5fe09c091fb36c0ae9ba9ae83af38593d333bbdf61d97ee137b1577611ec0&amp;scene=27 - wechat_redirect" r:id="rId392"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B394" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491955&amp;idx=1&amp;sn=8d6258dd5330a86608191088ec5444a2&amp;chksm=fbd7531fcca0da0945008445177aaaf07b72b61e990fd847e36a8f516eed0f0c93123409dddd&amp;scene=27 - wechat_redirect" r:id="rId393"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B395" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491927&amp;idx=1&amp;sn=5454d891f68f7c2d49cb453cf4c40f2d&amp;chksm=fbd7533bcca0da2dc093950f0b2b95c4d525a6caf60fec117228be52afd2a498bb74812c0e92&amp;scene=27 - wechat_redirect" r:id="rId394"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B396" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491883&amp;idx=1&amp;sn=9a28cb03a2e34ec380cd5ff789b8f48d&amp;chksm=fbd75347cca0da51e1257f4de6824e77546f3eeb1e78090cd11ec71841f31cc4cf8562ab3151&amp;scene=27 - wechat_redirect" r:id="rId395"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B397" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491647&amp;idx=1&amp;sn=787f20dad8e613c0f72142df6789d91d&amp;chksm=fbd75253cca0db45abed1a13b555f358ce059b4e9477afaeb872cab12d4fc310f119d65f797a&amp;scene=27 - wechat_redirect" r:id="rId396"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B398" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247491541&amp;idx=1&amp;sn=cd70f902ac265bfb36e95deac352f797&amp;chksm=fbd4adb9cca324afc840c189ddae4f25ae5c1ee1b8405bd3d0c78c0293d87d85a516e1cfa1c0&amp;scene=27 - wechat_redirect" r:id="rId397"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B399" display="https://mp.weixin.qq.com/s?src=11&amp;timestamp=1675783003&amp;ver=4336&amp;signature=JXo7DrRlU7Hx9WJP0r7ozT7S1eVkuUt-AiIg21XL7Nz3OkHBzLWECkq4hTwtGtYY0NUnl5gLihW3hGnfr8dqXJIydi1e5uty4VX58eYccDtQI-jUVPhyMU9VvBdkCWkV&amp;new=1" r:id="rId398"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B400" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247490461&amp;idx=1&amp;sn=84a010d7fa0b0d29f25d87b57e2a29ee&amp;chksm=fbd4a9f1cca320e721ab7c0f167ae5e56f0b00aae7995f8d5a9ad49125ae8d46e86095afd120&amp;scene=27 - wechat_redirect" r:id="rId399"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B401" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247490293&amp;idx=1&amp;sn=4dcd1cf5f945c03c98ed3401afb7983d&amp;chksm=fbd4a899cca3218f328a661da553b470e018eeeef2ca3bf2696140ef045f1805f89b8c3a596a&amp;scene=27 - wechat_redirect" r:id="rId400"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B402" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247490057&amp;idx=1&amp;sn=d676c16816c16a27abe5ce69c15feafa&amp;chksm=fbd4a865cca321735c0c0a700e6210f80fa10cfa16aed6e8068dd601853a6285aa7f4601f2ad&amp;scene=27 - wechat_redirect" r:id="rId401"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B403" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247488752&amp;idx=1&amp;sn=aaaed48b319d572990c93dc1e60a7ba2&amp;chksm=fbd4a69ccca32f8a636b600a77504ab7689f8e90279ace41ae669268dba533e5b8ece9e7b2d3&amp;scene=27 - wechat_redirect" r:id="rId402"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B404" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247488177&amp;idx=1&amp;sn=ce32c5e9eaf50c9d7f5f3f075d632fc3&amp;chksm=fbd4a0ddcca329cbc93e4fded3b83d59c7ab30d64206a1cf80e63289f925635bcf7eba6651a5&amp;scene=27 - wechat_redirect" r:id="rId403"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B405" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247487620&amp;idx=1&amp;sn=b3162fec93608788430f7e52236d998e&amp;chksm=fbd4a2e8cca32bfea69c4e418e38d0c8709d2fe3395f74f73aaf48815ec8a41fc0d130ae4a1e&amp;scene=27 - wechat_redirect" r:id="rId404"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B406" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247487590&amp;idx=1&amp;sn=792f7c3a1cb05bd3c89660c2ceff3fed&amp;chksm=fbd4a20acca32b1c3a9eff018b9e3e96a31425cab16d4a7241e0258221320266007e9c3e70f0&amp;scene=27 - wechat_redirect" r:id="rId405"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B407" display="https://tech.meituan.com/2019/01/17/dianping-search-deeplearning.html" r:id="rId406"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B408" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247487240&amp;idx=1&amp;sn=f38e4a5cd73a2d2f1d52ee5eda418528&amp;chksm=fbd4bd64cca334720629ba997aca98642bc1e1b25c422623ddf07e30cb9a5f5068cf22af0048&amp;scene=27 - wechat_redirect" r:id="rId407"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B409" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247487111&amp;idx=1&amp;sn=0466151a7745795694ee6b66838ef263&amp;chksm=fbd4bcebcca335fd6038ab853b9a73ce1147c953594df2aea6fd1c1db013191086f4c656f5d2&amp;scene=27 - wechat_redirect" r:id="rId408"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B410" display="https://zhuanlan.zhihu.com/p/52287783" r:id="rId409"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B411" display="https://zhuanlan.zhihu.com/p/52146789" r:id="rId410"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B412" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247486677&amp;idx=1&amp;sn=8fba1b390945dea3d15574f1465575f0&amp;chksm=fbd4beb9cca337afbfc433e2873efb13ae87ec226bdd7dd9e1bee159a82a0201a9186c0a8449&amp;scene=27 - wechat_redirect" r:id="rId411"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B413" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247486538&amp;idx=1&amp;sn=32498d028a74dce05ffa4a4eee66e4b5&amp;chksm=fbd4be26cca33730d988a9bd19e5bcd8034fc3388ff468853bfcf5367a4dc446c1ffcff355f8&amp;scene=27 - wechat_redirect" r:id="rId412"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B414" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247486253&amp;idx=1&amp;sn=5730d5ab24b87a5985ffa5ff10d34c79&amp;chksm=fbd4b941cca330577e3755aea84d9026aca36a55490e7f71c447d613fca0ba5be77c00067490&amp;scene=27 - wechat_redirect" r:id="rId413"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B415" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247486057&amp;idx=1&amp;sn=567a04976f82b07645992790196d223f&amp;chksm=fbd4b805cca33113171e35d00054238b7a260052313ed32aa8050a4a7c9460638c65cb7a8389&amp;scene=27 - wechat_redirect" r:id="rId414"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B416" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247485830&amp;idx=1&amp;sn=621393b30e179660de9b35d57da60752&amp;chksm=fbd4bbeacca332fcfe9733a126f07386ad66c3a0381b5e0c2daa81c70d88d0d19048fad645c1&amp;scene=27 - wechat_redirect" r:id="rId415"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B417" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzU1NTMyOTI4Mw==&amp;mid=2247485411&amp;idx=1&amp;sn=3ac29da8b7a81869bd33679531e2cfe3&amp;chksm=fbd4b58fcca33c998652a1e1a84b4dee7b825df919e1c68702938ee24728121617ac30f85878&amp;scene=27 - wechat_redirect" r:id="rId416"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B418" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651746611&amp;idx=1&amp;sn=c9bf49b74c52ba3a091051772828fb54&amp;chksm=bd12a87e8a6521689690ea992fe69ab4b37cbb3f77942e2900314033fdda361d9993af6698fa&amp;mpshare=1&amp;scene=1&amp;srcid=0117WfBjqkaqVXB9LUCBJpti&amp;sharer_sharetime=1673957092409&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId417"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B419" location="rd" display="http://mp.weixin.qq.com/s?__biz=MjM5NjQ5MTI5OA==&amp;mid=2651746412&amp;idx=1&amp;sn=885e98dd829dabbe3858d6b2ea9f954f&amp;chksm=bd12a9218a652037b31b32188ff61258bdae61b3ab8bc5d326ac6f9d199cb1d83260701ff3ec&amp;mpshare=1&amp;scene=1&amp;srcid=0117bKvljgSQqp4W9Kz9mPdU&amp;sharer_sharetime=1673957061139&amp;sharer_shareid=c032e8bde4d276951619cca1ff0debb1 - rd" r:id="rId418"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B420" r:id="rId419"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B421" r:id="rId420"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B422" r:id="rId421"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B423" r:id="rId422"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B424" r:id="rId423"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B425" r:id="rId424"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B426" r:id="rId425"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B427" r:id="rId426"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B428" r:id="rId427"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B429" r:id="rId428"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B430" r:id="rId429"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B431" r:id="rId430"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B432" r:id="rId431"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B433" r:id="rId432"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B434" r:id="rId433"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B435" r:id="rId434"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B436" r:id="rId435"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B437" r:id="rId436"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B438" r:id="rId437"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B439" r:id="rId438"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B440" r:id="rId439"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B441" r:id="rId440"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B442" r:id="rId441"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B443" r:id="rId442"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B444" r:id="rId443"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B445" r:id="rId444"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B446" r:id="rId445"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B447" r:id="rId446"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B448" r:id="rId447"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B449" r:id="rId448"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B450" r:id="rId449"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B451" r:id="rId450"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B452" r:id="rId451"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B453" r:id="rId452"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B454" r:id="rId453"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B455" r:id="rId454"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B456" r:id="rId455"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B457" r:id="rId456"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B458" r:id="rId457"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B459" r:id="rId458"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B460" r:id="rId459"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B461" r:id="rId460"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B462" r:id="rId461"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B463" r:id="rId462"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B464" r:id="rId463"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B465" r:id="rId464"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B466" r:id="rId465"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B467" r:id="rId466"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B468" r:id="rId467"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B469" r:id="rId468"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B470" r:id="rId469"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B471" r:id="rId470"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B472" r:id="rId471"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B473" r:id="rId472"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B474" r:id="rId473"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B475" r:id="rId474"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B476" r:id="rId475"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B477" r:id="rId476"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B478" r:id="rId477"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B479" r:id="rId478"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B480" r:id="rId479"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B481" r:id="rId480"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B482" r:id="rId481"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B483" r:id="rId482"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B484" r:id="rId483"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B485" r:id="rId484"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B486" r:id="rId485"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B487" r:id="rId486"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B488" r:id="rId487"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B489" r:id="rId488"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B490" r:id="rId489"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B491" r:id="rId490"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B492" r:id="rId491"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B493" r:id="rId492"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B494" r:id="rId493"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B495" r:id="rId494"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B496" r:id="rId495"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B497" r:id="rId496"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B498" r:id="rId497"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B499" r:id="rId498"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B500" r:id="rId499"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B501" r:id="rId500"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B502" r:id="rId501"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B503" r:id="rId502"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B504" r:id="rId503"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B505" r:id="rId504"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B506" r:id="rId505"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B507" r:id="rId506"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B508" r:id="rId507"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B509" r:id="rId508"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B510" r:id="rId509"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B511" r:id="rId510"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B512" r:id="rId511"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B513" r:id="rId512"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B514" r:id="rId513"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B515" r:id="rId514"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B516" r:id="rId515"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B517" r:id="rId516"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B518" r:id="rId517"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B519" r:id="rId518"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B520" r:id="rId519"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B521" r:id="rId520"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B522" r:id="rId521"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B523" r:id="rId522"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B524" r:id="rId523"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B525" r:id="rId524"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B526" r:id="rId525"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B527" r:id="rId526"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B528" r:id="rId527"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D528"/>
+  <dimension ref="A1:D529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -10915,7 +10915,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
+      <c r="A513" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -10925,19 +10925,19 @@
           <t>小红书去中心化内容分发技术</t>
         </is>
       </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr">
+      <c r="C513" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D513" s="0" t="inlineStr">
         <is>
           <t>2024-10-29</t>
         </is>
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
+      <c r="A514" s="0" t="inlineStr">
         <is>
           <t>淘宝</t>
         </is>
@@ -10947,19 +10947,19 @@
           <t>LAST——重排在线学习范式的全新可能</t>
         </is>
       </c>
-      <c r="C514" t="inlineStr">
+      <c r="C514" s="0" t="inlineStr">
         <is>
           <t>重排</t>
         </is>
       </c>
-      <c r="D514" t="inlineStr">
+      <c r="D514" s="0" t="inlineStr">
         <is>
           <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
+      <c r="A515" s="0" t="inlineStr">
         <is>
           <t>腾讯广告</t>
         </is>
@@ -10969,19 +10969,19 @@
           <t>腾讯广告基于长序列建模的落地实践</t>
         </is>
       </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr">
+      <c r="C515" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D515" s="0" t="inlineStr">
         <is>
           <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="inlineStr">
+      <c r="A516" s="0" t="inlineStr">
         <is>
           <t>腾讯广告</t>
         </is>
@@ -10991,19 +10991,19 @@
           <t>腾讯广告基于混元大模型的生成式召回落地实践</t>
         </is>
       </c>
-      <c r="C516" t="inlineStr">
+      <c r="C516" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D516" t="inlineStr">
+      <c r="D516" s="0" t="inlineStr">
         <is>
           <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr">
+      <c r="A517" s="0" t="inlineStr">
         <is>
           <t>淘宝</t>
         </is>
@@ -11013,19 +11013,19 @@
           <t>MNR—淘宝高效多场景近线召回框架</t>
         </is>
       </c>
-      <c r="C517" t="inlineStr">
+      <c r="C517" s="0" t="inlineStr">
         <is>
           <t>召回</t>
         </is>
       </c>
-      <c r="D517" t="inlineStr">
+      <c r="D517" s="0" t="inlineStr">
         <is>
           <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="inlineStr">
+      <c r="A518" s="0" t="inlineStr">
         <is>
           <t>淘宝</t>
         </is>
@@ -11035,19 +11035,19 @@
           <t>多样性重排算法在淘宝首页信息流的创新应用</t>
         </is>
       </c>
-      <c r="C518" t="inlineStr">
+      <c r="C518" s="0" t="inlineStr">
         <is>
           <t>重排</t>
         </is>
       </c>
-      <c r="D518" t="inlineStr">
+      <c r="D518" s="0" t="inlineStr">
         <is>
           <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="inlineStr">
+      <c r="A519" s="0" t="inlineStr">
         <is>
           <t>爱奇艺</t>
         </is>
@@ -11057,19 +11057,19 @@
           <t>在线深度学习：爱奇艺效果广告分钟级模型优化</t>
         </is>
       </c>
-      <c r="C519" t="inlineStr">
+      <c r="C519" s="0" t="inlineStr">
         <is>
           <t>广告</t>
         </is>
       </c>
-      <c r="D519" t="inlineStr">
+      <c r="D519" s="0" t="inlineStr">
         <is>
           <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr">
+      <c r="A520" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -11079,19 +11079,19 @@
           <t>全域用户建模在美团首页推荐的探索与实践</t>
         </is>
       </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
+      <c r="C520" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D520" s="0" t="inlineStr">
         <is>
           <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr">
+      <c r="A521" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -11101,19 +11101,19 @@
           <t>小红书搜索：生成式检索的探索与实践</t>
         </is>
       </c>
-      <c r="C521" t="inlineStr">
+      <c r="C521" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D521" t="inlineStr">
+      <c r="D521" s="0" t="inlineStr">
         <is>
           <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr">
+      <c r="A522" s="0" t="inlineStr">
         <is>
           <t>爱奇艺</t>
         </is>
@@ -11123,19 +11123,19 @@
           <t>AI技术在爱奇艺视频搜索中的应用</t>
         </is>
       </c>
-      <c r="C522" t="inlineStr">
+      <c r="C522" s="0" t="inlineStr">
         <is>
           <t>搜索</t>
         </is>
       </c>
-      <c r="D522" t="inlineStr">
+      <c r="D522" s="0" t="inlineStr">
         <is>
           <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr">
+      <c r="A523" s="0" t="inlineStr">
         <is>
           <t>小红书</t>
         </is>
@@ -11145,19 +11145,19 @@
           <t>多模态对齐在小红书推荐的研究及应用</t>
         </is>
       </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr">
+      <c r="C523" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D523" s="0" t="inlineStr">
         <is>
           <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
+      <c r="A524" s="0" t="inlineStr">
         <is>
           <t>网易云</t>
         </is>
@@ -11167,19 +11167,19 @@
           <t>多模态推荐在网易云音乐社区的创新实践</t>
         </is>
       </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr">
+      <c r="C524" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D524" s="0" t="inlineStr">
         <is>
           <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr">
+      <c r="A525" s="0" t="inlineStr">
         <is>
           <t>京东</t>
         </is>
@@ -11189,19 +11189,19 @@
           <t>京东健康基于大模型的生成式推荐在电商标品推荐的应用</t>
         </is>
       </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr">
+      <c r="C525" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D525" s="0" t="inlineStr">
         <is>
           <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr">
+      <c r="A526" s="0" t="inlineStr">
         <is>
           <t>爱奇艺</t>
         </is>
@@ -11211,19 +11211,19 @@
           <t>爱奇艺广告智能算力探索与实践</t>
         </is>
       </c>
-      <c r="C526" t="inlineStr">
+      <c r="C526" s="0" t="inlineStr">
         <is>
           <t>广告</t>
         </is>
       </c>
-      <c r="D526" t="inlineStr">
+      <c r="D526" s="0" t="inlineStr">
         <is>
           <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr">
+      <c r="A527" s="0" t="inlineStr">
         <is>
           <t>腾讯广告</t>
         </is>
@@ -11233,19 +11233,19 @@
           <t>推荐模型中的辅助排序损失</t>
         </is>
       </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr">
+      <c r="C527" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D527" s="0" t="inlineStr">
         <is>
           <t>2024-08-27</t>
         </is>
       </c>
     </row>
     <row r="528">
-      <c r="A528" t="inlineStr">
+      <c r="A528" s="0" t="inlineStr">
         <is>
           <t>腾讯广告</t>
         </is>
@@ -11255,14 +11255,36 @@
           <t>跨领域迁移学习在广告用户价值预估场景应用探索</t>
         </is>
       </c>
-      <c r="C528" t="inlineStr">
+      <c r="C528" s="0" t="inlineStr">
         <is>
           <t>广告</t>
         </is>
       </c>
-      <c r="D528" t="inlineStr">
+      <c r="D528" s="0" t="inlineStr">
         <is>
           <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+      <c r="B529" s="12" t="inlineStr">
+        <is>
+          <t>简单又高效：多场景近线召回在淘宝推荐中的最新范式</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
@@ -11796,6 +11818,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B526" r:id="rId525"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B527" r:id="rId526"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B528" r:id="rId527"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B529" r:id="rId528"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D529"/>
+  <dimension ref="A1:D537"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -11267,7 +11267,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="inlineStr">
+      <c r="A529" s="0" t="inlineStr">
         <is>
           <t>淘宝</t>
         </is>
@@ -11277,14 +11277,190 @@
           <t>简单又高效：多场景近线召回在淘宝推荐中的最新范式</t>
         </is>
       </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr">
+      <c r="C529" s="0" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D529" s="0" t="inlineStr">
         <is>
           <t>2024-10-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B530" s="12" t="inlineStr">
+        <is>
+          <t>百度Feed端到端内容理解与序列生成项目</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>生成式</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B531" s="12" t="inlineStr">
+        <is>
+          <t>百度推荐技术标题改写实践</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>生成式</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B532" s="12" t="inlineStr">
+        <is>
+          <t>百度推荐广告生成式排序模型技术实践</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>生成式</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B533" s="12" t="inlineStr">
+        <is>
+          <t>百度搜索广告召回的生成式革新</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>生成式</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B534" s="12" t="inlineStr">
+        <is>
+          <t>百度生成式广告推荐召回工业级新范式</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>生成式</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B535" s="12" t="inlineStr">
+        <is>
+          <t>百度商业大模型在线推理工程优化实践</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>生成式</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B536" s="12" t="inlineStr">
+        <is>
+          <t>百度搜索广告端到端拍卖技术实践</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B537" s="12" t="inlineStr">
+        <is>
+          <t>GRAB：百度推荐广告生成排序模型技术实践</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>生成式</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -11819,6 +11995,14 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B527" r:id="rId526"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B528" r:id="rId527"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B529" r:id="rId528"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B530" r:id="rId529"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B531" r:id="rId530"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B532" r:id="rId531"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B533" r:id="rId532"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B534" r:id="rId533"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B535" r:id="rId534"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B536" r:id="rId535"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B537" r:id="rId536"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D537"/>
+  <dimension ref="A1:D539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -11289,7 +11289,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="inlineStr">
+      <c r="A530" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -11299,19 +11299,19 @@
           <t>百度Feed端到端内容理解与序列生成项目</t>
         </is>
       </c>
-      <c r="C530" t="inlineStr">
+      <c r="C530" s="0" t="inlineStr">
         <is>
           <t>生成式</t>
         </is>
       </c>
-      <c r="D530" t="inlineStr">
+      <c r="D530" s="0" t="inlineStr">
         <is>
           <t>2025-09-08</t>
         </is>
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="inlineStr">
+      <c r="A531" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -11321,19 +11321,19 @@
           <t>百度推荐技术标题改写实践</t>
         </is>
       </c>
-      <c r="C531" t="inlineStr">
+      <c r="C531" s="0" t="inlineStr">
         <is>
           <t>生成式</t>
         </is>
       </c>
-      <c r="D531" t="inlineStr">
+      <c r="D531" s="0" t="inlineStr">
         <is>
           <t>2025-09-30</t>
         </is>
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr">
+      <c r="A532" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -11343,19 +11343,19 @@
           <t>百度推荐广告生成式排序模型技术实践</t>
         </is>
       </c>
-      <c r="C532" t="inlineStr">
+      <c r="C532" s="0" t="inlineStr">
         <is>
           <t>生成式</t>
         </is>
       </c>
-      <c r="D532" t="inlineStr">
+      <c r="D532" s="0" t="inlineStr">
         <is>
           <t>2025-05-22</t>
         </is>
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
+      <c r="A533" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -11365,19 +11365,19 @@
           <t>百度搜索广告召回的生成式革新</t>
         </is>
       </c>
-      <c r="C533" t="inlineStr">
+      <c r="C533" s="0" t="inlineStr">
         <is>
           <t>生成式</t>
         </is>
       </c>
-      <c r="D533" t="inlineStr">
+      <c r="D533" s="0" t="inlineStr">
         <is>
           <t>2025-05-29</t>
         </is>
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="inlineStr">
+      <c r="A534" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -11387,19 +11387,19 @@
           <t>百度生成式广告推荐召回工业级新范式</t>
         </is>
       </c>
-      <c r="C534" t="inlineStr">
+      <c r="C534" s="0" t="inlineStr">
         <is>
           <t>生成式</t>
         </is>
       </c>
-      <c r="D534" t="inlineStr">
+      <c r="D534" s="0" t="inlineStr">
         <is>
           <t>2025-05-30</t>
         </is>
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr">
+      <c r="A535" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -11409,19 +11409,19 @@
           <t>百度商业大模型在线推理工程优化实践</t>
         </is>
       </c>
-      <c r="C535" t="inlineStr">
+      <c r="C535" s="0" t="inlineStr">
         <is>
           <t>生成式</t>
         </is>
       </c>
-      <c r="D535" t="inlineStr">
+      <c r="D535" s="0" t="inlineStr">
         <is>
           <t>2025-07-10</t>
         </is>
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr">
+      <c r="A536" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -11431,19 +11431,19 @@
           <t>百度搜索广告端到端拍卖技术实践</t>
         </is>
       </c>
-      <c r="C536" t="inlineStr">
+      <c r="C536" s="0" t="inlineStr">
         <is>
           <t>广告</t>
         </is>
       </c>
-      <c r="D536" t="inlineStr">
+      <c r="D536" s="0" t="inlineStr">
         <is>
           <t>2025-09-04</t>
         </is>
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr">
+      <c r="A537" s="0" t="inlineStr">
         <is>
           <t>百度</t>
         </is>
@@ -11453,14 +11453,58 @@
           <t>GRAB：百度推荐广告生成排序模型技术实践</t>
         </is>
       </c>
-      <c r="C537" t="inlineStr">
+      <c r="C537" s="0" t="inlineStr">
         <is>
           <t>生成式</t>
         </is>
       </c>
-      <c r="D537" t="inlineStr">
+      <c r="D537" s="0" t="inlineStr">
         <is>
           <t>2025-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B538" s="12" t="inlineStr">
+        <is>
+          <t>[datafun分享] MTGR：美团外卖生成式推荐 Scaling Law 落地实践</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>生成式</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B539" s="12" t="inlineStr">
+        <is>
+          <t>[美团技术团队] MTGR：美团外卖生成式推荐 Scaling Law 落地实践</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>生成式</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
@@ -12003,6 +12047,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B535" r:id="rId534"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B536" r:id="rId535"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B537" r:id="rId536"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B538" r:id="rId537"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B539" r:id="rId538"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source.xlsx
+++ b/source.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D539"/>
+  <dimension ref="A1:D574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -11465,7 +11465,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr">
+      <c r="A538" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -11475,19 +11475,19 @@
           <t>[datafun分享] MTGR：美团外卖生成式推荐 Scaling Law 落地实践</t>
         </is>
       </c>
-      <c r="C538" t="inlineStr">
+      <c r="C538" s="0" t="inlineStr">
         <is>
           <t>生成式</t>
         </is>
       </c>
-      <c r="D538" t="inlineStr">
+      <c r="D538" s="0" t="inlineStr">
         <is>
           <t>2025-09-11</t>
         </is>
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="inlineStr">
+      <c r="A539" s="0" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
@@ -11497,14 +11497,784 @@
           <t>[美团技术团队] MTGR：美团外卖生成式推荐 Scaling Law 落地实践</t>
         </is>
       </c>
-      <c r="C539" t="inlineStr">
+      <c r="C539" s="0" t="inlineStr">
         <is>
           <t>生成式</t>
         </is>
       </c>
-      <c r="D539" t="inlineStr">
+      <c r="D539" s="0" t="inlineStr">
         <is>
           <t>2025-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B540" s="12" t="inlineStr">
+        <is>
+          <t>EasyRec 推荐算法训练推理优化</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B541" s="12" t="inlineStr">
+        <is>
+          <t>对话淘宝姜宇宁：如果你只推低价商品，是不需要用大语言模型的</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B542" s="12" t="inlineStr">
+        <is>
+          <t>深度学习框架RecIS，专为超大规模稀疏+稠密计算设计</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B543" s="12" t="inlineStr">
+        <is>
+          <t>ULIM：解锁用户长期兴趣，推荐场景下的用户超长序列召回</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B544" s="12" t="inlineStr">
+        <is>
+          <t>阿里妈妈展示广告提出基于多归因学习的CVR预估范式MAL</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B545" s="12" t="inlineStr">
+        <is>
+          <t>集成大语言模型与电商知识的通用召回大模型URM</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B546" s="12" t="inlineStr">
+        <is>
+          <t>首猜两阶段端到端多兴趣新范式</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B547" s="12" t="inlineStr">
+        <is>
+          <t>淘宝直播技术新范式（二）｜新型商品推荐链路带来百万级DAU增量</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B548" s="12" t="inlineStr">
+        <is>
+          <t>淘宝直播技术新范式（一）｜实时挂品识别能力实现精准即时的人货匹配</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B549" s="12" t="inlineStr">
+        <is>
+          <t>认知推荐（二）：基于LLM的淘宝推荐算法显著提升发现性比例</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B550" s="12" t="inlineStr">
+        <is>
+          <t>淘宝拍立淘应用多模态属性理解新范式，曝光相关性突破95%</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>阿里</t>
+        </is>
+      </c>
+      <c r="B551" s="12" t="inlineStr">
+        <is>
+          <t>时令品智能推荐系统让淘宝与用户实现“四季之约”</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B552" s="12" t="inlineStr">
+        <is>
+          <t>在线广告系统的智能算力资源回收框架</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B553" s="12" t="inlineStr">
+        <is>
+          <t>大模型深度赋能搜索广告：相关性大模型多维知识蒸馏</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B554" s="12" t="inlineStr">
+        <is>
+          <t>阿里妈妈搜索广告大模型2024思考与实践</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>阿里妈妈</t>
+        </is>
+      </c>
+      <c r="B555" s="12" t="inlineStr">
+        <is>
+          <t>生成式拍卖：感知排列外部性的整页优化机制</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="B556" s="12" t="inlineStr">
+        <is>
+          <t>[datafun分享] 京东电商搜索：大模型生成式检索优化实践</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="B557" s="12" t="inlineStr">
+        <is>
+          <t>京东健康基于大模型的生成式推荐在电商标品推荐的应用</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="B558" s="12" t="inlineStr">
+        <is>
+          <t>深度拆解One4All框架，生成式推荐在京东CPS广告的技术探索</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="B559" s="12" t="inlineStr">
+        <is>
+          <t>京东广告创意：高质量创意生成和千人千面的创意推荐</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="B560" s="12" t="inlineStr">
+        <is>
+          <t>京东电商搜索：大模型生成式检索优化实践</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B561" s="12" t="inlineStr">
+        <is>
+          <t>快手广告领域的大模型技术探索与实践</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B562" s="12" t="inlineStr">
+        <is>
+          <t>生成式强化学习在广告自动出价场景的技术实践</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B563" s="12" t="inlineStr">
+        <is>
+          <t>快手端到端生成式搜索框架OneSearch</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B564" s="12" t="inlineStr">
+        <is>
+          <t>快手搜索提出个性化生成式SUG</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B565" s="12" t="inlineStr">
+        <is>
+          <t>快手提出端到端生成式推荐系统OneRec</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B566" s="12" t="inlineStr">
+        <is>
+          <t>快手SL-MGAC精准稳定插播直播赢用户时长</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B567" s="12" t="inlineStr">
+        <is>
+          <t>快手LCRON：工业级级联排序系统一体化建模新范式，助力商业化收入增长</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+      <c r="B568" s="12" t="inlineStr">
+        <is>
+          <t>深度点击率预估模型的One-Epoch过拟合现象剖析</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>小红书</t>
+        </is>
+      </c>
+      <c r="B569" s="12" t="inlineStr">
+        <is>
+          <t>AIGC 赋能展示广告：大模型在小红书标题生成中的深度实践</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="B570" s="12" t="inlineStr">
+        <is>
+          <t>上下文感知的聚合页广告优化实践</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>腾讯</t>
+        </is>
+      </c>
+      <c r="B571" s="12" t="inlineStr">
+        <is>
+          <t>腾讯广告LFM4Ads基础大模型：全表征多粒度知识迁移，全平台GMV提升2.45%</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>腾讯</t>
+        </is>
+      </c>
+      <c r="B572" s="12" t="inlineStr">
+        <is>
+          <t>腾讯搜索广告：基于混元大模型的生成式召回探索与应用</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>腾讯</t>
+        </is>
+      </c>
+      <c r="B573" s="12" t="inlineStr">
+        <is>
+          <t>深入理解推荐模型中的辅助排序损失</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>腾讯</t>
+        </is>
+      </c>
+      <c r="B574" s="12" t="inlineStr">
+        <is>
+          <t>跨领域迁移学习在广告用户价值预估场景应用探索</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
@@ -12049,6 +12819,41 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B537" r:id="rId536"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B538" r:id="rId537"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B539" r:id="rId538"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B540" r:id="rId539"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B541" r:id="rId540"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B542" r:id="rId541"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B543" r:id="rId542"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B544" r:id="rId543"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B545" r:id="rId544"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B546" r:id="rId545"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B547" r:id="rId546"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B548" r:id="rId547"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B549" r:id="rId548"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B550" r:id="rId549"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B551" r:id="rId550"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B552" r:id="rId551"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B553" r:id="rId552"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B554" r:id="rId553"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B555" r:id="rId554"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B556" r:id="rId555"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B557" r:id="rId556"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B558" r:id="rId557"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B559" r:id="rId558"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B560" r:id="rId559"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B561" r:id="rId560"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B562" r:id="rId561"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B563" r:id="rId562"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B564" r:id="rId563"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B565" r:id="rId564"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B566" r:id="rId565"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B567" r:id="rId566"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B568" r:id="rId567"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B569" r:id="rId568"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B570" r:id="rId569"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B571" r:id="rId570"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B572" r:id="rId571"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B573" r:id="rId572"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B574" r:id="rId573"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
